--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_8_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_8_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136793.056118468</v>
+        <v>158976.8063866928</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9167573.323130395</v>
+        <v>10124182.27744495</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22176453.17582963</v>
+        <v>22038913.79229159</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4049500.391504237</v>
+        <v>4050235.849896763</v>
       </c>
     </row>
     <row r="11">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>4.018462044011844</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4189,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>4.018462044011843</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>9.581723550112187</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>14.19009386086257</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>4.973353239361809</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>4.881646670177876</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>9.215818947438606</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>13.73248268900505</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>18.2491464305715</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>13.64077611982112</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>9.032405809070742</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>4.424035498320363</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>0.36498292861143</v>
       </c>
     </row>
   </sheetData>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>100.9387195582597</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K11" t="n">
-        <v>100.0299464227919</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L11" t="n">
-        <v>86.82148686318189</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M11" t="n">
-        <v>64.61630209323866</v>
+        <v>20.92686739226639</v>
       </c>
       <c r="N11" t="n">
-        <v>61.00144891149961</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O11" t="n">
-        <v>71.07189926570237</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P11" t="n">
-        <v>95.50771753390021</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q11" t="n">
-        <v>120.3816583481039</v>
+        <v>93.51262335026311</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>79.12633608862856</v>
+        <v>66.54876907979123</v>
       </c>
       <c r="K12" t="n">
-        <v>56.29524403393702</v>
+        <v>34.79817869043561</v>
       </c>
       <c r="L12" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>37.54182911310821</v>
+        <v>12.12044141380177</v>
       </c>
       <c r="Q12" t="n">
-        <v>75.5191492782957</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>79.82491575659759</v>
+        <v>66.8579709251007</v>
       </c>
       <c r="L13" t="n">
-        <v>71.94053294496764</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M13" t="n">
-        <v>72.56001021962936</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N13" t="n">
-        <v>62.89780050171086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O13" t="n">
-        <v>78.61457070130248</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P13" t="n">
-        <v>86.52286261917671</v>
+        <v>73.02425275703003</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>100.9387195582597</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K14" t="n">
-        <v>100.0299464227919</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L14" t="n">
-        <v>86.82148686318189</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M14" t="n">
-        <v>64.61630209323866</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N14" t="n">
-        <v>61.00144891149961</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O14" t="n">
-        <v>71.07189926570237</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P14" t="n">
-        <v>95.50771753390021</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q14" t="n">
-        <v>120.3816583481039</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>79.12633608862856</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K15" t="n">
-        <v>56.29524403393702</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L15" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>37.54182911310821</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q15" t="n">
-        <v>75.5191492782957</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>79.82491575659759</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L16" t="n">
-        <v>71.94053294496764</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M16" t="n">
-        <v>72.56001021962936</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N16" t="n">
-        <v>62.89780050171086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O16" t="n">
-        <v>78.61457070130248</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P16" t="n">
-        <v>86.52286261917671</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>100.9387195582597</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K17" t="n">
-        <v>100.0299464227919</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L17" t="n">
-        <v>86.82148686318186</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M17" t="n">
-        <v>64.61630209323863</v>
+        <v>20.92686739226639</v>
       </c>
       <c r="N17" t="n">
-        <v>61.00144891149961</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O17" t="n">
-        <v>71.0718992657024</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P17" t="n">
-        <v>95.50771753390021</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q17" t="n">
-        <v>120.3816583481039</v>
+        <v>93.51262335026311</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>79.12633608862856</v>
+        <v>66.54876907979123</v>
       </c>
       <c r="K18" t="n">
-        <v>56.29524403393702</v>
+        <v>34.79817869043561</v>
       </c>
       <c r="L18" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>37.54182911310821</v>
+        <v>12.12044141380177</v>
       </c>
       <c r="Q18" t="n">
-        <v>75.51914927829571</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>79.82491575659759</v>
+        <v>66.8579709251007</v>
       </c>
       <c r="L19" t="n">
-        <v>71.94053294496764</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M19" t="n">
-        <v>72.56001021962938</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N19" t="n">
-        <v>62.89780050171086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O19" t="n">
-        <v>78.61457070130248</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P19" t="n">
-        <v>86.52286261917671</v>
+        <v>73.02425275703003</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>100.9387195582597</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K20" t="n">
-        <v>100.0299464227919</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L20" t="n">
-        <v>86.82148686318189</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M20" t="n">
-        <v>64.61630209323866</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N20" t="n">
-        <v>61.00144891149961</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O20" t="n">
-        <v>71.07189926570237</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P20" t="n">
-        <v>95.50771753390021</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q20" t="n">
-        <v>120.3816583481039</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>79.12633608862856</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K21" t="n">
-        <v>56.29524403393702</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L21" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>37.54182911310821</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q21" t="n">
-        <v>75.5191492782957</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>79.82491575659759</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L22" t="n">
-        <v>71.94053294496764</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M22" t="n">
-        <v>72.56001021962936</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N22" t="n">
-        <v>62.89780050171086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O22" t="n">
-        <v>78.61457070130248</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P22" t="n">
-        <v>86.52286261917671</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>100.9387195582597</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K23" t="n">
-        <v>100.0299464227919</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L23" t="n">
-        <v>86.82148686318189</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M23" t="n">
-        <v>64.61630209323866</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N23" t="n">
-        <v>61.00144891149961</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O23" t="n">
-        <v>71.07189926570237</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P23" t="n">
-        <v>95.50771753390021</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q23" t="n">
-        <v>120.3816583481039</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>79.12633608862856</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K24" t="n">
-        <v>56.29524403393702</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L24" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>37.54182911310821</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q24" t="n">
-        <v>75.5191492782957</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>79.82491575659759</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L25" t="n">
-        <v>71.94053294496764</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M25" t="n">
-        <v>72.56001021962936</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N25" t="n">
-        <v>62.89780050171086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O25" t="n">
-        <v>78.61457070130248</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P25" t="n">
-        <v>86.52286261917671</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>100.9387195582597</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K26" t="n">
-        <v>100.0299464227919</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L26" t="n">
-        <v>86.82148686318189</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M26" t="n">
-        <v>64.61630209323866</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N26" t="n">
-        <v>61.00144891149961</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O26" t="n">
-        <v>71.07189926570237</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P26" t="n">
-        <v>95.50771753390021</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q26" t="n">
-        <v>120.3816583481039</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>79.12633608862856</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K27" t="n">
-        <v>56.29524403393702</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L27" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>37.54182911310821</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q27" t="n">
-        <v>75.5191492782957</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>79.82491575659759</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L28" t="n">
-        <v>71.94053294496764</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M28" t="n">
-        <v>72.56001021962936</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N28" t="n">
-        <v>62.89780050171086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O28" t="n">
-        <v>78.61457070130248</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P28" t="n">
-        <v>86.52286261917671</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>100.9387195582597</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K29" t="n">
-        <v>100.0299464227919</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L29" t="n">
-        <v>86.82148686318189</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M29" t="n">
-        <v>64.61630209323866</v>
+        <v>20.92686739226639</v>
       </c>
       <c r="N29" t="n">
-        <v>61.00144891149961</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O29" t="n">
-        <v>71.07189926570237</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P29" t="n">
-        <v>95.50771753390021</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q29" t="n">
-        <v>120.3816583481039</v>
+        <v>93.51262335026311</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>79.12633608862856</v>
+        <v>66.54876907979123</v>
       </c>
       <c r="K30" t="n">
-        <v>56.29524403393702</v>
+        <v>34.79817869043561</v>
       </c>
       <c r="L30" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>37.54182911310821</v>
+        <v>12.12044141380177</v>
       </c>
       <c r="Q30" t="n">
-        <v>75.5191492782957</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>79.82491575659759</v>
+        <v>66.8579709251007</v>
       </c>
       <c r="L31" t="n">
-        <v>71.94053294496764</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M31" t="n">
-        <v>72.56001021962936</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N31" t="n">
-        <v>62.89780050171086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O31" t="n">
-        <v>78.61457070130248</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P31" t="n">
-        <v>86.52286261917671</v>
+        <v>73.02425275703003</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>100.9387195582597</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K32" t="n">
-        <v>100.0299464227919</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L32" t="n">
-        <v>86.82148686318189</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M32" t="n">
-        <v>64.61630209323866</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N32" t="n">
-        <v>61.00144891149961</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O32" t="n">
-        <v>71.07189926570237</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P32" t="n">
-        <v>95.50771753390021</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q32" t="n">
-        <v>120.3816583481039</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>79.12633608862856</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K33" t="n">
-        <v>56.29524403393702</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L33" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>37.54182911310821</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q33" t="n">
-        <v>75.5191492782957</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>79.82491575659759</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L34" t="n">
-        <v>71.94053294496764</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M34" t="n">
-        <v>72.56001021962936</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N34" t="n">
-        <v>62.89780050171086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O34" t="n">
-        <v>78.61457070130248</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P34" t="n">
-        <v>86.52286261917671</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>100.9387195582597</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K35" t="n">
-        <v>100.0299464227919</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L35" t="n">
-        <v>86.82148686318189</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M35" t="n">
-        <v>64.61630209323866</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N35" t="n">
-        <v>61.00144891149961</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O35" t="n">
-        <v>71.07189926570237</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P35" t="n">
-        <v>95.50771753390021</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q35" t="n">
-        <v>120.3816583481039</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>79.12633608862856</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K36" t="n">
-        <v>56.29524403393702</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L36" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>37.54182911310821</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q36" t="n">
-        <v>75.5191492782957</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>79.82491575659759</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L37" t="n">
-        <v>71.94053294496764</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M37" t="n">
-        <v>72.56001021962936</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N37" t="n">
-        <v>62.89780050171086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O37" t="n">
-        <v>78.61457070130248</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P37" t="n">
-        <v>86.52286261917671</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>100.9387195582597</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K38" t="n">
-        <v>100.0299464227919</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L38" t="n">
-        <v>86.82148686318189</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M38" t="n">
-        <v>64.61630209323866</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N38" t="n">
-        <v>61.00144891149961</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O38" t="n">
-        <v>71.07189926570237</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P38" t="n">
-        <v>95.50771753390021</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q38" t="n">
-        <v>120.3816583481039</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>79.12633608862856</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K39" t="n">
-        <v>56.29524403393702</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L39" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>37.54182911310821</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q39" t="n">
-        <v>75.5191492782957</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>79.82491575659759</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L40" t="n">
-        <v>71.94053294496764</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M40" t="n">
-        <v>72.56001021962936</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N40" t="n">
-        <v>62.89780050171086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O40" t="n">
-        <v>78.61457070130248</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P40" t="n">
-        <v>86.52286261917671</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>100.9387195582597</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K41" t="n">
-        <v>100.0299464227919</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L41" t="n">
-        <v>86.82148686318189</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M41" t="n">
-        <v>64.61630209323866</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N41" t="n">
-        <v>61.00144891149961</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O41" t="n">
-        <v>71.07189926570237</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P41" t="n">
-        <v>95.50771753390021</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q41" t="n">
-        <v>120.3816583481039</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>79.12633608862856</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K42" t="n">
-        <v>56.29524403393702</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L42" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>37.54182911310821</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q42" t="n">
-        <v>75.5191492782957</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>79.82491575659759</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L43" t="n">
-        <v>71.94053294496764</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M43" t="n">
-        <v>72.56001021962936</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N43" t="n">
-        <v>62.89780050171086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O43" t="n">
-        <v>78.61457070130248</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P43" t="n">
-        <v>86.52286261917671</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>100.9387195582597</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K44" t="n">
-        <v>100.0299464227919</v>
+        <v>57.8521323086317</v>
       </c>
       <c r="L44" t="n">
-        <v>86.82148686318189</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M44" t="n">
-        <v>64.61630209323866</v>
+        <v>4.474515194684224</v>
       </c>
       <c r="N44" t="n">
-        <v>61.00144891149961</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>71.07189926570237</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P44" t="n">
-        <v>95.50771753390021</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q44" t="n">
-        <v>120.3816583481039</v>
+        <v>85.26425743221384</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>79.12633608862856</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K45" t="n">
-        <v>56.29524403393702</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L45" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>37.54182911310821</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>75.5191492782957</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>79.82491575659759</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L46" t="n">
-        <v>71.94053294496764</v>
+        <v>51.99825569640058</v>
       </c>
       <c r="M46" t="n">
-        <v>72.56001021962936</v>
+        <v>46.72338342663512</v>
       </c>
       <c r="N46" t="n">
-        <v>62.89780050171086</v>
+        <v>42.05346274136652</v>
       </c>
       <c r="O46" t="n">
-        <v>78.61457070130248</v>
+        <v>59.87999055852636</v>
       </c>
       <c r="P46" t="n">
-        <v>86.52286261917671</v>
+        <v>71.15065506373918</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.3588981658848</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H11" t="n">
-        <v>329.8087073802583</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I11" t="n">
-        <v>174.0885230584365</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>90.58066941881005</v>
+        <v>74.95115227296736</v>
       </c>
       <c r="S11" t="n">
-        <v>187.5123304152058</v>
+        <v>181.8424978167796</v>
       </c>
       <c r="T11" t="n">
-        <v>218.9641928127885</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H12" t="n">
-        <v>107.3582211803319</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I12" t="n">
-        <v>72.00962059397116</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>68.80362453272261</v>
+        <v>60.53808260908391</v>
       </c>
       <c r="S12" t="n">
-        <v>162.3030441088983</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T12" t="n">
-        <v>198.1292300623896</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U12" t="n">
-        <v>225.908158490674</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.5676055192152</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H13" t="n">
-        <v>158.4629941912556</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I13" t="n">
-        <v>142.7184689252781</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J13" t="n">
-        <v>63.42664968215054</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.71025749466926</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R13" t="n">
-        <v>158.2569640235438</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S13" t="n">
-        <v>216.6383466748816</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T13" t="n">
-        <v>226.1366284787861</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.3588981658848</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H14" t="n">
-        <v>329.8087073802583</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I14" t="n">
-        <v>174.0885230584365</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>90.58066941881005</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S14" t="n">
-        <v>187.5123304152058</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T14" t="n">
-        <v>218.9641928127885</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H15" t="n">
-        <v>107.3582211803319</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I15" t="n">
-        <v>72.00962059397116</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>68.80362453272261</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S15" t="n">
-        <v>162.3030441088983</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T15" t="n">
-        <v>198.1292300623896</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U15" t="n">
-        <v>225.908158490674</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.5676055192152</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H16" t="n">
-        <v>158.4629941912556</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I16" t="n">
-        <v>142.7184689252781</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J16" t="n">
-        <v>63.42664968215054</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.71025749466926</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R16" t="n">
-        <v>158.2569640235438</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S16" t="n">
-        <v>216.6383466748816</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T16" t="n">
-        <v>226.1366284787861</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.3588981658848</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H17" t="n">
-        <v>329.8087073802583</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I17" t="n">
-        <v>174.0885230584365</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>90.58066941881005</v>
+        <v>74.95115227296736</v>
       </c>
       <c r="S17" t="n">
-        <v>187.5123304152058</v>
+        <v>181.8424978167796</v>
       </c>
       <c r="T17" t="n">
-        <v>218.9641928127885</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H18" t="n">
-        <v>107.3582211803319</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I18" t="n">
-        <v>72.00962059397116</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>68.80362453272261</v>
+        <v>60.53808260908391</v>
       </c>
       <c r="S18" t="n">
-        <v>162.3030441088983</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T18" t="n">
-        <v>198.1292300623896</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U18" t="n">
-        <v>225.908158490674</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.5676055192152</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H19" t="n">
-        <v>158.4629941912556</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I19" t="n">
-        <v>142.7184689252781</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J19" t="n">
-        <v>63.42664968215054</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.71025749466926</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R19" t="n">
-        <v>158.2569640235438</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S19" t="n">
-        <v>216.6383466748816</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T19" t="n">
-        <v>226.1366284787861</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.3588981658848</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H20" t="n">
-        <v>329.8087073802583</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I20" t="n">
-        <v>174.0885230584365</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>90.58066941881005</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S20" t="n">
-        <v>187.5123304152058</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T20" t="n">
-        <v>218.9641928127885</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H21" t="n">
-        <v>107.3582211803319</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I21" t="n">
-        <v>72.00962059397116</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>68.80362453272261</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S21" t="n">
-        <v>162.3030441088983</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T21" t="n">
-        <v>198.1292300623896</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U21" t="n">
-        <v>225.908158490674</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.5676055192152</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H22" t="n">
-        <v>158.4629941912556</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I22" t="n">
-        <v>142.7184689252781</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J22" t="n">
-        <v>63.42664968215054</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.71025749466926</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R22" t="n">
-        <v>158.2569640235438</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S22" t="n">
-        <v>216.6383466748816</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T22" t="n">
-        <v>226.1366284787861</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.3588981658848</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H23" t="n">
-        <v>329.8087073802583</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I23" t="n">
-        <v>174.0885230584365</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>90.58066941881005</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S23" t="n">
-        <v>187.5123304152058</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T23" t="n">
-        <v>218.9641928127885</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H24" t="n">
-        <v>107.3582211803319</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I24" t="n">
-        <v>72.00962059397116</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>68.80362453272261</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S24" t="n">
-        <v>162.3030441088983</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T24" t="n">
-        <v>198.1292300623896</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U24" t="n">
-        <v>225.908158490674</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.5676055192152</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H25" t="n">
-        <v>158.4629941912556</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I25" t="n">
-        <v>142.7184689252781</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J25" t="n">
-        <v>63.42664968215054</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.71025749466926</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R25" t="n">
-        <v>158.2569640235438</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S25" t="n">
-        <v>216.6383466748816</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T25" t="n">
-        <v>226.1366284787861</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.3588981658848</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H26" t="n">
-        <v>329.8087073802583</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I26" t="n">
-        <v>174.0885230584365</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>90.58066941881005</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S26" t="n">
-        <v>187.5123304152058</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T26" t="n">
-        <v>218.9641928127885</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H27" t="n">
-        <v>107.3582211803319</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I27" t="n">
-        <v>72.00962059397116</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>68.80362453272261</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S27" t="n">
-        <v>162.3030441088983</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T27" t="n">
-        <v>198.1292300623896</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U27" t="n">
-        <v>225.908158490674</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.5676055192152</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H28" t="n">
-        <v>158.4629941912556</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I28" t="n">
-        <v>142.7184689252781</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J28" t="n">
-        <v>63.42664968215054</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.71025749466926</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R28" t="n">
-        <v>158.2569640235438</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S28" t="n">
-        <v>216.6383466748816</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T28" t="n">
-        <v>226.1366284787861</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.3588981658848</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H29" t="n">
-        <v>329.8087073802583</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I29" t="n">
-        <v>174.0885230584365</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>90.58066941881005</v>
+        <v>74.95115227296736</v>
       </c>
       <c r="S29" t="n">
-        <v>187.5123304152058</v>
+        <v>181.8424978167796</v>
       </c>
       <c r="T29" t="n">
-        <v>218.9641928127885</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H30" t="n">
-        <v>107.3582211803319</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I30" t="n">
-        <v>72.00962059397116</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>68.80362453272261</v>
+        <v>60.53808260908391</v>
       </c>
       <c r="S30" t="n">
-        <v>162.3030441088983</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T30" t="n">
-        <v>198.1292300623896</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U30" t="n">
-        <v>225.908158490674</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.5676055192152</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H31" t="n">
-        <v>158.4629941912556</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I31" t="n">
-        <v>142.7184689252781</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J31" t="n">
-        <v>63.42664968215054</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.71025749466926</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R31" t="n">
-        <v>158.2569640235438</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S31" t="n">
-        <v>216.6383466748816</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T31" t="n">
-        <v>226.1366284787861</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.3588981658848</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H32" t="n">
-        <v>329.8087073802583</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I32" t="n">
-        <v>174.0885230584365</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>90.58066941881005</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S32" t="n">
-        <v>187.5123304152058</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T32" t="n">
-        <v>218.9641928127885</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H33" t="n">
-        <v>107.3582211803319</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I33" t="n">
-        <v>72.00962059397116</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>68.80362453272261</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S33" t="n">
-        <v>162.3030441088983</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T33" t="n">
-        <v>198.1292300623896</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U33" t="n">
-        <v>225.908158490674</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.5676055192152</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H34" t="n">
-        <v>158.4629941912556</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I34" t="n">
-        <v>142.7184689252781</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J34" t="n">
-        <v>63.42664968215054</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>50.71025749466926</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R34" t="n">
-        <v>158.2569640235438</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S34" t="n">
-        <v>216.6383466748816</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T34" t="n">
-        <v>226.1366284787861</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.3588981658848</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H35" t="n">
-        <v>329.8087073802583</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I35" t="n">
-        <v>174.0885230584365</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>90.58066941881005</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S35" t="n">
-        <v>187.5123304152058</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T35" t="n">
-        <v>218.9641928127885</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H36" t="n">
-        <v>107.3582211803319</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I36" t="n">
-        <v>72.00962059397116</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>68.80362453272261</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S36" t="n">
-        <v>162.3030441088983</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T36" t="n">
-        <v>198.1292300623896</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U36" t="n">
-        <v>225.908158490674</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.5676055192152</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H37" t="n">
-        <v>158.4629941912556</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I37" t="n">
-        <v>142.7184689252781</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J37" t="n">
-        <v>63.42664968215054</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.71025749466926</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R37" t="n">
-        <v>158.2569640235438</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S37" t="n">
-        <v>216.6383466748816</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T37" t="n">
-        <v>226.1366284787861</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.3588981658848</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H38" t="n">
-        <v>329.8087073802583</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I38" t="n">
-        <v>174.0885230584365</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>90.58066941881005</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S38" t="n">
-        <v>187.5123304152058</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T38" t="n">
-        <v>218.9641928127885</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H39" t="n">
-        <v>107.3582211803319</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I39" t="n">
-        <v>72.00962059397116</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>68.80362453272261</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S39" t="n">
-        <v>162.3030441088983</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T39" t="n">
-        <v>198.1292300623896</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U39" t="n">
-        <v>225.908158490674</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.5676055192152</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H40" t="n">
-        <v>158.4629941912556</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7184689252781</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J40" t="n">
-        <v>63.42664968215054</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.71025749466926</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R40" t="n">
-        <v>158.2569640235438</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S40" t="n">
-        <v>216.6383466748816</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T40" t="n">
-        <v>226.1366284787861</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.3588981658848</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H41" t="n">
-        <v>329.8087073802583</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I41" t="n">
-        <v>174.0885230584365</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>90.58066941881005</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S41" t="n">
-        <v>187.5123304152058</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T41" t="n">
-        <v>218.9641928127885</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H42" t="n">
-        <v>107.3582211803319</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I42" t="n">
-        <v>72.00962059397116</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>68.80362453272261</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S42" t="n">
-        <v>162.3030441088983</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T42" t="n">
-        <v>198.1292300623896</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U42" t="n">
-        <v>225.908158490674</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.5676055192152</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H43" t="n">
-        <v>158.4629941912556</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I43" t="n">
-        <v>142.7184689252781</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J43" t="n">
-        <v>63.42664968215054</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.71025749466926</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R43" t="n">
-        <v>158.2569640235438</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S43" t="n">
-        <v>216.6383466748816</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T43" t="n">
-        <v>226.1366284787861</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>378.1715550558377</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25871,19 +25873,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>377.3680834646189</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>402.3137591340686</v>
       </c>
       <c r="G44" t="n">
-        <v>414.3588981658848</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H44" t="n">
-        <v>329.8087073802583</v>
+        <v>326.0456339133427</v>
       </c>
       <c r="I44" t="n">
-        <v>174.0885230584365</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>90.58066941881005</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S44" t="n">
-        <v>187.5123304152058</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T44" t="n">
-        <v>218.9641928127885</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>365.7126386344572</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.8385185906377</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H45" t="n">
-        <v>107.3582211803319</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I45" t="n">
-        <v>72.00962059397116</v>
+        <v>60.67845717669304</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>68.80362453272261</v>
+        <v>56.59722706556381</v>
       </c>
       <c r="S45" t="n">
-        <v>162.3030441088983</v>
+        <v>154.0890131332548</v>
       </c>
       <c r="T45" t="n">
-        <v>198.1292300623896</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U45" t="n">
-        <v>225.908158490674</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>228.2383005417824</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>201.7545231594656</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.5676055192152</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H46" t="n">
-        <v>158.4629941912556</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I46" t="n">
-        <v>142.7184689252781</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J46" t="n">
-        <v>63.42664968215054</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,28 +26067,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.71025749466926</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R46" t="n">
-        <v>158.2569640235438</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S46" t="n">
-        <v>216.6383466748816</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T46" t="n">
-        <v>226.1366284787861</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2959362379867</v>
+        <v>281.7246593293082</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>247.5753567161851</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>281.9607117289481</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>221.6911933450253</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>350477.3192830707</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>350477.3192830707</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>350477.3192830707</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>350477.3192830707</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>350477.3192830707</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>350477.3192830707</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>350477.3192830707</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>350477.3192830707</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>350477.3192830707</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>350477.3192830707</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>350477.3192830707</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>350477.3192830707</v>
+        <v>354509.6801561215</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>69879.81359544017</v>
       </c>
       <c r="C2" t="n">
-        <v>69879.81359544015</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="D2" t="n">
         <v>69879.81359544017</v>
       </c>
       <c r="E2" t="n">
-        <v>75833.35620368381</v>
+        <v>77199.09324546649</v>
       </c>
       <c r="F2" t="n">
-        <v>75833.35620368378</v>
+        <v>77199.09324546649</v>
       </c>
       <c r="G2" t="n">
-        <v>75833.35620368377</v>
+        <v>77199.09324546649</v>
       </c>
       <c r="H2" t="n">
-        <v>75833.35620368381</v>
+        <v>77199.09324546647</v>
       </c>
       <c r="I2" t="n">
-        <v>75833.3562036838</v>
+        <v>77199.0932454665</v>
       </c>
       <c r="J2" t="n">
-        <v>75833.35620368381</v>
+        <v>77199.09324546649</v>
       </c>
       <c r="K2" t="n">
-        <v>75833.35620368381</v>
+        <v>77199.0932454665</v>
       </c>
       <c r="L2" t="n">
-        <v>75833.3562036838</v>
+        <v>77199.09324546649</v>
       </c>
       <c r="M2" t="n">
-        <v>75833.3562036838</v>
+        <v>77199.09324546649</v>
       </c>
       <c r="N2" t="n">
-        <v>75833.35620368381</v>
+        <v>77199.09324546652</v>
       </c>
       <c r="O2" t="n">
-        <v>75833.35620368378</v>
+        <v>77199.09324546649</v>
       </c>
       <c r="P2" t="n">
-        <v>75833.3562036838</v>
+        <v>78690.36860402087</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>188622.9869705381</v>
+        <v>238347.4490273461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>20718.94847053708</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="C4" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="D4" t="n">
-        <v>43002.96221257857</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="E4" t="n">
-        <v>17977.21900537997</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="F4" t="n">
-        <v>17977.21900537997</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="G4" t="n">
-        <v>17977.21900537998</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="H4" t="n">
-        <v>17977.21900537997</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="I4" t="n">
-        <v>17977.21900537997</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="J4" t="n">
-        <v>17977.21900537997</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="K4" t="n">
-        <v>17977.21900537997</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="L4" t="n">
-        <v>17977.21900537997</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="M4" t="n">
-        <v>17977.21900537997</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="N4" t="n">
-        <v>17977.21900537997</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="O4" t="n">
-        <v>17977.21900537997</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="P4" t="n">
-        <v>17977.21900537997</v>
+        <v>9486.63554762023</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>5118.204831146673</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="F5" t="n">
-        <v>5118.204831146673</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="G5" t="n">
-        <v>5118.204831146673</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="H5" t="n">
-        <v>5118.204831146673</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="I5" t="n">
-        <v>5118.204831146673</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="J5" t="n">
-        <v>5118.204831146673</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="K5" t="n">
-        <v>5118.204831146673</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="L5" t="n">
-        <v>5118.204831146673</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="M5" t="n">
-        <v>5118.204831146673</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="N5" t="n">
-        <v>5118.204831146673</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="O5" t="n">
-        <v>5118.204831146673</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="P5" t="n">
-        <v>5118.204831146673</v>
+        <v>7388.142243095836</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6750.748617138401</v>
+        <v>-6750.748617138393</v>
       </c>
       <c r="C6" t="n">
-        <v>-6750.748617138415</v>
+        <v>-6750.748617138393</v>
       </c>
       <c r="D6" t="n">
-        <v>-6750.748617138401</v>
+        <v>-6750.748617138393</v>
       </c>
       <c r="E6" t="n">
-        <v>-135885.054603381</v>
+        <v>-179408.1066738993</v>
       </c>
       <c r="F6" t="n">
-        <v>52737.93236715714</v>
+        <v>58939.34235344672</v>
       </c>
       <c r="G6" t="n">
-        <v>52737.93236715712</v>
+        <v>58939.34235344672</v>
       </c>
       <c r="H6" t="n">
-        <v>52737.93236715717</v>
+        <v>58939.34235344671</v>
       </c>
       <c r="I6" t="n">
-        <v>52737.93236715715</v>
+        <v>58939.34235344674</v>
       </c>
       <c r="J6" t="n">
-        <v>52737.93236715717</v>
+        <v>58939.34235344672</v>
       </c>
       <c r="K6" t="n">
-        <v>52737.93236715717</v>
+        <v>58939.34235344674</v>
       </c>
       <c r="L6" t="n">
-        <v>52737.93236715715</v>
+        <v>58939.34235344672</v>
       </c>
       <c r="M6" t="n">
-        <v>52737.93236715715</v>
+        <v>58939.34235344672</v>
       </c>
       <c r="N6" t="n">
-        <v>52737.93236715717</v>
+        <v>58939.34235344675</v>
       </c>
       <c r="O6" t="n">
-        <v>52737.93236715714</v>
+        <v>58939.34235344672</v>
       </c>
       <c r="P6" t="n">
-        <v>52737.93236715715</v>
+        <v>41096.64234276773</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234.7800381259942</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="F3" t="n">
-        <v>234.7800381259942</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="G3" t="n">
-        <v>234.7800381259942</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="H3" t="n">
-        <v>234.7800381259942</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="I3" t="n">
-        <v>234.7800381259942</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="J3" t="n">
-        <v>234.7800381259942</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="K3" t="n">
-        <v>234.7800381259942</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="L3" t="n">
-        <v>234.7800381259942</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="M3" t="n">
-        <v>234.7800381259942</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="N3" t="n">
-        <v>234.7800381259942</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="O3" t="n">
-        <v>234.7800381259942</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="P3" t="n">
-        <v>234.7800381259942</v>
+        <v>326.1814319885848</v>
       </c>
     </row>
     <row r="4">
@@ -26829,7 +26831,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234.7800381259942</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>29.50909067625952</v>
       </c>
     </row>
     <row r="4">
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H11" t="n">
-        <v>9.666094735508892</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I11" t="n">
-        <v>36.38736651196942</v>
+        <v>45.97974045605395</v>
       </c>
       <c r="J11" t="n">
-        <v>80.10718496842655</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K11" t="n">
-        <v>120.0599046221887</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L11" t="n">
-        <v>148.9449281068053</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M11" t="n">
-        <v>165.7299311340341</v>
+        <v>209.4193658350063</v>
       </c>
       <c r="N11" t="n">
-        <v>168.4116146850913</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O11" t="n">
-        <v>159.0263121559844</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P11" t="n">
-        <v>135.7252782213693</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q11" t="n">
-        <v>101.9240315263455</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R11" t="n">
-        <v>59.28844852233964</v>
+        <v>74.91796566818232</v>
       </c>
       <c r="S11" t="n">
-        <v>21.50773917103957</v>
+        <v>27.17757176946578</v>
       </c>
       <c r="T11" t="n">
-        <v>4.131656751342872</v>
+        <v>5.220836880782727</v>
       </c>
       <c r="U11" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.638125413388775</v>
       </c>
       <c r="H12" t="n">
-        <v>4.877223056164522</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I12" t="n">
-        <v>17.38701225744391</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J12" t="n">
-        <v>47.71129057803813</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K12" t="n">
-        <v>81.54619494042197</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L12" t="n">
-        <v>109.6489225228995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>120.1520068700076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>96.43257830122204</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q12" t="n">
-        <v>64.46262480772582</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R12" t="n">
-        <v>31.35420961992052</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S12" t="n">
-        <v>9.380126994939479</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T12" t="n">
-        <v>2.035498632431968</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H13" t="n">
-        <v>3.764178316183975</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I13" t="n">
-        <v>12.73200600198015</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J13" t="n">
-        <v>29.93253043452224</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K13" t="n">
-        <v>49.18834241393778</v>
+        <v>62.15528724543468</v>
       </c>
       <c r="L13" t="n">
-        <v>62.94414333627064</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M13" t="n">
-        <v>66.36577372797569</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N13" t="n">
-        <v>64.78774396352233</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O13" t="n">
-        <v>59.84196775054031</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P13" t="n">
-        <v>51.20514142997091</v>
+        <v>64.70375129211759</v>
       </c>
       <c r="Q13" t="n">
-        <v>35.45178575702512</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R13" t="n">
-        <v>19.03642735362569</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S13" t="n">
-        <v>7.378251362090666</v>
+        <v>9.3232930868152</v>
       </c>
       <c r="T13" t="n">
-        <v>1.808960949495364</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H14" t="n">
-        <v>9.666094735508892</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I14" t="n">
-        <v>36.38736651196942</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J14" t="n">
-        <v>80.10718496842655</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K14" t="n">
-        <v>120.0599046221887</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L14" t="n">
-        <v>148.9449281068053</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M14" t="n">
-        <v>165.7299311340341</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N14" t="n">
-        <v>168.4116146850913</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O14" t="n">
-        <v>159.0263121559844</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P14" t="n">
-        <v>135.7252782213693</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q14" t="n">
-        <v>101.9240315263455</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R14" t="n">
-        <v>59.28844852233964</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S14" t="n">
-        <v>21.50773917103957</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T14" t="n">
-        <v>4.131656751342872</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U14" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H15" t="n">
-        <v>4.877223056164522</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I15" t="n">
-        <v>17.38701225744391</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J15" t="n">
-        <v>47.71129057803813</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K15" t="n">
-        <v>81.54619494042197</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L15" t="n">
-        <v>109.6489225228995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>120.1520068700076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>96.43257830122204</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q15" t="n">
-        <v>64.46262480772582</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R15" t="n">
-        <v>31.35420961992052</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S15" t="n">
-        <v>9.380126994939479</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T15" t="n">
-        <v>2.035498632431968</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H16" t="n">
-        <v>3.764178316183975</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I16" t="n">
-        <v>12.73200600198015</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J16" t="n">
-        <v>29.93253043452224</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K16" t="n">
-        <v>49.18834241393778</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L16" t="n">
-        <v>62.94414333627064</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M16" t="n">
-        <v>66.36577372797569</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N16" t="n">
-        <v>64.78774396352233</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O16" t="n">
-        <v>59.84196775054031</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P16" t="n">
-        <v>51.20514142997091</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q16" t="n">
-        <v>35.45178575702512</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R16" t="n">
-        <v>19.03642735362569</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S16" t="n">
-        <v>7.378251362090666</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T16" t="n">
-        <v>1.808960949495364</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H17" t="n">
-        <v>9.666094735508892</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I17" t="n">
-        <v>36.38736651196942</v>
+        <v>45.97974045605395</v>
       </c>
       <c r="J17" t="n">
-        <v>80.10718496842655</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K17" t="n">
-        <v>120.0599046221887</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L17" t="n">
-        <v>148.9449281068054</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M17" t="n">
-        <v>165.7299311340341</v>
+        <v>209.4193658350063</v>
       </c>
       <c r="N17" t="n">
-        <v>168.4116146850913</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O17" t="n">
-        <v>159.0263121559843</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P17" t="n">
-        <v>135.7252782213693</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q17" t="n">
-        <v>101.9240315263455</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R17" t="n">
-        <v>59.28844852233964</v>
+        <v>74.91796566818232</v>
       </c>
       <c r="S17" t="n">
-        <v>21.50773917103957</v>
+        <v>27.17757176946578</v>
       </c>
       <c r="T17" t="n">
-        <v>4.131656751342871</v>
+        <v>5.220836880782727</v>
       </c>
       <c r="U17" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.638125413388775</v>
       </c>
       <c r="H18" t="n">
-        <v>4.877223056164522</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I18" t="n">
-        <v>17.38701225744391</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J18" t="n">
-        <v>47.71129057803813</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K18" t="n">
-        <v>81.54619494042197</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L18" t="n">
-        <v>109.6489225228995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>120.1520068700076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>96.43257830122204</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q18" t="n">
-        <v>64.4626248077258</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R18" t="n">
-        <v>31.35420961992052</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S18" t="n">
-        <v>9.380126994939479</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T18" t="n">
-        <v>2.035498632431968</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.423373839243596</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H19" t="n">
-        <v>3.764178316183975</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I19" t="n">
-        <v>12.73200600198015</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J19" t="n">
-        <v>29.93253043452224</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K19" t="n">
-        <v>49.18834241393778</v>
+        <v>62.15528724543468</v>
       </c>
       <c r="L19" t="n">
-        <v>62.94414333627064</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M19" t="n">
-        <v>66.36577372797568</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N19" t="n">
-        <v>64.78774396352233</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O19" t="n">
-        <v>59.84196775054031</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P19" t="n">
-        <v>51.20514142997091</v>
+        <v>64.70375129211759</v>
       </c>
       <c r="Q19" t="n">
-        <v>35.45178575702513</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R19" t="n">
-        <v>19.03642735362569</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S19" t="n">
-        <v>7.378251362090667</v>
+        <v>9.3232930868152</v>
       </c>
       <c r="T19" t="n">
-        <v>1.808960949495364</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H20" t="n">
-        <v>9.666094735508892</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I20" t="n">
-        <v>36.38736651196942</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J20" t="n">
-        <v>80.10718496842655</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K20" t="n">
-        <v>120.0599046221887</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L20" t="n">
-        <v>148.9449281068053</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M20" t="n">
-        <v>165.7299311340341</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N20" t="n">
-        <v>168.4116146850913</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O20" t="n">
-        <v>159.0263121559844</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P20" t="n">
-        <v>135.7252782213693</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q20" t="n">
-        <v>101.9240315263455</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R20" t="n">
-        <v>59.28844852233964</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S20" t="n">
-        <v>21.50773917103957</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T20" t="n">
-        <v>4.131656751342872</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H21" t="n">
-        <v>4.877223056164522</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I21" t="n">
-        <v>17.38701225744391</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J21" t="n">
-        <v>47.71129057803813</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K21" t="n">
-        <v>81.54619494042197</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L21" t="n">
-        <v>109.6489225228995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>120.1520068700076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>96.43257830122204</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q21" t="n">
-        <v>64.46262480772582</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R21" t="n">
-        <v>31.35420961992052</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S21" t="n">
-        <v>9.380126994939479</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T21" t="n">
-        <v>2.035498632431968</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H22" t="n">
-        <v>3.764178316183975</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I22" t="n">
-        <v>12.73200600198015</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J22" t="n">
-        <v>29.93253043452224</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K22" t="n">
-        <v>49.18834241393778</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L22" t="n">
-        <v>62.94414333627064</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M22" t="n">
-        <v>66.36577372797569</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N22" t="n">
-        <v>64.78774396352233</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O22" t="n">
-        <v>59.84196775054031</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P22" t="n">
-        <v>51.20514142997091</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q22" t="n">
-        <v>35.45178575702512</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R22" t="n">
-        <v>19.03642735362569</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S22" t="n">
-        <v>7.378251362090666</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T22" t="n">
-        <v>1.808960949495364</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H23" t="n">
-        <v>9.666094735508892</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I23" t="n">
-        <v>36.38736651196942</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J23" t="n">
-        <v>80.10718496842655</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K23" t="n">
-        <v>120.0599046221887</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L23" t="n">
-        <v>148.9449281068053</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M23" t="n">
-        <v>165.7299311340341</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N23" t="n">
-        <v>168.4116146850913</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O23" t="n">
-        <v>159.0263121559844</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P23" t="n">
-        <v>135.7252782213693</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q23" t="n">
-        <v>101.9240315263455</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R23" t="n">
-        <v>59.28844852233964</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S23" t="n">
-        <v>21.50773917103957</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T23" t="n">
-        <v>4.131656751342872</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U23" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H24" t="n">
-        <v>4.877223056164522</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I24" t="n">
-        <v>17.38701225744391</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J24" t="n">
-        <v>47.71129057803813</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K24" t="n">
-        <v>81.54619494042197</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L24" t="n">
-        <v>109.6489225228995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>120.1520068700076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>96.43257830122204</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q24" t="n">
-        <v>64.46262480772582</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R24" t="n">
-        <v>31.35420961992052</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S24" t="n">
-        <v>9.380126994939479</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T24" t="n">
-        <v>2.035498632431968</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H25" t="n">
-        <v>3.764178316183975</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I25" t="n">
-        <v>12.73200600198015</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J25" t="n">
-        <v>29.93253043452224</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K25" t="n">
-        <v>49.18834241393778</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L25" t="n">
-        <v>62.94414333627064</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M25" t="n">
-        <v>66.36577372797569</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N25" t="n">
-        <v>64.78774396352233</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O25" t="n">
-        <v>59.84196775054031</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P25" t="n">
-        <v>51.20514142997091</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.45178575702512</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R25" t="n">
-        <v>19.03642735362569</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S25" t="n">
-        <v>7.378251362090666</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T25" t="n">
-        <v>1.808960949495364</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H26" t="n">
-        <v>9.666094735508892</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I26" t="n">
-        <v>36.38736651196942</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J26" t="n">
-        <v>80.10718496842655</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K26" t="n">
-        <v>120.0599046221887</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L26" t="n">
-        <v>148.9449281068053</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M26" t="n">
-        <v>165.7299311340341</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N26" t="n">
-        <v>168.4116146850913</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O26" t="n">
-        <v>159.0263121559844</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P26" t="n">
-        <v>135.7252782213693</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.9240315263455</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R26" t="n">
-        <v>59.28844852233964</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S26" t="n">
-        <v>21.50773917103957</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T26" t="n">
-        <v>4.131656751342872</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U26" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H27" t="n">
-        <v>4.877223056164522</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I27" t="n">
-        <v>17.38701225744391</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J27" t="n">
-        <v>47.71129057803813</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K27" t="n">
-        <v>81.54619494042197</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L27" t="n">
-        <v>109.6489225228995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>120.1520068700076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>96.43257830122204</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q27" t="n">
-        <v>64.46262480772582</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R27" t="n">
-        <v>31.35420961992052</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S27" t="n">
-        <v>9.380126994939479</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T27" t="n">
-        <v>2.035498632431968</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H28" t="n">
-        <v>3.764178316183975</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I28" t="n">
-        <v>12.73200600198015</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J28" t="n">
-        <v>29.93253043452224</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K28" t="n">
-        <v>49.18834241393778</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L28" t="n">
-        <v>62.94414333627064</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M28" t="n">
-        <v>66.36577372797569</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N28" t="n">
-        <v>64.78774396352233</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O28" t="n">
-        <v>59.84196775054031</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P28" t="n">
-        <v>51.20514142997091</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q28" t="n">
-        <v>35.45178575702512</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R28" t="n">
-        <v>19.03642735362569</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S28" t="n">
-        <v>7.378251362090666</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T28" t="n">
-        <v>1.808960949495364</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H29" t="n">
-        <v>9.666094735508892</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I29" t="n">
-        <v>36.38736651196942</v>
+        <v>45.97974045605395</v>
       </c>
       <c r="J29" t="n">
-        <v>80.10718496842655</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K29" t="n">
-        <v>120.0599046221887</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L29" t="n">
-        <v>148.9449281068053</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M29" t="n">
-        <v>165.7299311340341</v>
+        <v>209.4193658350063</v>
       </c>
       <c r="N29" t="n">
-        <v>168.4116146850913</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O29" t="n">
-        <v>159.0263121559844</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P29" t="n">
-        <v>135.7252782213693</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q29" t="n">
-        <v>101.9240315263455</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R29" t="n">
-        <v>59.28844852233964</v>
+        <v>74.91796566818232</v>
       </c>
       <c r="S29" t="n">
-        <v>21.50773917103957</v>
+        <v>27.17757176946578</v>
       </c>
       <c r="T29" t="n">
-        <v>4.131656751342872</v>
+        <v>5.220836880782727</v>
       </c>
       <c r="U29" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.638125413388775</v>
       </c>
       <c r="H30" t="n">
-        <v>4.877223056164522</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I30" t="n">
-        <v>17.38701225744391</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J30" t="n">
-        <v>47.71129057803813</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K30" t="n">
-        <v>81.54619494042197</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L30" t="n">
-        <v>109.6489225228995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>120.1520068700076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>96.43257830122204</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q30" t="n">
-        <v>64.46262480772582</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R30" t="n">
-        <v>31.35420961992052</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S30" t="n">
-        <v>9.380126994939479</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T30" t="n">
-        <v>2.035498632431968</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H31" t="n">
-        <v>3.764178316183975</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I31" t="n">
-        <v>12.73200600198015</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J31" t="n">
-        <v>29.93253043452224</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K31" t="n">
-        <v>49.18834241393778</v>
+        <v>62.15528724543468</v>
       </c>
       <c r="L31" t="n">
-        <v>62.94414333627064</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M31" t="n">
-        <v>66.36577372797569</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N31" t="n">
-        <v>64.78774396352233</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O31" t="n">
-        <v>59.84196775054031</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P31" t="n">
-        <v>51.20514142997091</v>
+        <v>64.70375129211759</v>
       </c>
       <c r="Q31" t="n">
-        <v>35.45178575702512</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R31" t="n">
-        <v>19.03642735362569</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S31" t="n">
-        <v>7.378251362090666</v>
+        <v>9.3232930868152</v>
       </c>
       <c r="T31" t="n">
-        <v>1.808960949495364</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H32" t="n">
-        <v>9.666094735508892</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I32" t="n">
-        <v>36.38736651196942</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J32" t="n">
-        <v>80.10718496842655</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K32" t="n">
-        <v>120.0599046221887</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L32" t="n">
-        <v>148.9449281068053</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M32" t="n">
-        <v>165.7299311340341</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N32" t="n">
-        <v>168.4116146850913</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O32" t="n">
-        <v>159.0263121559844</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P32" t="n">
-        <v>135.7252782213693</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.9240315263455</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R32" t="n">
-        <v>59.28844852233964</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S32" t="n">
-        <v>21.50773917103957</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T32" t="n">
-        <v>4.131656751342872</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U32" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H33" t="n">
-        <v>4.877223056164522</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I33" t="n">
-        <v>17.38701225744391</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J33" t="n">
-        <v>47.71129057803813</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K33" t="n">
-        <v>81.54619494042197</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L33" t="n">
-        <v>109.6489225228995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>120.1520068700076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>96.43257830122204</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q33" t="n">
-        <v>64.46262480772582</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R33" t="n">
-        <v>31.35420961992052</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S33" t="n">
-        <v>9.380126994939479</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T33" t="n">
-        <v>2.035498632431968</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H34" t="n">
-        <v>3.764178316183975</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I34" t="n">
-        <v>12.73200600198015</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J34" t="n">
-        <v>29.93253043452224</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K34" t="n">
-        <v>49.18834241393778</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L34" t="n">
-        <v>62.94414333627064</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M34" t="n">
-        <v>66.36577372797569</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N34" t="n">
-        <v>64.78774396352233</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O34" t="n">
-        <v>59.84196775054031</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P34" t="n">
-        <v>51.20514142997091</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.45178575702512</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R34" t="n">
-        <v>19.03642735362569</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S34" t="n">
-        <v>7.378251362090666</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T34" t="n">
-        <v>1.808960949495364</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H35" t="n">
-        <v>9.666094735508892</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I35" t="n">
-        <v>36.38736651196942</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J35" t="n">
-        <v>80.10718496842655</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K35" t="n">
-        <v>120.0599046221887</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L35" t="n">
-        <v>148.9449281068053</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M35" t="n">
-        <v>165.7299311340341</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N35" t="n">
-        <v>168.4116146850913</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O35" t="n">
-        <v>159.0263121559844</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P35" t="n">
-        <v>135.7252782213693</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q35" t="n">
-        <v>101.9240315263455</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R35" t="n">
-        <v>59.28844852233964</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S35" t="n">
-        <v>21.50773917103957</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T35" t="n">
-        <v>4.131656751342872</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U35" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H36" t="n">
-        <v>4.877223056164522</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I36" t="n">
-        <v>17.38701225744391</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J36" t="n">
-        <v>47.71129057803813</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K36" t="n">
-        <v>81.54619494042197</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L36" t="n">
-        <v>109.6489225228995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>120.1520068700076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>96.43257830122204</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q36" t="n">
-        <v>64.46262480772582</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R36" t="n">
-        <v>31.35420961992052</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S36" t="n">
-        <v>9.380126994939479</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T36" t="n">
-        <v>2.035498632431968</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H37" t="n">
-        <v>3.764178316183975</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I37" t="n">
-        <v>12.73200600198015</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J37" t="n">
-        <v>29.93253043452224</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K37" t="n">
-        <v>49.18834241393778</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L37" t="n">
-        <v>62.94414333627064</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M37" t="n">
-        <v>66.36577372797569</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N37" t="n">
-        <v>64.78774396352233</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O37" t="n">
-        <v>59.84196775054031</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P37" t="n">
-        <v>51.20514142997091</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.45178575702512</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R37" t="n">
-        <v>19.03642735362569</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S37" t="n">
-        <v>7.378251362090666</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T37" t="n">
-        <v>1.808960949495364</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H38" t="n">
-        <v>9.666094735508892</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I38" t="n">
-        <v>36.38736651196942</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J38" t="n">
-        <v>80.10718496842655</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K38" t="n">
-        <v>120.0599046221887</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L38" t="n">
-        <v>148.9449281068053</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M38" t="n">
-        <v>165.7299311340341</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N38" t="n">
-        <v>168.4116146850913</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O38" t="n">
-        <v>159.0263121559844</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P38" t="n">
-        <v>135.7252782213693</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q38" t="n">
-        <v>101.9240315263455</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R38" t="n">
-        <v>59.28844852233964</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S38" t="n">
-        <v>21.50773917103957</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T38" t="n">
-        <v>4.131656751342872</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U38" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H39" t="n">
-        <v>4.877223056164522</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I39" t="n">
-        <v>17.38701225744391</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J39" t="n">
-        <v>47.71129057803813</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K39" t="n">
-        <v>81.54619494042197</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L39" t="n">
-        <v>109.6489225228995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>120.1520068700076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>96.43257830122204</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q39" t="n">
-        <v>64.46262480772582</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R39" t="n">
-        <v>31.35420961992052</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S39" t="n">
-        <v>9.380126994939479</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T39" t="n">
-        <v>2.035498632431968</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H40" t="n">
-        <v>3.764178316183975</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I40" t="n">
-        <v>12.73200600198015</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J40" t="n">
-        <v>29.93253043452224</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K40" t="n">
-        <v>49.18834241393778</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L40" t="n">
-        <v>62.94414333627064</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M40" t="n">
-        <v>66.36577372797569</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N40" t="n">
-        <v>64.78774396352233</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O40" t="n">
-        <v>59.84196775054031</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P40" t="n">
-        <v>51.20514142997091</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.45178575702512</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R40" t="n">
-        <v>19.03642735362569</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S40" t="n">
-        <v>7.378251362090666</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T40" t="n">
-        <v>1.808960949495364</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H41" t="n">
-        <v>9.666094735508892</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I41" t="n">
-        <v>36.38736651196942</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J41" t="n">
-        <v>80.10718496842655</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K41" t="n">
-        <v>120.0599046221887</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L41" t="n">
-        <v>148.9449281068053</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M41" t="n">
-        <v>165.7299311340341</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N41" t="n">
-        <v>168.4116146850913</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O41" t="n">
-        <v>159.0263121559844</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P41" t="n">
-        <v>135.7252782213693</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q41" t="n">
-        <v>101.9240315263455</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R41" t="n">
-        <v>59.28844852233964</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S41" t="n">
-        <v>21.50773917103957</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T41" t="n">
-        <v>4.131656751342872</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U41" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H42" t="n">
-        <v>4.877223056164522</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I42" t="n">
-        <v>17.38701225744391</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J42" t="n">
-        <v>47.71129057803813</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K42" t="n">
-        <v>81.54619494042197</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L42" t="n">
-        <v>109.6489225228995</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>120.1520068700076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>96.43257830122204</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q42" t="n">
-        <v>64.46262480772582</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R42" t="n">
-        <v>31.35420961992052</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S42" t="n">
-        <v>9.380126994939479</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T42" t="n">
-        <v>2.035498632431968</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H43" t="n">
-        <v>3.764178316183975</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I43" t="n">
-        <v>12.73200600198015</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J43" t="n">
-        <v>29.93253043452224</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K43" t="n">
-        <v>49.18834241393778</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L43" t="n">
-        <v>62.94414333627064</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M43" t="n">
-        <v>66.36577372797569</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N43" t="n">
-        <v>64.78774396352233</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O43" t="n">
-        <v>59.84196775054031</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P43" t="n">
-        <v>51.20514142997091</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.45178575702512</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R43" t="n">
-        <v>19.03642735362569</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S43" t="n">
-        <v>7.378251362090666</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T43" t="n">
-        <v>1.808960949495364</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H44" t="n">
-        <v>9.666094735508892</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I44" t="n">
-        <v>36.38736651196942</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J44" t="n">
-        <v>80.10718496842655</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K44" t="n">
-        <v>120.0599046221887</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L44" t="n">
-        <v>148.9449281068053</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M44" t="n">
-        <v>165.7299311340341</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N44" t="n">
-        <v>168.4116146850913</v>
+        <v>233.9753502042338</v>
       </c>
       <c r="O44" t="n">
-        <v>159.0263121559844</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P44" t="n">
-        <v>135.7252782213693</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q44" t="n">
-        <v>101.9240315263455</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R44" t="n">
-        <v>59.28844852233964</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S44" t="n">
-        <v>21.50773917103957</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T44" t="n">
-        <v>4.131656751342872</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U44" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H45" t="n">
-        <v>4.877223056164522</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I45" t="n">
-        <v>17.38701225744391</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J45" t="n">
-        <v>47.71129057803813</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K45" t="n">
-        <v>81.54619494042197</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L45" t="n">
-        <v>109.6489225228995</v>
+        <v>143.1166663875171</v>
       </c>
       <c r="M45" t="n">
-        <v>127.9551207786668</v>
+        <v>146.5119857172312</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>135.9039986909762</v>
       </c>
       <c r="O45" t="n">
-        <v>120.1520068700076</v>
+        <v>147.1585310520873</v>
       </c>
       <c r="P45" t="n">
-        <v>96.43257830122204</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>64.46262480772582</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R45" t="n">
-        <v>31.35420961992052</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S45" t="n">
-        <v>9.380126994939479</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T45" t="n">
-        <v>2.035498632431968</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H46" t="n">
-        <v>3.764178316183975</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I46" t="n">
-        <v>12.73200600198015</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J46" t="n">
-        <v>29.93253043452224</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K46" t="n">
-        <v>49.18834241393778</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L46" t="n">
-        <v>62.94414333627064</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M46" t="n">
-        <v>66.36577372797569</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N46" t="n">
-        <v>64.78774396352233</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O46" t="n">
-        <v>59.84196775054031</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P46" t="n">
-        <v>51.20514142997091</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.45178575702512</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R46" t="n">
-        <v>19.03642735362569</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S46" t="n">
-        <v>7.378251362090666</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T46" t="n">
-        <v>1.808960949495364</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -38017,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38178,19 +38180,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>4.377951795212859</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_8_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_8_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158976.8063866928</v>
+        <v>36241.2786100065</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10124182.27744495</v>
+        <v>10514807.65165258</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22038913.79229159</v>
+        <v>20684158.07127586</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4050235.849896763</v>
+        <v>4547087.222984679</v>
       </c>
     </row>
     <row r="11">
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>12.64992415893883</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>14.36185758280976</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>14.36185758280976</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>14.36185758280976</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>14.36185758280976</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>12.64992415893883</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1982,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>14.36185758280976</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>14.36185758280976</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>14.36185758280976</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>12.64992415893883</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>14.36185758280976</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>14.36185758280976</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>14.36185758280988</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>14.36185758280988</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>12.64992415893894</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>14.36185758280988</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>14.36185758280988</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,13 +2216,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>12.64992415893894</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>14.36185758280988</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>14.36185758280988</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>12.64992415893894</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>14.36185758280988</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>14.36185758280988</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>14.36185758280988</v>
       </c>
     </row>
     <row r="23">
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>87.77129138545334</v>
       </c>
     </row>
     <row r="24">
@@ -2408,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>87.77129138545334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2456,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>20.64814584023364</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.1231455452197</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
     </row>
     <row r="26">
@@ -2557,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>87.77129138545334</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>99.64951338039666</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>99.64951338039666</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>99.64951338039666</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>99.64951338039666</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2687,16 +2687,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>99.64951338039666</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>87.77129138545334</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>99.64951338039666</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>99.64951338039666</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>87.77129138545334</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>99.64951338039666</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>99.64951338039666</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>40.30574190141</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>47.46554948404336</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2924,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>87.77129138545334</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>87.77129138545334</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>40.30574190141</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>47.46554948404336</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>42.21614155257823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>45.5551498328751</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>87.77129138545334</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>40.30574190141</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>47.46554948404336</v>
       </c>
     </row>
     <row r="36">
@@ -3392,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>42.21614155257823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>45.5551498328751</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>87.77129138545334</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.30574190141</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>47.46554948404336</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>42.21614155257823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>45.5551498328751</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>87.77129138545334</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>47.46554948404336</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.30574190141</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3824,19 +3824,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>87.77129138545334</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>87.77129138545334</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="E44" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>87.77129138545334</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>4.018462044011844</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4061,22 +4061,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>45.5551498328751</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>42.21614155257823</v>
       </c>
       <c r="S45" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4115,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>87.77129138545334</v>
       </c>
       <c r="U46" t="n">
-        <v>4.562286607642875</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="V46" t="n">
-        <v>4.562286607642875</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="W46" t="n">
-        <v>4.562286607642875</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="X46" t="n">
-        <v>4.018462044011843</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>57.44743033123904</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>57.44743033123904</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>57.44743033123904</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>44.66972916059375</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>30.16280230927076</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15.65587545794777</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.148948606624781</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.148948606624781</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.148948606624781</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.148948606624781</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.148948606624781</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>15.36718761360644</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>29.01095231727572</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>43.22919132425738</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>43.22919132425738</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>57.44743033123904</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>57.44743033123904</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>57.44743033123904</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>57.44743033123904</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>57.44743033123904</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>57.44743033123904</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>57.44743033123904</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>57.44743033123904</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>57.44743033123904</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>15.65587545794777</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>15.65587545794777</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1.148948606624781</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1.148948606624781</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.148948606624781</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1.148948606624781</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.148948606624781</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.148948606624781</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.148948606624781</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1.148948606624781</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>14.79271331029405</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>29.01095231727572</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>43.22919132425738</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>57.44743033123904</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>57.44743033123904</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>57.44743033123904</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>44.66972916059375</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>44.66972916059375</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>44.66972916059375</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>44.66972916059375</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>30.16280230927076</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>15.65587545794777</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>15.65587545794777</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>15.65587545794777</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>13.92664977727006</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>13.92664977727006</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.148948606624781</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.148948606624781</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.148948606624781</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.148948606624781</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.148948606624781</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.148948606624781</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.148948606624781</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.148948606624781</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.148948606624781</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>15.36718761360644</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>29.58542662058811</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>43.22919132425738</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>57.44743033123904</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>57.44743033123904</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.44743033123904</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>57.44743033123904</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.44743033123904</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>42.94050347991605</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>28.43357662859306</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>28.43357662859306</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>28.43357662859306</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>28.43357662859306</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>30.16280230927101</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>30.16280230927101</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>15.6558754579479</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>15.6558754579479</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>15.6558754579479</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>15.6558754579479</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>15.36718761360657</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>29.01095231727595</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>43.22919132425773</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>57.44743033123951</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>57.44743033123951</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>57.44743033123951</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>57.44743033123951</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>57.44743033123951</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>57.44743033123951</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>44.66972916059412</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>30.16280230927101</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>30.16280230927101</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>30.16280230927101</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>14.79271331029408</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>29.01095231727586</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>43.2291913242577</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>57.44743033123951</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>57.44743033123951</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>57.44743033123951</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>42.9405034799164</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>42.9405034799164</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>42.9405034799164</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>30.16280230927101</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>15.6558754579479</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15.36718761360657</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>29.58542662058835</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>43.22919132425773</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>43.22919132425773</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>57.44743033123951</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>57.44743033123951</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>44.66972916059412</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>30.16280230927101</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>30.16280230927101</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>30.16280230927101</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>30.16280230927101</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>30.16280230927101</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>30.16280230927101</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>15.6558754579479</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.14894860662479</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>9.731643593961371</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>108.384661840554</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>207.0376800871467</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>288.0264489434678</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>379.2104085804854</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>297.9419793999737</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>197.285905278361</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>96.62983115674824</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>96.62983115674824</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>96.62983115674824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>197.285905278361</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>197.285905278361</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>197.285905278361</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>197.285905278361</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>96.62983115674824</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>20.69704778081643</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>84.13003839132</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>177.5102146651686</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>276.1632329117613</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>354.8100862954122</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>297.9419793999737</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>197.285905278361</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>197.285905278361</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>197.285905278361</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>75.91484311506952</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>174.5678613616622</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>273.2208796082548</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>307.6128832311189</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>307.6128832311189</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>377.7413405516535</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>309.9401834352699</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>309.9401834352699</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>309.9401834352699</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>309.9401834352699</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>309.9401834352699</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>209.2841093136572</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>398.5980535215866</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>309.9401834352701</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>209.2841093136573</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>7.971961070431733</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.971961070431733</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>7.971961070431733</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>7.971961070431733</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>60.07111707729914</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>61.83079960082878</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>100.9156032309791</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>199.5686214775718</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>280.5573903338929</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>379.2104085804856</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>398.5980535215866</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>398.5980535215866</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>398.5980535215866</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>398.5980535215866</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>398.5980535215866</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>398.5980535215866</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>398.5980535215866</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>398.5980535215866</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>398.5980535215866</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>398.5980535215866</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>7.971961070431733</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>7.971961070431733</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>7.971961070431733</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.971961070431733</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>7.971961070431733</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>20.69704778081648</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>84.13003839132016</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>177.5102146651687</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>276.1632329117614</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>354.8100862954124</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>398.5980535215866</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>398.5980535215866</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>398.5980535215866</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>398.5980535215866</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>297.9419793999738</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>209.2841093136573</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>209.2841093136573</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>7.971961070431733</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>7.971961070431733</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>7.971961070431733</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>7.971961070431733</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>7.971961070431733</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>7.971961070431733</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>7.971961070431733</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>7.971961070431733</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>7.971961070431733</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>75.91484311506952</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>174.5678613616622</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>174.5678613616622</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>208.9598649845263</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>307.612883231119</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>398.5980535215866</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>398.5980535215866</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>398.5980535215866</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>297.9419793999738</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>209.2841093136573</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>209.2841093136573</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>209.2841093136573</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>7.971961070431733</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>9.731643593961371</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>108.384661840554</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>199.5686214775717</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>280.5573903338928</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>379.2104085804854</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>357.8851829141016</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>357.8851829141016</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>357.8851829141016</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>257.2291087924889</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>156.5730346708762</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>20.69704778081643</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>84.13003839132008</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>177.5102146651686</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>276.1632329117613</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>354.8100862954122</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>297.9419793999737</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>197.285905278361</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>197.285905278361</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>96.62983115674824</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>106.6249793170244</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>205.277997563617</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>208.9598649845262</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>307.6128832311189</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>309.9401834352699</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>209.2841093136572</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>9.731643593961371</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>48.81644722411171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>123.9752595421745</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>204.9640283984956</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>280.5573903338928</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>299.9450352749938</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>357.8851829141016</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>357.8851829141016</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>357.8851829141016</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>257.2291087924889</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>156.5730346708762</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>20.69704778081651</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>84.13003839132018</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>177.5102146651687</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>276.1632329117613</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>354.8100862954122</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>355.9554862967599</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>355.9554862967599</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>255.2994121751472</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>255.2994121751472</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>154.6433380535345</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>53.98726393192173</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>209.2841093136572</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>209.2841093136572</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>102.6389987818085</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>201.2920170284012</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>299.9450352749938</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>309.9401834352699</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>309.9401834352699</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>209.2841093136572</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>209.2841093136572</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>209.2841093136572</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>9.731643593961371</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>48.81644722411171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>136.4284848651</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>217.4172537214211</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>280.5573903338928</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>299.9450352749938</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>357.8851829141016</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>357.8851829141016</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>357.8851829141016</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>357.8851829141016</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>257.2291087924889</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>156.5730346708762</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>55.91696054926341</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>20.69704778081643</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>84.13003839132</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>177.5102146651686</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>276.1632329117613</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>354.8100862954122</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>355.9554862967599</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>355.9554862967599</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>255.2994121751472</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>154.6433380535345</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>53.98726393192173</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>96.62983115674824</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>96.62983115674824</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>106.6249793170244</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>201.2920170284012</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>299.9450352749938</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>297.9419793999737</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>197.285905278361</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>96.62983115674824</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>96.62983115674824</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>96.62983115674824</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>209.2841093136572</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>209.2841093136572</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>209.2841093136572</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>209.2841093136572</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>209.2841093136572</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>9.731643593961371</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>108.384661840554</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>207.0376800871467</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>305.6906983337393</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>379.2104085804854</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>357.8851829141016</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>357.8851829141016</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>357.8851829141016</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>357.8851829141016</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>257.2291087924889</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>209.2841093136572</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>209.2841093136572</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>209.2841093136572</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>20.69704778081643</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>84.13003839132008</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>177.5102146651686</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>276.1632329117613</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>354.8100862954122</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>355.9554862967599</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>355.9554862967599</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>355.9554862967599</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>309.9401834352699</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>209.2841093136572</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>297.9419793999737</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>197.285905278361</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>197.285905278361</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>75.91484311506952</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>174.5678613616622</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>273.2208796082548</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>273.2208796082548</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>307.6128832311189</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>156.5730346708762</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>156.5730346708762</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>55.91696054926341</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>55.91696054926341</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>55.91696054926341</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>55.91696054926341</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>106.6249793170244</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>120.8378871634795</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>159.9226907936298</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>235.0815031116926</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>316.0702719680137</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>379.2104085804854</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>357.8851829141016</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>357.8851829141016</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>357.8851829141016</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>357.8851829141016</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>257.2291087924889</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>156.5730346708762</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>156.5730346708762</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>156.5730346708762</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>297.9419793999737</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>297.9419793999737</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>197.285905278361</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>96.62983115674824</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>20.69704778081643</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>84.13003839132008</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>177.5102146651686</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>276.1632329117613</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>354.8100862954122</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>309.9401834352699</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>309.9401834352699</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>309.9401834352699</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>309.9401834352699</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>209.2841093136572</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>11.65382849134093</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>110.3068467379336</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>208.9598649845262</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>208.9598649845262</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>307.6128832311189</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>309.9401834352699</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>309.9401834352699</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>309.9401834352699</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9.581723550112187</v>
+        <v>209.2841093136572</v>
       </c>
       <c r="C44" t="n">
-        <v>9.581723550112187</v>
+        <v>209.2841093136572</v>
       </c>
       <c r="D44" t="n">
-        <v>9.581723550112187</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="E44" t="n">
-        <v>4.973353239361809</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="F44" t="n">
-        <v>0.36498292861143</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="G44" t="n">
-        <v>0.36498292861143</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="H44" t="n">
-        <v>0.36498292861143</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="I44" t="n">
-        <v>0.36498292861143</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="J44" t="n">
-        <v>0.36498292861143</v>
+        <v>101.4139552496783</v>
       </c>
       <c r="K44" t="n">
-        <v>4.881646670177876</v>
+        <v>103.1736377732079</v>
       </c>
       <c r="L44" t="n">
-        <v>4.881646670177876</v>
+        <v>142.2584414033582</v>
       </c>
       <c r="M44" t="n">
-        <v>9.215818947438606</v>
+        <v>217.417253721421</v>
       </c>
       <c r="N44" t="n">
-        <v>13.73248268900505</v>
+        <v>316.0702719680137</v>
       </c>
       <c r="O44" t="n">
-        <v>13.73248268900505</v>
+        <v>379.2104085804854</v>
       </c>
       <c r="P44" t="n">
-        <v>13.73248268900505</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="Q44" t="n">
-        <v>18.2491464305715</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="R44" t="n">
-        <v>18.2491464305715</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="S44" t="n">
-        <v>18.2491464305715</v>
+        <v>309.9401834352699</v>
       </c>
       <c r="T44" t="n">
-        <v>18.2491464305715</v>
+        <v>209.2841093136572</v>
       </c>
       <c r="U44" t="n">
-        <v>18.2491464305715</v>
+        <v>209.2841093136572</v>
       </c>
       <c r="V44" t="n">
-        <v>18.2491464305715</v>
+        <v>209.2841093136572</v>
       </c>
       <c r="W44" t="n">
-        <v>18.2491464305715</v>
+        <v>209.2841093136572</v>
       </c>
       <c r="X44" t="n">
-        <v>14.19009386086257</v>
+        <v>209.2841093136572</v>
       </c>
       <c r="Y44" t="n">
-        <v>14.19009386086257</v>
+        <v>209.2841093136572</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4.973353239361809</v>
+        <v>355.9554862967599</v>
       </c>
       <c r="C45" t="n">
-        <v>4.973353239361809</v>
+        <v>355.9554862967599</v>
       </c>
       <c r="D45" t="n">
-        <v>4.973353239361809</v>
+        <v>255.2994121751472</v>
       </c>
       <c r="E45" t="n">
-        <v>4.973353239361809</v>
+        <v>209.2841093136572</v>
       </c>
       <c r="F45" t="n">
-        <v>4.973353239361809</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="G45" t="n">
-        <v>4.973353239361809</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="H45" t="n">
-        <v>4.973353239361809</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="I45" t="n">
-        <v>0.36498292861143</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="J45" t="n">
-        <v>0.36498292861143</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="K45" t="n">
-        <v>0.36498292861143</v>
+        <v>20.69704778081648</v>
       </c>
       <c r="L45" t="n">
-        <v>4.881646670177876</v>
+        <v>84.13003839132016</v>
       </c>
       <c r="M45" t="n">
-        <v>9.215818947438606</v>
+        <v>177.5102146651686</v>
       </c>
       <c r="N45" t="n">
-        <v>13.73248268900505</v>
+        <v>276.1632329117613</v>
       </c>
       <c r="O45" t="n">
-        <v>18.2491464305715</v>
+        <v>354.8100862954122</v>
       </c>
       <c r="P45" t="n">
-        <v>18.2491464305715</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="Q45" t="n">
-        <v>18.2491464305715</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="R45" t="n">
-        <v>18.2491464305715</v>
+        <v>355.9554862967599</v>
       </c>
       <c r="S45" t="n">
-        <v>13.64077611982112</v>
+        <v>355.9554862967599</v>
       </c>
       <c r="T45" t="n">
-        <v>13.64077611982112</v>
+        <v>355.9554862967599</v>
       </c>
       <c r="U45" t="n">
-        <v>13.64077611982112</v>
+        <v>355.9554862967599</v>
       </c>
       <c r="V45" t="n">
-        <v>9.032405809070742</v>
+        <v>355.9554862967599</v>
       </c>
       <c r="W45" t="n">
-        <v>9.032405809070742</v>
+        <v>355.9554862967599</v>
       </c>
       <c r="X45" t="n">
-        <v>4.973353239361809</v>
+        <v>355.9554862967599</v>
       </c>
       <c r="Y45" t="n">
-        <v>4.973353239361809</v>
+        <v>355.9554862967599</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.36498292861143</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="C46" t="n">
-        <v>0.36498292861143</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="D46" t="n">
-        <v>0.36498292861143</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="E46" t="n">
-        <v>0.36498292861143</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="F46" t="n">
-        <v>0.36498292861143</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="G46" t="n">
-        <v>0.36498292861143</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="H46" t="n">
-        <v>0.36498292861143</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="I46" t="n">
-        <v>0.36498292861143</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="J46" t="n">
-        <v>0.36498292861143</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="K46" t="n">
-        <v>0.36498292861143</v>
+        <v>75.91484311506952</v>
       </c>
       <c r="L46" t="n">
-        <v>4.881646670177876</v>
+        <v>174.5678613616622</v>
       </c>
       <c r="M46" t="n">
-        <v>4.881646670177876</v>
+        <v>273.2208796082548</v>
       </c>
       <c r="N46" t="n">
-        <v>9.215818947438606</v>
+        <v>273.2208796082548</v>
       </c>
       <c r="O46" t="n">
-        <v>13.73248268900505</v>
+        <v>307.6128832311189</v>
       </c>
       <c r="P46" t="n">
-        <v>18.2491464305715</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.2491464305715</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="R46" t="n">
-        <v>18.2491464305715</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="S46" t="n">
-        <v>18.2491464305715</v>
+        <v>398.5980535215865</v>
       </c>
       <c r="T46" t="n">
-        <v>18.2491464305715</v>
+        <v>309.9401834352699</v>
       </c>
       <c r="U46" t="n">
-        <v>13.64077611982112</v>
+        <v>209.2841093136572</v>
       </c>
       <c r="V46" t="n">
-        <v>9.032405809070742</v>
+        <v>108.6280351920445</v>
       </c>
       <c r="W46" t="n">
-        <v>4.424035498320363</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="X46" t="n">
-        <v>0.36498292861143</v>
+        <v>7.971961070431729</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.36498292861143</v>
+        <v>7.971961070431729</v>
       </c>
     </row>
   </sheetData>
@@ -8698,7 +8698,7 @@
         <v>47.55688531513388</v>
       </c>
       <c r="M11" t="n">
-        <v>20.92686739226639</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N11" t="n">
         <v>16.60507348116786</v>
@@ -8710,7 +8710,7 @@
         <v>59.72805697682125</v>
       </c>
       <c r="Q11" t="n">
-        <v>93.51262335026311</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>66.54876907979123</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K12" t="n">
-        <v>34.79817869043561</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>12.12044141380177</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q12" t="n">
         <v>58.52562482607891</v>
@@ -8850,7 +8850,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>66.8579709251007</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L13" t="n">
         <v>55.34730792350439</v>
@@ -8865,7 +8865,7 @@
         <v>62.83913578423567</v>
       </c>
       <c r="P13" t="n">
-        <v>73.02425275703003</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>79.82100350776379</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K17" t="n">
-        <v>68.37996426625614</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L17" t="n">
-        <v>47.55688531513388</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M17" t="n">
-        <v>20.92686739226639</v>
+        <v>14.45842098228112</v>
       </c>
       <c r="N17" t="n">
-        <v>16.60507348116786</v>
+        <v>9.219293901113966</v>
       </c>
       <c r="O17" t="n">
-        <v>29.14966087982927</v>
+        <v>23.52378056643954</v>
       </c>
       <c r="P17" t="n">
-        <v>59.72805697682125</v>
+        <v>42.66898511507466</v>
       </c>
       <c r="Q17" t="n">
-        <v>93.51262335026311</v>
+        <v>95.06382840738073</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>66.54876907979123</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K18" t="n">
-        <v>34.79817869043561</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>12.12044141380177</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>58.52562482607891</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>66.8579709251007</v>
+        <v>60.67557455063191</v>
       </c>
       <c r="L19" t="n">
-        <v>55.34730792350439</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M19" t="n">
-        <v>55.06478097631943</v>
+        <v>61.08524100944489</v>
       </c>
       <c r="N19" t="n">
-        <v>45.81856870604673</v>
+        <v>52.03736852896343</v>
       </c>
       <c r="O19" t="n">
-        <v>62.83913578423567</v>
+        <v>69.09928445964033</v>
       </c>
       <c r="P19" t="n">
-        <v>73.02425275703003</v>
+        <v>80.95022603890607</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>79.82100350776379</v>
+        <v>69.75247211164648</v>
       </c>
       <c r="K20" t="n">
-        <v>68.37996426625614</v>
+        <v>53.28984570098882</v>
       </c>
       <c r="L20" t="n">
-        <v>47.55688531513388</v>
+        <v>28.8362588753597</v>
       </c>
       <c r="M20" t="n">
-        <v>20.92686739226636</v>
+        <v>14.45842098228124</v>
       </c>
       <c r="N20" t="n">
-        <v>16.60507348116786</v>
+        <v>9.219293901114073</v>
       </c>
       <c r="O20" t="n">
-        <v>29.14966087982927</v>
+        <v>23.52378056643965</v>
       </c>
       <c r="P20" t="n">
-        <v>59.72805697682125</v>
+        <v>57.03084269788454</v>
       </c>
       <c r="Q20" t="n">
-        <v>93.51262335026308</v>
+        <v>80.70197082457096</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>66.54876907979121</v>
+        <v>60.55202075660908</v>
       </c>
       <c r="K21" t="n">
-        <v>34.79817869043559</v>
+        <v>24.54878065809741</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>12.12044141380176</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>58.52562482607891</v>
+        <v>50.42343072191045</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>66.85797092510069</v>
+        <v>75.03743213344178</v>
       </c>
       <c r="L22" t="n">
-        <v>55.34730792350439</v>
+        <v>61.79782667156758</v>
       </c>
       <c r="M22" t="n">
-        <v>55.06478097631943</v>
+        <v>60.50496393539207</v>
       </c>
       <c r="N22" t="n">
-        <v>45.81856870604673</v>
+        <v>37.67551094615366</v>
       </c>
       <c r="O22" t="n">
-        <v>62.83913578423567</v>
+        <v>69.67956153369336</v>
       </c>
       <c r="P22" t="n">
-        <v>73.02425275703001</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>79.82100350776379</v>
+        <v>33.01009234189564</v>
       </c>
       <c r="K23" t="n">
-        <v>68.37996426625614</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.55688531513388</v>
+        <v>60.16991375398213</v>
       </c>
       <c r="M23" t="n">
-        <v>20.92686739226636</v>
+        <v>23.73152113992911</v>
       </c>
       <c r="N23" t="n">
-        <v>16.60507348116786</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>29.14966087982927</v>
+        <v>28.32709396418782</v>
       </c>
       <c r="P23" t="n">
-        <v>59.72805697682125</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>93.51262335026308</v>
+        <v>33.95296228705871</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>66.54876907979121</v>
+        <v>38.66851107624584</v>
       </c>
       <c r="K24" t="n">
-        <v>34.79817869043559</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>12.12044141380176</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>58.52562482607891</v>
+        <v>20.85666660987795</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>66.85797092510069</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>55.34730792350439</v>
+        <v>118.2151929981858</v>
       </c>
       <c r="M25" t="n">
-        <v>55.06478097631943</v>
+        <v>115.933224473174</v>
       </c>
       <c r="N25" t="n">
-        <v>45.81856870604673</v>
+        <v>42.69902358323469</v>
       </c>
       <c r="O25" t="n">
-        <v>62.83913578423567</v>
+        <v>27.87027453333317</v>
       </c>
       <c r="P25" t="n">
-        <v>73.02425275703001</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>79.82100350776379</v>
+        <v>85.63550244984251</v>
       </c>
       <c r="K26" t="n">
-        <v>68.37996426625614</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>47.55688531513388</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>20.92686739226636</v>
+        <v>23.73152113992916</v>
       </c>
       <c r="N26" t="n">
-        <v>16.60507348116786</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>29.14966087982927</v>
+        <v>35.8715976102232</v>
       </c>
       <c r="P26" t="n">
-        <v>59.72805697682125</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.51262335026308</v>
+        <v>33.95296228705871</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>66.54876907979121</v>
+        <v>38.66851107624584</v>
       </c>
       <c r="K27" t="n">
-        <v>34.79817869043559</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>12.12044141380176</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>58.52562482607891</v>
+        <v>20.85666660987795</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>66.85797092510069</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>55.34730792350439</v>
+        <v>118.2151929981859</v>
       </c>
       <c r="M28" t="n">
-        <v>55.06478097631943</v>
+        <v>16.28371109277741</v>
       </c>
       <c r="N28" t="n">
-        <v>45.81856870604673</v>
+        <v>42.69902358323469</v>
       </c>
       <c r="O28" t="n">
-        <v>62.83913578423567</v>
+        <v>127.5197879137298</v>
       </c>
       <c r="P28" t="n">
-        <v>73.02425275703001</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>79.82100350776379</v>
+        <v>33.01009234189564</v>
       </c>
       <c r="K29" t="n">
-        <v>68.37996426625614</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>47.55688531513388</v>
+        <v>60.16991375398213</v>
       </c>
       <c r="M29" t="n">
-        <v>20.92686739226639</v>
+        <v>16.18701749389379</v>
       </c>
       <c r="N29" t="n">
-        <v>16.60507348116786</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>29.14966087982927</v>
+        <v>35.87159761022315</v>
       </c>
       <c r="P29" t="n">
-        <v>59.72805697682125</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.51262335026311</v>
+        <v>33.95296228705871</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>66.54876907979123</v>
+        <v>38.66851107624584</v>
       </c>
       <c r="K30" t="n">
-        <v>34.79817869043561</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>12.12044141380177</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>58.52562482607891</v>
+        <v>20.85666660987795</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>66.8579709251007</v>
+        <v>38.11459256219013</v>
       </c>
       <c r="L31" t="n">
-        <v>55.34730792350439</v>
+        <v>118.2151929981858</v>
       </c>
       <c r="M31" t="n">
-        <v>55.06478097631943</v>
+        <v>115.933224473174</v>
       </c>
       <c r="N31" t="n">
-        <v>45.81856870604673</v>
+        <v>11.67868398530048</v>
       </c>
       <c r="O31" t="n">
-        <v>62.83913578423567</v>
+        <v>127.5197879137298</v>
       </c>
       <c r="P31" t="n">
-        <v>73.02425275703003</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>79.82100350776379</v>
+        <v>33.01009234189564</v>
       </c>
       <c r="K32" t="n">
-        <v>68.37996426625614</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>47.55688531513388</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>20.92686739226636</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>16.60507348116786</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>29.14966087982927</v>
+        <v>12.5790154777025</v>
       </c>
       <c r="P32" t="n">
-        <v>59.72805697682125</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>93.51262335026308</v>
+        <v>133.6024756674553</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>66.54876907979121</v>
+        <v>38.66851107624584</v>
       </c>
       <c r="K33" t="n">
-        <v>34.79817869043559</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>12.12044141380176</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>58.52562482607891</v>
+        <v>20.85666660987795</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>66.85797092510069</v>
+        <v>38.11459256219013</v>
       </c>
       <c r="L34" t="n">
-        <v>55.34730792350439</v>
+        <v>114.1889500333213</v>
       </c>
       <c r="M34" t="n">
-        <v>55.06478097631943</v>
+        <v>115.933224473174</v>
       </c>
       <c r="N34" t="n">
-        <v>45.81856870604673</v>
+        <v>107.6091393647787</v>
       </c>
       <c r="O34" t="n">
-        <v>62.83913578423567</v>
+        <v>127.5197879137298</v>
       </c>
       <c r="P34" t="n">
-        <v>73.02425275703001</v>
+        <v>43.10235089942735</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>79.82100350776379</v>
+        <v>33.01009234189564</v>
       </c>
       <c r="K35" t="n">
-        <v>68.37996426625614</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>47.55688531513388</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>20.92686739226636</v>
+        <v>12.57901547770251</v>
       </c>
       <c r="N35" t="n">
-        <v>16.60507348116786</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>29.14966087982927</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>59.72805697682125</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>93.51262335026308</v>
+        <v>133.6024756674553</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>66.54876907979121</v>
+        <v>38.66851107624584</v>
       </c>
       <c r="K36" t="n">
-        <v>34.79817869043559</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>12.12044141380176</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>58.52562482607891</v>
+        <v>20.85666660987795</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>66.85797092510069</v>
+        <v>38.11459256219013</v>
       </c>
       <c r="L37" t="n">
-        <v>55.34730792350439</v>
+        <v>118.2151929981858</v>
       </c>
       <c r="M37" t="n">
-        <v>55.06478097631943</v>
+        <v>111.9069815083095</v>
       </c>
       <c r="N37" t="n">
-        <v>45.81856870604673</v>
+        <v>107.6091393647787</v>
       </c>
       <c r="O37" t="n">
-        <v>62.83913578423567</v>
+        <v>127.5197879137298</v>
       </c>
       <c r="P37" t="n">
-        <v>73.02425275703001</v>
+        <v>43.10235089942735</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>79.82100350776379</v>
+        <v>33.01009234189564</v>
       </c>
       <c r="K38" t="n">
-        <v>68.37996426625614</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>47.55688531513388</v>
+        <v>60.16991375398213</v>
       </c>
       <c r="M38" t="n">
-        <v>20.92686739226636</v>
+        <v>23.73152113992911</v>
       </c>
       <c r="N38" t="n">
-        <v>16.60507348116786</v>
+        <v>17.84267615178946</v>
       </c>
       <c r="O38" t="n">
-        <v>29.14966087982927</v>
+        <v>10.48441781239838</v>
       </c>
       <c r="P38" t="n">
-        <v>59.72805697682125</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>93.51262335026308</v>
+        <v>33.95296228705871</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>66.54876907979121</v>
+        <v>38.66851107624584</v>
       </c>
       <c r="K39" t="n">
-        <v>34.79817869043559</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>12.12044141380176</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>58.52562482607891</v>
+        <v>20.85666660987795</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>66.85797092510069</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>55.34730792350439</v>
+        <v>118.2151929981858</v>
       </c>
       <c r="M40" t="n">
-        <v>55.06478097631943</v>
+        <v>115.933224473174</v>
       </c>
       <c r="N40" t="n">
-        <v>45.81856870604673</v>
+        <v>7.959625984382086</v>
       </c>
       <c r="O40" t="n">
-        <v>62.83913578423567</v>
+        <v>62.60967213218578</v>
       </c>
       <c r="P40" t="n">
-        <v>73.02425275703001</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>79.82100350776379</v>
+        <v>132.6596057222923</v>
       </c>
       <c r="K41" t="n">
-        <v>68.37996426625614</v>
+        <v>12.57901547770245</v>
       </c>
       <c r="L41" t="n">
-        <v>47.55688531513388</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>20.92686739226636</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>16.60507348116786</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>29.14966087982927</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>59.72805697682125</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>93.51262335026308</v>
+        <v>33.95296228705871</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>66.54876907979121</v>
+        <v>38.66851107624584</v>
       </c>
       <c r="K42" t="n">
-        <v>34.79817869043559</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>12.12044141380176</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>58.52562482607891</v>
+        <v>20.85666660987795</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>66.85797092510069</v>
+        <v>41.83365056310851</v>
       </c>
       <c r="L43" t="n">
-        <v>55.34730792350439</v>
+        <v>118.2151929981859</v>
       </c>
       <c r="M43" t="n">
-        <v>55.06478097631943</v>
+        <v>115.933224473174</v>
       </c>
       <c r="N43" t="n">
-        <v>45.81856870604673</v>
+        <v>7.959625984382086</v>
       </c>
       <c r="O43" t="n">
-        <v>62.83913578423567</v>
+        <v>127.5197879137298</v>
       </c>
       <c r="P43" t="n">
-        <v>73.02425275703001</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>69.75247211164648</v>
+        <v>127.3959450482053</v>
       </c>
       <c r="K44" t="n">
-        <v>57.8521323086317</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>28.8362588753597</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>4.474515194684224</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>17.84267615178948</v>
       </c>
       <c r="O44" t="n">
-        <v>9.161922983629779</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>42.66898511507466</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>85.26425743221384</v>
+        <v>33.95296228705871</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>60.55202075660908</v>
+        <v>38.66851107624584</v>
       </c>
       <c r="K45" t="n">
-        <v>24.54878065809741</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.42343072191045</v>
+        <v>20.85666660987795</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>60.67557455063191</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>51.99825569640058</v>
+        <v>118.2151929981858</v>
       </c>
       <c r="M46" t="n">
-        <v>46.72338342663512</v>
+        <v>115.933224473174</v>
       </c>
       <c r="N46" t="n">
-        <v>42.05346274136652</v>
+        <v>7.959625984382086</v>
       </c>
       <c r="O46" t="n">
-        <v>59.87999055852636</v>
+        <v>62.60967213218578</v>
       </c>
       <c r="P46" t="n">
-        <v>71.15065506373918</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>74.95115227296736</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S11" t="n">
-        <v>181.8424978167796</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T11" t="n">
         <v>217.8750126833486</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>60.53808260908391</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S12" t="n">
         <v>159.8302714297086</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>369.2804459133229</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>392.5141881589017</v>
       </c>
       <c r="G17" t="n">
-        <v>414.1100848867438</v>
+        <v>399.6295977936777</v>
       </c>
       <c r="H17" t="n">
-        <v>327.2605483852552</v>
+        <v>311.6837763305329</v>
       </c>
       <c r="I17" t="n">
-        <v>164.496149114352</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>74.95115227296736</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S17" t="n">
-        <v>181.8424978167796</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8750126833486</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23816,7 +23816,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>133.083207981829</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23825,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.7053917498219</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H18" t="n">
-        <v>106.0724961650838</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I18" t="n">
-        <v>67.42608682026646</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>60.53808260908391</v>
+        <v>43.94730290662498</v>
       </c>
       <c r="S18" t="n">
-        <v>159.8302714297086</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T18" t="n">
-        <v>197.5926354715572</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8994001458834</v>
+        <v>225.8952243311651</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>218.4387295666155</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>237.3331255781098</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>165.4701225991275</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>135.9655488592735</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4559964478956</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H19" t="n">
-        <v>157.4706880844321</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I19" t="n">
-        <v>139.362079762321</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J19" t="n">
-        <v>55.53588833985387</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,22 +23934,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>41.36451971353327</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R19" t="n">
-        <v>153.2386143258456</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S19" t="n">
-        <v>214.6933049501571</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6597533558751</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2898484704602</v>
+        <v>271.9250883541413</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>237.7757857410182</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23974,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>340.3211840378731</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.1100848867438</v>
+        <v>413.9914553764875</v>
       </c>
       <c r="H20" t="n">
-        <v>327.2605483852552</v>
+        <v>311.6837763305328</v>
       </c>
       <c r="I20" t="n">
-        <v>164.496149114352</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>74.95115227296735</v>
+        <v>67.4992912993288</v>
       </c>
       <c r="S20" t="n">
-        <v>181.8424978167795</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8750126833486</v>
+        <v>217.3557120022016</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2407503367447</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>315.102334311196</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>334.8791111346031</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24062,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.7053917498219</v>
+        <v>136.6419193661031</v>
       </c>
       <c r="H21" t="n">
-        <v>106.0724961650838</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I21" t="n">
-        <v>67.42608682026646</v>
+        <v>65.24074378433592</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>60.5380826090839</v>
+        <v>42.23536948275393</v>
       </c>
       <c r="S21" t="n">
-        <v>159.8302714297086</v>
+        <v>158.6512997408977</v>
       </c>
       <c r="T21" t="n">
-        <v>197.5926354715572</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8994001458834</v>
+        <v>213.2453001722262</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>218.4387295666154</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>237.3331255781097</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4559964478956</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H22" t="n">
-        <v>157.4706880844321</v>
+        <v>156.9975751224423</v>
       </c>
       <c r="I22" t="n">
-        <v>139.362079762321</v>
+        <v>137.761816287615</v>
       </c>
       <c r="J22" t="n">
-        <v>55.53588833985387</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.36451971353327</v>
+        <v>24.25872286247915</v>
       </c>
       <c r="R22" t="n">
-        <v>153.2386143258456</v>
+        <v>136.4841016203344</v>
       </c>
       <c r="S22" t="n">
-        <v>214.6933049501571</v>
+        <v>213.7659454939867</v>
       </c>
       <c r="T22" t="n">
-        <v>225.6597533558751</v>
+        <v>225.4323882309924</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2898484704602</v>
+        <v>286.286945936951</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>211.3477978062273</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>204.2227957692849</v>
       </c>
     </row>
     <row r="23">
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.1100848867438</v>
+        <v>413.5585490919207</v>
       </c>
       <c r="H23" t="n">
-        <v>327.2605483852552</v>
+        <v>321.612132426523</v>
       </c>
       <c r="I23" t="n">
-        <v>164.496149114352</v>
+        <v>143.2330653844339</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>74.95115227296735</v>
+        <v>40.30574190141</v>
       </c>
       <c r="S23" t="n">
-        <v>181.8424978167795</v>
+        <v>169.2743758922479</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8750126833486</v>
+        <v>115.8111513611138</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2502406975652</v>
+        <v>151.5566044535827</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>228.1027450897383</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>298.4666472706002</v>
       </c>
     </row>
     <row r="24">
@@ -24296,16 +24296,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>45.41969901298727</v>
       </c>
       <c r="G24" t="n">
-        <v>136.7053917498219</v>
+        <v>48.63900269829878</v>
       </c>
       <c r="H24" t="n">
-        <v>106.0724961650838</v>
+        <v>103.2224739690945</v>
       </c>
       <c r="I24" t="n">
-        <v>67.42608682026646</v>
+        <v>57.26592594900554</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>60.5380826090839</v>
+        <v>42.21614155257823</v>
       </c>
       <c r="S24" t="n">
-        <v>159.8302714297086</v>
+        <v>154.348961711264</v>
       </c>
       <c r="T24" t="n">
-        <v>197.5926354715572</v>
+        <v>196.4031847912147</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8994001458834</v>
+        <v>225.8799858257473</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>133.1510737690286</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>152.045469780523</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4559964478956</v>
+        <v>167.2085964776358</v>
       </c>
       <c r="H25" t="n">
-        <v>157.4706880844321</v>
+        <v>155.2710774397587</v>
       </c>
       <c r="I25" t="n">
-        <v>139.362079762321</v>
+        <v>131.9220879294174</v>
       </c>
       <c r="J25" t="n">
-        <v>55.53588833985387</v>
+        <v>38.04471044248645</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,31 +24408,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.36451971353327</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>153.2386143258456</v>
+        <v>74.99146648149002</v>
       </c>
       <c r="S25" t="n">
-        <v>214.6933049501571</v>
+        <v>210.3817981957205</v>
       </c>
       <c r="T25" t="n">
-        <v>225.6597533558751</v>
+        <v>224.6026807556741</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2763539266278</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>186.8734849561944</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>126.0601420086405</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>118.9351399716982</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>277.5016003855542</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>255.0335282402863</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>282.2808566918651</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>307.2265323613148</v>
       </c>
       <c r="G26" t="n">
-        <v>414.1100848867438</v>
+        <v>413.5585490919207</v>
       </c>
       <c r="H26" t="n">
-        <v>327.2605483852552</v>
+        <v>321.612132426523</v>
       </c>
       <c r="I26" t="n">
-        <v>164.496149114352</v>
+        <v>143.2330653844339</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>74.95115227296735</v>
+        <v>40.30574190141</v>
       </c>
       <c r="S26" t="n">
-        <v>181.8424978167795</v>
+        <v>169.2743758922479</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8750126833486</v>
+        <v>215.4606647415104</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2061178339793</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24533,16 +24533,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>45.41969901298722</v>
       </c>
       <c r="G27" t="n">
-        <v>136.7053917498219</v>
+        <v>136.4102940837521</v>
       </c>
       <c r="H27" t="n">
-        <v>106.0724961650838</v>
+        <v>103.2224739690945</v>
       </c>
       <c r="I27" t="n">
-        <v>67.42608682026646</v>
+        <v>57.26592594900554</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>60.5380826090839</v>
+        <v>42.21614155257823</v>
       </c>
       <c r="S27" t="n">
-        <v>159.8302714297086</v>
+        <v>154.348961711264</v>
       </c>
       <c r="T27" t="n">
-        <v>197.5926354715572</v>
+        <v>96.75367141081801</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8994001458834</v>
+        <v>138.108694440294</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>152.045469780523</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24615,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4559964478956</v>
+        <v>167.2085964776358</v>
       </c>
       <c r="H28" t="n">
-        <v>157.4706880844321</v>
+        <v>155.2710774397587</v>
       </c>
       <c r="I28" t="n">
-        <v>139.362079762321</v>
+        <v>131.9220879294174</v>
       </c>
       <c r="J28" t="n">
-        <v>55.53588833985387</v>
+        <v>38.04471044248645</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,31 +24645,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.36451971353327</v>
+        <v>20.64814584023364</v>
       </c>
       <c r="R28" t="n">
-        <v>153.2386143258456</v>
+        <v>142.1146120267097</v>
       </c>
       <c r="S28" t="n">
-        <v>214.6933049501571</v>
+        <v>110.7322848153238</v>
       </c>
       <c r="T28" t="n">
-        <v>225.6597533558751</v>
+        <v>136.8313893702208</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2763539266278</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>186.8734849561943</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>118.9351399716981</v>
       </c>
     </row>
     <row r="29">
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.1100848867438</v>
+        <v>313.909035711524</v>
       </c>
       <c r="H29" t="n">
-        <v>327.2605483852552</v>
+        <v>321.612132426523</v>
       </c>
       <c r="I29" t="n">
-        <v>164.496149114352</v>
+        <v>143.2330653844339</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>74.95115227296736</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.8424978167796</v>
+        <v>169.2743758922479</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8750126833486</v>
+        <v>215.4606647415104</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2502406975652</v>
+        <v>151.5566044535827</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>228.1027450897383</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>301.7754192333696</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24773,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.7053917498219</v>
+        <v>136.4102940837521</v>
       </c>
       <c r="H30" t="n">
-        <v>106.0724961650838</v>
+        <v>103.2224739690945</v>
       </c>
       <c r="I30" t="n">
-        <v>67.42608682026646</v>
+        <v>57.26592594900554</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>60.53808260908391</v>
+        <v>42.21614155257823</v>
       </c>
       <c r="S30" t="n">
-        <v>159.8302714297086</v>
+        <v>154.348961711264</v>
       </c>
       <c r="T30" t="n">
-        <v>197.5926354715572</v>
+        <v>96.75367141081806</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8994001458834</v>
+        <v>126.2304724453507</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>152.045469780523</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>118.0016938180241</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>80.18246680154068</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>67.59730771823122</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4559964478956</v>
+        <v>167.2085964776358</v>
       </c>
       <c r="H31" t="n">
-        <v>157.4706880844321</v>
+        <v>155.2710774397587</v>
       </c>
       <c r="I31" t="n">
-        <v>139.362079762321</v>
+        <v>131.9220879294174</v>
       </c>
       <c r="J31" t="n">
-        <v>55.53588833985387</v>
+        <v>38.04471044248645</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>41.36451971353327</v>
+        <v>20.64814584023364</v>
       </c>
       <c r="R31" t="n">
-        <v>153.2386143258456</v>
+        <v>142.1146120267097</v>
       </c>
       <c r="S31" t="n">
-        <v>214.6933049501571</v>
+        <v>210.3817981957205</v>
       </c>
       <c r="T31" t="n">
-        <v>225.6597533558751</v>
+        <v>224.6026807556741</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2763539266278</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>137.9383640035838</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>118.9351399716982</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.1100848867438</v>
+        <v>313.909035711524</v>
       </c>
       <c r="H32" t="n">
-        <v>327.2605483852552</v>
+        <v>321.612132426523</v>
       </c>
       <c r="I32" t="n">
-        <v>164.496149114352</v>
+        <v>143.2330653844339</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>74.95115227296735</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>181.8424978167795</v>
+        <v>169.2743758922479</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8750126833486</v>
+        <v>215.4606647415104</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2502406975652</v>
+        <v>151.5566044535827</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>228.1027450897383</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>301.7754192333696</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25010,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.7053917498219</v>
+        <v>136.4102940837521</v>
       </c>
       <c r="H33" t="n">
-        <v>106.0724961650838</v>
+        <v>103.2224739690945</v>
       </c>
       <c r="I33" t="n">
-        <v>67.42608682026646</v>
+        <v>57.26592594900554</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>60.5380826090839</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>159.8302714297086</v>
+        <v>154.348961711264</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5926354715572</v>
+        <v>96.75367141081806</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8994001458834</v>
+        <v>225.8799858257473</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>133.1510737690286</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>152.045469780523</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>160.2178353706024</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25080,25 +25080,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>48.96595963781574</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>45.77153464253463</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4559964478956</v>
+        <v>167.2085964776358</v>
       </c>
       <c r="H34" t="n">
-        <v>157.4706880844321</v>
+        <v>155.2710774397587</v>
       </c>
       <c r="I34" t="n">
-        <v>139.362079762321</v>
+        <v>131.9220879294174</v>
       </c>
       <c r="J34" t="n">
-        <v>55.53588833985387</v>
+        <v>38.04471044248645</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,25 +25119,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>41.36451971353327</v>
+        <v>20.64814584023364</v>
       </c>
       <c r="R34" t="n">
-        <v>153.2386143258456</v>
+        <v>142.1146120267097</v>
       </c>
       <c r="S34" t="n">
-        <v>214.6933049501571</v>
+        <v>210.3817981957205</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6597533558751</v>
+        <v>224.6026807556741</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2898484704602</v>
+        <v>198.5050625411745</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>186.8734849561944</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25168,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.1100848867438</v>
+        <v>413.5585490919207</v>
       </c>
       <c r="H35" t="n">
-        <v>327.2605483852552</v>
+        <v>321.612132426523</v>
       </c>
       <c r="I35" t="n">
-        <v>164.496149114352</v>
+        <v>143.2330653844339</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>74.95115227296735</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>181.8424978167795</v>
+        <v>169.2743758922479</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8750126833486</v>
+        <v>215.4606647415104</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2061178339793</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>228.1027450897383</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>249.5914553370164</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>270.0815872980724</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>338.7723891720102</v>
       </c>
     </row>
     <row r="36">
@@ -25247,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.7053917498219</v>
+        <v>136.4102940837521</v>
       </c>
       <c r="H36" t="n">
-        <v>106.0724961650838</v>
+        <v>103.2224739690945</v>
       </c>
       <c r="I36" t="n">
-        <v>67.42608682026646</v>
+        <v>57.26592594900554</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>60.5380826090839</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>159.8302714297086</v>
+        <v>154.348961711264</v>
       </c>
       <c r="T36" t="n">
-        <v>197.5926354715572</v>
+        <v>96.75367141081806</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8994001458834</v>
+        <v>126.2304724453507</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>133.1510737690286</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>206.1398333280445</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>60.84418163275902</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4559964478956</v>
+        <v>167.2085964776358</v>
       </c>
       <c r="H37" t="n">
-        <v>157.4706880844321</v>
+        <v>155.2710774397587</v>
       </c>
       <c r="I37" t="n">
-        <v>139.362079762321</v>
+        <v>131.9220879294174</v>
       </c>
       <c r="J37" t="n">
-        <v>55.53588833985387</v>
+        <v>38.04471044248645</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,25 +25356,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>41.36451971353327</v>
+        <v>20.64814584023364</v>
       </c>
       <c r="R37" t="n">
-        <v>153.2386143258456</v>
+        <v>142.1146120267097</v>
       </c>
       <c r="S37" t="n">
-        <v>214.6933049501571</v>
+        <v>210.3817981957205</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6597533558751</v>
+        <v>224.6026807556741</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2898484704602</v>
+        <v>186.6268405462312</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>152.4881299434314</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>186.8734849561944</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.1100848867438</v>
+        <v>313.909035711524</v>
       </c>
       <c r="H38" t="n">
-        <v>327.2605483852552</v>
+        <v>221.9626190461263</v>
       </c>
       <c r="I38" t="n">
-        <v>164.496149114352</v>
+        <v>143.2330653844339</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>74.95115227296735</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>181.8424978167795</v>
+        <v>169.2743758922479</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8750126833486</v>
+        <v>215.4606647415104</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2061178339793</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>228.1027450897383</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>301.7754192333696</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>66.88367026947073</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25484,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.7053917498219</v>
+        <v>136.4102940837521</v>
       </c>
       <c r="H39" t="n">
-        <v>106.0724961650838</v>
+        <v>103.2224739690945</v>
       </c>
       <c r="I39" t="n">
-        <v>67.42608682026646</v>
+        <v>57.26592594900554</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>60.5380826090839</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>159.8302714297086</v>
+        <v>154.348961711264</v>
       </c>
       <c r="T39" t="n">
-        <v>197.5926354715572</v>
+        <v>196.4031847912147</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8994001458834</v>
+        <v>180.3248359928722</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>133.1510737690286</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>152.045469780523</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>80.18246680154068</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>67.59730771823122</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>58.66267126111583</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4559964478956</v>
+        <v>167.2085964776358</v>
       </c>
       <c r="H40" t="n">
-        <v>157.4706880844321</v>
+        <v>55.62156405936209</v>
       </c>
       <c r="I40" t="n">
-        <v>139.362079762321</v>
+        <v>131.9220879294174</v>
       </c>
       <c r="J40" t="n">
-        <v>55.53588833985387</v>
+        <v>38.04471044248645</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>41.36451971353327</v>
+        <v>20.64814584023364</v>
       </c>
       <c r="R40" t="n">
-        <v>153.2386143258456</v>
+        <v>142.1146120267097</v>
       </c>
       <c r="S40" t="n">
-        <v>214.6933049501571</v>
+        <v>210.3817981957205</v>
       </c>
       <c r="T40" t="n">
-        <v>225.6597533558751</v>
+        <v>224.6026807556741</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2763539266278</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25633,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>255.0335282402863</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.1100848867438</v>
+        <v>413.5585490919207</v>
       </c>
       <c r="H41" t="n">
-        <v>327.2605483852552</v>
+        <v>274.1465829424796</v>
       </c>
       <c r="I41" t="n">
-        <v>164.496149114352</v>
+        <v>143.2330653844339</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>74.95115227296735</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.8424978167795</v>
+        <v>169.2743758922479</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8750126833486</v>
+        <v>215.4606647415104</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2061178339793</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>228.1027450897383</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>249.5914553370164</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25712,22 +25712,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>47.79555218424214</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>45.41969901298727</v>
       </c>
       <c r="G42" t="n">
-        <v>136.7053917498219</v>
+        <v>36.76078070335551</v>
       </c>
       <c r="H42" t="n">
-        <v>106.0724961650838</v>
+        <v>15.45118258364111</v>
       </c>
       <c r="I42" t="n">
-        <v>67.42608682026646</v>
+        <v>57.26592594900554</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>60.5380826090839</v>
+        <v>42.21614155257823</v>
       </c>
       <c r="S42" t="n">
-        <v>159.8302714297086</v>
+        <v>154.348961711264</v>
       </c>
       <c r="T42" t="n">
-        <v>197.5926354715572</v>
+        <v>196.4031847912147</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8994001458834</v>
+        <v>225.8799858257473</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25797,19 +25797,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.77153464253463</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4559964478956</v>
+        <v>67.55908309723914</v>
       </c>
       <c r="H43" t="n">
-        <v>157.4706880844321</v>
+        <v>55.62156405936209</v>
       </c>
       <c r="I43" t="n">
-        <v>139.362079762321</v>
+        <v>131.9220879294174</v>
       </c>
       <c r="J43" t="n">
-        <v>55.53588833985387</v>
+        <v>38.04471044248645</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>41.36451971353327</v>
+        <v>20.64814584023364</v>
       </c>
       <c r="R43" t="n">
-        <v>153.2386143258456</v>
+        <v>142.1146120267097</v>
       </c>
       <c r="S43" t="n">
-        <v>214.6933049501571</v>
+        <v>210.3817981957205</v>
       </c>
       <c r="T43" t="n">
-        <v>225.6597533558751</v>
+        <v>224.6026807556741</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2763539266278</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>198.7517069511377</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>378.1715550558377</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>255.0335282402863</v>
       </c>
       <c r="E44" t="n">
-        <v>377.3680834646189</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>402.3137591340686</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.9914553764875</v>
+        <v>313.909035711524</v>
       </c>
       <c r="H44" t="n">
-        <v>326.0456339133427</v>
+        <v>321.612132426523</v>
       </c>
       <c r="I44" t="n">
-        <v>159.9226849201952</v>
+        <v>143.2330653844339</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>67.4992912993288</v>
+        <v>40.30574190141</v>
       </c>
       <c r="S44" t="n">
-        <v>179.1392278518137</v>
+        <v>81.50308450679452</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3557120022016</v>
+        <v>115.8111513611138</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2061178339793</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>365.7126386344572</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25949,22 +25949,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>47.79555218424214</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>112.0899306225259</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>45.41969901298727</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6419193661031</v>
+        <v>36.76078070335551</v>
       </c>
       <c r="H45" t="n">
-        <v>105.4594865644317</v>
+        <v>103.2224739690945</v>
       </c>
       <c r="I45" t="n">
-        <v>60.67845717669304</v>
+        <v>57.26592594900554</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>56.59722706556381</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>154.0890131332548</v>
+        <v>154.348961711264</v>
       </c>
       <c r="T45" t="n">
-        <v>197.336797223147</v>
+        <v>196.4031847912147</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8799858257473</v>
       </c>
       <c r="V45" t="n">
-        <v>228.2383005417824</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>201.7545231594656</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4027833335613</v>
+        <v>167.2085964776358</v>
       </c>
       <c r="H46" t="n">
-        <v>156.9975751224423</v>
+        <v>155.2710774397587</v>
       </c>
       <c r="I46" t="n">
-        <v>137.761816287615</v>
+        <v>131.9220879294174</v>
       </c>
       <c r="J46" t="n">
-        <v>51.77372115642321</v>
+        <v>38.04471044248645</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,28 +26067,28 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.90864702141808</v>
+        <v>20.64814584023364</v>
       </c>
       <c r="R46" t="n">
-        <v>150.8459592031442</v>
+        <v>142.1146120267097</v>
       </c>
       <c r="S46" t="n">
-        <v>213.7659454939867</v>
+        <v>210.3817981957205</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4323882309924</v>
+        <v>136.8313893702208</v>
       </c>
       <c r="U46" t="n">
-        <v>281.7246593293082</v>
+        <v>186.6268405462312</v>
       </c>
       <c r="V46" t="n">
-        <v>247.5753567161851</v>
+        <v>152.4881299434314</v>
       </c>
       <c r="W46" t="n">
-        <v>281.9607117289481</v>
+        <v>186.8734849561944</v>
       </c>
       <c r="X46" t="n">
-        <v>221.6911933450253</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>350280.6257738412</v>
+        <v>363225.8425920433</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>350280.6257738412</v>
+        <v>363225.8425920435</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>350280.6257738412</v>
+        <v>440193.0447473692</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>350280.6257738412</v>
+        <v>440193.0447473692</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>350280.6257738412</v>
+        <v>440193.044747369</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>350280.6257738412</v>
+        <v>440193.0447473692</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>350280.6257738412</v>
+        <v>440193.0447473692</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>350280.6257738412</v>
+        <v>440193.0447473691</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>350280.6257738412</v>
+        <v>440193.0447473692</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>354509.6801561215</v>
+        <v>440193.0447473692</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544014</v>
       </c>
       <c r="C2" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544014</v>
       </c>
       <c r="D2" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544014</v>
       </c>
       <c r="E2" t="n">
         <v>77199.09324546649</v>
@@ -26328,34 +26328,34 @@
         <v>77199.09324546649</v>
       </c>
       <c r="G2" t="n">
-        <v>77199.09324546649</v>
+        <v>80494.90040968913</v>
       </c>
       <c r="H2" t="n">
-        <v>77199.09324546647</v>
+        <v>80494.90040968923</v>
       </c>
       <c r="I2" t="n">
-        <v>77199.0932454665</v>
+        <v>98576.33134073549</v>
       </c>
       <c r="J2" t="n">
-        <v>77199.09324546649</v>
+        <v>98576.3313407355</v>
       </c>
       <c r="K2" t="n">
-        <v>77199.0932454665</v>
+        <v>98576.3313407355</v>
       </c>
       <c r="L2" t="n">
-        <v>77199.09324546649</v>
+        <v>98576.3313407355</v>
       </c>
       <c r="M2" t="n">
-        <v>77199.09324546649</v>
+        <v>98576.33134073552</v>
       </c>
       <c r="N2" t="n">
-        <v>77199.09324546652</v>
+        <v>98576.33134073552</v>
       </c>
       <c r="O2" t="n">
-        <v>77199.09324546649</v>
+        <v>98576.3313407355</v>
       </c>
       <c r="P2" t="n">
-        <v>78690.36860402087</v>
+        <v>98576.33134073549</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>26879.3041181974</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>103739.8847016905</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3456.195389160752</v>
       </c>
       <c r="P3" t="n">
-        <v>20718.94847053708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26432,34 +26432,34 @@
         <v>11792.29385141108</v>
       </c>
       <c r="G4" t="n">
-        <v>11792.29385141108</v>
+        <v>10299.11777920019</v>
       </c>
       <c r="H4" t="n">
-        <v>11792.29385141108</v>
+        <v>10299.11777920019</v>
       </c>
       <c r="I4" t="n">
-        <v>11792.29385141108</v>
+        <v>8060.157018348085</v>
       </c>
       <c r="J4" t="n">
-        <v>11792.29385141108</v>
+        <v>8060.157018348087</v>
       </c>
       <c r="K4" t="n">
-        <v>11792.29385141108</v>
+        <v>8060.157018348084</v>
       </c>
       <c r="L4" t="n">
-        <v>11792.29385141108</v>
+        <v>8060.157018348085</v>
       </c>
       <c r="M4" t="n">
-        <v>11792.29385141108</v>
+        <v>8060.157018348085</v>
       </c>
       <c r="N4" t="n">
-        <v>11792.29385141108</v>
+        <v>8060.157018348085</v>
       </c>
       <c r="O4" t="n">
-        <v>11792.29385141108</v>
+        <v>8060.157018348085</v>
       </c>
       <c r="P4" t="n">
-        <v>9486.63554762023</v>
+        <v>8060.157018348084</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>6467.457040608691</v>
       </c>
       <c r="G5" t="n">
-        <v>6467.457040608691</v>
+        <v>7983.956158385982</v>
       </c>
       <c r="H5" t="n">
-        <v>6467.457040608691</v>
+        <v>7983.956158385989</v>
       </c>
       <c r="I5" t="n">
-        <v>6467.457040608691</v>
+        <v>15516.98818551384</v>
       </c>
       <c r="J5" t="n">
-        <v>6467.457040608691</v>
+        <v>15516.98818551384</v>
       </c>
       <c r="K5" t="n">
-        <v>6467.457040608691</v>
+        <v>15516.98818551384</v>
       </c>
       <c r="L5" t="n">
-        <v>6467.457040608691</v>
+        <v>15516.98818551384</v>
       </c>
       <c r="M5" t="n">
-        <v>6467.457040608691</v>
+        <v>15516.98818551384</v>
       </c>
       <c r="N5" t="n">
-        <v>6467.457040608691</v>
+        <v>15516.98818551384</v>
       </c>
       <c r="O5" t="n">
-        <v>6467.457040608691</v>
+        <v>15516.98818551384</v>
       </c>
       <c r="P5" t="n">
-        <v>7388.142243095836</v>
+        <v>15516.98818551384</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6750.748617138393</v>
+        <v>-21901.42258717319</v>
       </c>
       <c r="C6" t="n">
-        <v>-6750.748617138393</v>
+        <v>-21901.42258717319</v>
       </c>
       <c r="D6" t="n">
-        <v>-6750.748617138393</v>
+        <v>-21901.42258717319</v>
       </c>
       <c r="E6" t="n">
-        <v>-179408.1066738993</v>
+        <v>-193995.7591323936</v>
       </c>
       <c r="F6" t="n">
-        <v>58939.34235344672</v>
+        <v>44351.68989495245</v>
       </c>
       <c r="G6" t="n">
-        <v>58939.34235344672</v>
+        <v>20998.39352342841</v>
       </c>
       <c r="H6" t="n">
-        <v>58939.34235344671</v>
+        <v>47877.6976416259</v>
       </c>
       <c r="I6" t="n">
-        <v>58939.34235344674</v>
+        <v>-41683.94809290596</v>
       </c>
       <c r="J6" t="n">
-        <v>58939.34235344672</v>
+        <v>62055.9366087846</v>
       </c>
       <c r="K6" t="n">
-        <v>58939.34235344674</v>
+        <v>62055.93660878461</v>
       </c>
       <c r="L6" t="n">
-        <v>58939.34235344672</v>
+        <v>62055.93660878461</v>
       </c>
       <c r="M6" t="n">
-        <v>58939.34235344672</v>
+        <v>62055.93660878463</v>
       </c>
       <c r="N6" t="n">
-        <v>58939.34235344675</v>
+        <v>62055.93660878463</v>
       </c>
       <c r="O6" t="n">
-        <v>58939.34235344672</v>
+        <v>58599.74121962386</v>
       </c>
       <c r="P6" t="n">
-        <v>41096.64234276773</v>
+        <v>62055.9366087846</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>296.6723413123253</v>
       </c>
       <c r="G3" t="n">
-        <v>296.6723413123253</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="H3" t="n">
-        <v>296.6723413123253</v>
+        <v>326.1814319885848</v>
       </c>
       <c r="I3" t="n">
-        <v>296.6723413123253</v>
+        <v>433.8668702745745</v>
       </c>
       <c r="J3" t="n">
-        <v>296.6723413123253</v>
+        <v>433.8668702745745</v>
       </c>
       <c r="K3" t="n">
-        <v>296.6723413123253</v>
+        <v>433.8668702745745</v>
       </c>
       <c r="L3" t="n">
-        <v>296.6723413123253</v>
+        <v>433.8668702745745</v>
       </c>
       <c r="M3" t="n">
-        <v>296.6723413123253</v>
+        <v>433.8668702745745</v>
       </c>
       <c r="N3" t="n">
-        <v>296.6723413123253</v>
+        <v>433.8668702745745</v>
       </c>
       <c r="O3" t="n">
-        <v>296.6723413123253</v>
+        <v>433.8668702745745</v>
       </c>
       <c r="P3" t="n">
-        <v>326.1814319885848</v>
+        <v>433.8668702745745</v>
       </c>
     </row>
     <row r="4">
@@ -26804,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>14.36185758280976</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>14.36185758280988</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>99.64951338039666</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="P4" t="n">
-        <v>4.562286607642875</v>
+        <v>99.64951338039661</v>
       </c>
     </row>
   </sheetData>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>29.50909067625952</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>107.6854382859897</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>29.50909067625952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>14.36185758280976</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>85.28765579758674</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27050,10 +27050,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>14.36185758280976</v>
       </c>
       <c r="P4" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>14.36185758280976</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>12.21425373051196</v>
       </c>
       <c r="I11" t="n">
-        <v>45.97974045605395</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J11" t="n">
         <v>101.2249010189225</v>
@@ -31770,7 +31770,7 @@
         <v>188.2095296548534</v>
       </c>
       <c r="M11" t="n">
-        <v>209.4193658350063</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N11" t="n">
         <v>212.8079901154231</v>
@@ -31785,13 +31785,13 @@
         <v>128.7930665241864</v>
       </c>
       <c r="R11" t="n">
-        <v>74.91796566818232</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S11" t="n">
-        <v>27.17757176946578</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T11" t="n">
-        <v>5.220836880782727</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U11" t="n">
         <v>0.09541221027130049</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.638125413388775</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H12" t="n">
         <v>6.162948071412645</v>
@@ -31922,7 +31922,7 @@
         <v>37.82329177681891</v>
       </c>
       <c r="K13" t="n">
-        <v>62.15528724543468</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L13" t="n">
         <v>79.5373683577339</v>
@@ -31937,7 +31937,7 @@
         <v>75.61740266760712</v>
       </c>
       <c r="P13" t="n">
-        <v>64.70375129211759</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q13" t="n">
         <v>44.79752353816112</v>
@@ -31946,7 +31946,7 @@
         <v>24.05477705132394</v>
       </c>
       <c r="S13" t="n">
-        <v>9.3232930868152</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T13" t="n">
         <v>2.28583607240644</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.192652628391256</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H17" t="n">
-        <v>12.21425373051196</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I17" t="n">
-        <v>45.97974045605395</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J17" t="n">
-        <v>101.2249010189225</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K17" t="n">
-        <v>151.7098867787244</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L17" t="n">
-        <v>188.2095296548534</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M17" t="n">
-        <v>209.4193658350063</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N17" t="n">
-        <v>212.8079901154231</v>
+        <v>233.9753502042338</v>
       </c>
       <c r="O17" t="n">
-        <v>200.9485505418575</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P17" t="n">
-        <v>171.5049387784483</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q17" t="n">
-        <v>128.7930665241864</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R17" t="n">
-        <v>74.91796566818232</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S17" t="n">
-        <v>27.17757176946578</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T17" t="n">
-        <v>5.220836880782727</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.638125413388775</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H18" t="n">
-        <v>6.162948071412645</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I18" t="n">
-        <v>21.97054603114862</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J18" t="n">
-        <v>60.28885758687547</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K18" t="n">
-        <v>103.0432602839234</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>152.335960288631</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>156.4958915048281</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>145.7035696661431</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>156.9581020272542</v>
       </c>
       <c r="P18" t="n">
-        <v>121.8539660005285</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>81.45614925994261</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R18" t="n">
-        <v>39.61975154355923</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S18" t="n">
-        <v>11.85289967412921</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T18" t="n">
-        <v>2.572093223264404</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H19" t="n">
-        <v>4.756484423007447</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I19" t="n">
-        <v>16.08839516493725</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J19" t="n">
-        <v>37.82329177681891</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K19" t="n">
-        <v>62.15528724543468</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L19" t="n">
-        <v>79.5373683577339</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M19" t="n">
-        <v>83.86100297128563</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N19" t="n">
-        <v>81.86697575918646</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O19" t="n">
-        <v>75.61740266760712</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P19" t="n">
-        <v>64.70375129211759</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.79752353816112</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R19" t="n">
-        <v>24.05477705132394</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S19" t="n">
-        <v>9.3232930868152</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T19" t="n">
-        <v>2.28583607240644</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.192652628391256</v>
+        <v>1.311282138647576</v>
       </c>
       <c r="H20" t="n">
-        <v>12.21425373051196</v>
+        <v>13.42916820242449</v>
       </c>
       <c r="I20" t="n">
-        <v>45.97974045605396</v>
+        <v>50.55320465021072</v>
       </c>
       <c r="J20" t="n">
-        <v>101.2249010189225</v>
+        <v>111.2934324150398</v>
       </c>
       <c r="K20" t="n">
-        <v>151.7098867787244</v>
+        <v>166.8000053439917</v>
       </c>
       <c r="L20" t="n">
-        <v>188.2095296548534</v>
+        <v>206.9301560946275</v>
       </c>
       <c r="M20" t="n">
-        <v>209.4193658350064</v>
+        <v>230.2496698278014</v>
       </c>
       <c r="N20" t="n">
-        <v>212.8079901154231</v>
+        <v>233.9753502042338</v>
       </c>
       <c r="O20" t="n">
-        <v>200.9485505418575</v>
+        <v>220.9362884380569</v>
       </c>
       <c r="P20" t="n">
-        <v>171.5049387784483</v>
+        <v>188.5640106401949</v>
       </c>
       <c r="Q20" t="n">
-        <v>128.7930665241864</v>
+        <v>141.6037190498785</v>
       </c>
       <c r="R20" t="n">
-        <v>74.91796566818233</v>
+        <v>82.36982664182088</v>
       </c>
       <c r="S20" t="n">
-        <v>27.17757176946579</v>
+        <v>29.88084173443167</v>
       </c>
       <c r="T20" t="n">
-        <v>5.220836880782728</v>
+        <v>5.740137561929767</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.1049025710918061</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.701597797107522</v>
       </c>
       <c r="H21" t="n">
-        <v>6.162948071412645</v>
+        <v>6.775957672064753</v>
       </c>
       <c r="I21" t="n">
-        <v>21.97054603114862</v>
+        <v>24.15588906707916</v>
       </c>
       <c r="J21" t="n">
-        <v>60.28885758687547</v>
+        <v>66.28560591005761</v>
       </c>
       <c r="K21" t="n">
-        <v>103.0432602839234</v>
+        <v>113.2926583162616</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>152.335960288631</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>156.4958915048282</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>145.7035696661432</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>156.9581020272543</v>
       </c>
       <c r="P21" t="n">
-        <v>121.8539660005285</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>81.45614925994261</v>
+        <v>89.55834336411107</v>
       </c>
       <c r="R21" t="n">
-        <v>39.61975154355923</v>
+        <v>43.56060708707933</v>
       </c>
       <c r="S21" t="n">
-        <v>11.85289967412921</v>
+        <v>13.03187136294015</v>
       </c>
       <c r="T21" t="n">
-        <v>2.572093223264404</v>
+        <v>2.827931471674616</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.04615774980970541</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.5881960248974479</v>
       </c>
       <c r="H22" t="n">
-        <v>4.756484423007447</v>
+        <v>5.229597384997313</v>
       </c>
       <c r="I22" t="n">
-        <v>16.08839516493725</v>
+        <v>17.68865863964326</v>
       </c>
       <c r="J22" t="n">
-        <v>37.82329177681891</v>
+        <v>41.58545896024957</v>
       </c>
       <c r="K22" t="n">
-        <v>62.15528724543469</v>
+        <v>68.33768361990347</v>
       </c>
       <c r="L22" t="n">
-        <v>79.5373683577339</v>
+        <v>87.44870719248058</v>
       </c>
       <c r="M22" t="n">
-        <v>83.86100297128563</v>
+        <v>92.20240052096993</v>
       </c>
       <c r="N22" t="n">
-        <v>81.86697575918646</v>
+        <v>90.01003351907953</v>
       </c>
       <c r="O22" t="n">
-        <v>75.61740266760712</v>
+        <v>83.13883450095931</v>
       </c>
       <c r="P22" t="n">
-        <v>64.7037512921176</v>
+        <v>71.13963559305131</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.79752353816112</v>
+        <v>49.2533962302763</v>
       </c>
       <c r="R22" t="n">
-        <v>24.05477705132394</v>
+        <v>26.44743217402524</v>
       </c>
       <c r="S22" t="n">
-        <v>9.323293086815202</v>
+        <v>10.25065254298552</v>
       </c>
       <c r="T22" t="n">
-        <v>2.28583607240644</v>
+        <v>2.513201197289095</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.03208341953986083</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.192652628391256</v>
+        <v>1.744188423214369</v>
       </c>
       <c r="H23" t="n">
-        <v>12.21425373051196</v>
+        <v>17.86266968924416</v>
       </c>
       <c r="I23" t="n">
-        <v>45.97974045605396</v>
+        <v>67.24282418597201</v>
       </c>
       <c r="J23" t="n">
-        <v>101.2249010189225</v>
+        <v>148.0358121847906</v>
       </c>
       <c r="K23" t="n">
-        <v>151.7098867787244</v>
+        <v>221.8673081394549</v>
       </c>
       <c r="L23" t="n">
-        <v>188.2095296548534</v>
+        <v>275.2460145964017</v>
       </c>
       <c r="M23" t="n">
-        <v>209.4193658350064</v>
+        <v>306.2642254677402</v>
       </c>
       <c r="N23" t="n">
-        <v>212.8079901154231</v>
+        <v>311.2199008251981</v>
       </c>
       <c r="O23" t="n">
-        <v>200.9485505418575</v>
+        <v>293.8761271918602</v>
       </c>
       <c r="P23" t="n">
-        <v>171.5049387784483</v>
+        <v>250.8164754937554</v>
       </c>
       <c r="Q23" t="n">
-        <v>128.7930665241864</v>
+        <v>188.3527275873908</v>
       </c>
       <c r="R23" t="n">
-        <v>74.91796566818233</v>
+        <v>109.5633760397397</v>
       </c>
       <c r="S23" t="n">
-        <v>27.17757176946579</v>
+        <v>39.74569369399747</v>
       </c>
       <c r="T23" t="n">
-        <v>5.220836880782728</v>
+        <v>7.635184822620903</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.1395350738571495</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.9332230794585188</v>
       </c>
       <c r="H24" t="n">
-        <v>6.162948071412645</v>
+        <v>9.012970267402013</v>
       </c>
       <c r="I24" t="n">
-        <v>21.97054603114862</v>
+        <v>32.13070690240954</v>
       </c>
       <c r="J24" t="n">
-        <v>60.28885758687547</v>
+        <v>88.16911559042086</v>
       </c>
       <c r="K24" t="n">
-        <v>103.0432602839234</v>
+        <v>150.6950619141416</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>202.6281076692718</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>236.4574442996431</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>230.9912254637299</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>222.0375104885363</v>
       </c>
       <c r="P24" t="n">
-        <v>121.8539660005285</v>
+        <v>178.2046773397587</v>
       </c>
       <c r="Q24" t="n">
-        <v>81.45614925994261</v>
+        <v>119.1251074761436</v>
       </c>
       <c r="R24" t="n">
-        <v>39.61975154355923</v>
+        <v>57.9416926000649</v>
       </c>
       <c r="S24" t="n">
-        <v>11.85289967412921</v>
+        <v>17.33420939257379</v>
       </c>
       <c r="T24" t="n">
-        <v>2.572093223264404</v>
+        <v>3.761543903606923</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.06139625522753415</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.7823828808230031</v>
       </c>
       <c r="H25" t="n">
-        <v>4.756484423007447</v>
+        <v>6.956095067680888</v>
       </c>
       <c r="I25" t="n">
-        <v>16.08839516493725</v>
+        <v>23.52838699784087</v>
       </c>
       <c r="J25" t="n">
-        <v>37.82329177681891</v>
+        <v>55.31446967418632</v>
       </c>
       <c r="K25" t="n">
-        <v>62.15528724543469</v>
+        <v>90.89866560834525</v>
       </c>
       <c r="L25" t="n">
-        <v>79.5373683577339</v>
+        <v>116.3189966634491</v>
       </c>
       <c r="M25" t="n">
-        <v>83.86100297128563</v>
+        <v>122.6420728548276</v>
       </c>
       <c r="N25" t="n">
-        <v>81.86697575918646</v>
+        <v>119.7259184808511</v>
       </c>
       <c r="O25" t="n">
-        <v>75.61740266760712</v>
+        <v>110.5862639185096</v>
       </c>
       <c r="P25" t="n">
-        <v>64.7037512921176</v>
+        <v>94.62565314972026</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.79752353816112</v>
+        <v>65.51389741146075</v>
       </c>
       <c r="R25" t="n">
-        <v>24.05477705132394</v>
+        <v>35.17877935045975</v>
       </c>
       <c r="S25" t="n">
-        <v>9.323293086815202</v>
+        <v>13.63479984125179</v>
       </c>
       <c r="T25" t="n">
-        <v>2.28583607240644</v>
+        <v>3.342908672607376</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.04267542986307295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.192652628391256</v>
+        <v>1.744188423214369</v>
       </c>
       <c r="H26" t="n">
-        <v>12.21425373051196</v>
+        <v>17.86266968924416</v>
       </c>
       <c r="I26" t="n">
-        <v>45.97974045605396</v>
+        <v>67.24282418597201</v>
       </c>
       <c r="J26" t="n">
-        <v>101.2249010189225</v>
+        <v>148.0358121847906</v>
       </c>
       <c r="K26" t="n">
-        <v>151.7098867787244</v>
+        <v>221.8673081394549</v>
       </c>
       <c r="L26" t="n">
-        <v>188.2095296548534</v>
+        <v>275.2460145964017</v>
       </c>
       <c r="M26" t="n">
-        <v>209.4193658350064</v>
+        <v>306.2642254677402</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8079901154231</v>
+        <v>311.2199008251981</v>
       </c>
       <c r="O26" t="n">
-        <v>200.9485505418575</v>
+        <v>293.8761271918602</v>
       </c>
       <c r="P26" t="n">
-        <v>171.5049387784483</v>
+        <v>250.8164754937554</v>
       </c>
       <c r="Q26" t="n">
-        <v>128.7930665241864</v>
+        <v>188.3527275873908</v>
       </c>
       <c r="R26" t="n">
-        <v>74.91796566818233</v>
+        <v>109.5633760397397</v>
       </c>
       <c r="S26" t="n">
-        <v>27.17757176946579</v>
+        <v>39.74569369399747</v>
       </c>
       <c r="T26" t="n">
-        <v>5.220836880782728</v>
+        <v>7.635184822620903</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.1395350738571495</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.9332230794585188</v>
       </c>
       <c r="H27" t="n">
-        <v>6.162948071412645</v>
+        <v>9.012970267402013</v>
       </c>
       <c r="I27" t="n">
-        <v>21.97054603114862</v>
+        <v>32.13070690240954</v>
       </c>
       <c r="J27" t="n">
-        <v>60.28885758687547</v>
+        <v>88.16911559042086</v>
       </c>
       <c r="K27" t="n">
-        <v>103.0432602839234</v>
+        <v>150.6950619141416</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>202.6281076692718</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>236.4574442996431</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>230.99122546373</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>222.0375104885363</v>
       </c>
       <c r="P27" t="n">
-        <v>121.8539660005285</v>
+        <v>178.2046773397587</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.45614925994261</v>
+        <v>119.1251074761436</v>
       </c>
       <c r="R27" t="n">
-        <v>39.61975154355923</v>
+        <v>57.9416926000649</v>
       </c>
       <c r="S27" t="n">
-        <v>11.85289967412921</v>
+        <v>17.33420939257379</v>
       </c>
       <c r="T27" t="n">
-        <v>2.572093223264404</v>
+        <v>3.761543903606923</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.06139625522753415</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.7823828808230031</v>
       </c>
       <c r="H28" t="n">
-        <v>4.756484423007447</v>
+        <v>6.956095067680888</v>
       </c>
       <c r="I28" t="n">
-        <v>16.08839516493725</v>
+        <v>23.52838699784087</v>
       </c>
       <c r="J28" t="n">
-        <v>37.82329177681891</v>
+        <v>55.31446967418632</v>
       </c>
       <c r="K28" t="n">
-        <v>62.15528724543469</v>
+        <v>90.89866560834525</v>
       </c>
       <c r="L28" t="n">
-        <v>79.5373683577339</v>
+        <v>116.3189966634491</v>
       </c>
       <c r="M28" t="n">
-        <v>83.86100297128563</v>
+        <v>122.6420728548276</v>
       </c>
       <c r="N28" t="n">
-        <v>81.86697575918646</v>
+        <v>119.7259184808511</v>
       </c>
       <c r="O28" t="n">
-        <v>75.61740266760712</v>
+        <v>110.5862639185096</v>
       </c>
       <c r="P28" t="n">
-        <v>64.7037512921176</v>
+        <v>94.62565314972026</v>
       </c>
       <c r="Q28" t="n">
-        <v>44.79752353816112</v>
+        <v>65.51389741146075</v>
       </c>
       <c r="R28" t="n">
-        <v>24.05477705132394</v>
+        <v>35.17877935045975</v>
       </c>
       <c r="S28" t="n">
-        <v>9.323293086815202</v>
+        <v>13.63479984125179</v>
       </c>
       <c r="T28" t="n">
-        <v>2.28583607240644</v>
+        <v>3.342908672607376</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.04267542986307295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.192652628391256</v>
+        <v>1.744188423214369</v>
       </c>
       <c r="H29" t="n">
-        <v>12.21425373051196</v>
+        <v>17.86266968924416</v>
       </c>
       <c r="I29" t="n">
-        <v>45.97974045605395</v>
+        <v>67.24282418597201</v>
       </c>
       <c r="J29" t="n">
-        <v>101.2249010189225</v>
+        <v>148.0358121847906</v>
       </c>
       <c r="K29" t="n">
-        <v>151.7098867787244</v>
+        <v>221.8673081394549</v>
       </c>
       <c r="L29" t="n">
-        <v>188.2095296548534</v>
+        <v>275.2460145964017</v>
       </c>
       <c r="M29" t="n">
-        <v>209.4193658350063</v>
+        <v>306.2642254677402</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8079901154231</v>
+        <v>311.2199008251981</v>
       </c>
       <c r="O29" t="n">
-        <v>200.9485505418575</v>
+        <v>293.8761271918602</v>
       </c>
       <c r="P29" t="n">
-        <v>171.5049387784483</v>
+        <v>250.8164754937554</v>
       </c>
       <c r="Q29" t="n">
-        <v>128.7930665241864</v>
+        <v>188.3527275873908</v>
       </c>
       <c r="R29" t="n">
-        <v>74.91796566818232</v>
+        <v>109.5633760397397</v>
       </c>
       <c r="S29" t="n">
-        <v>27.17757176946578</v>
+        <v>39.74569369399747</v>
       </c>
       <c r="T29" t="n">
-        <v>5.220836880782727</v>
+        <v>7.635184822620903</v>
       </c>
       <c r="U29" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.1395350738571495</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.638125413388775</v>
+        <v>0.9332230794585188</v>
       </c>
       <c r="H30" t="n">
-        <v>6.162948071412645</v>
+        <v>9.012970267402013</v>
       </c>
       <c r="I30" t="n">
-        <v>21.97054603114862</v>
+        <v>32.13070690240954</v>
       </c>
       <c r="J30" t="n">
-        <v>60.28885758687547</v>
+        <v>88.16911559042086</v>
       </c>
       <c r="K30" t="n">
-        <v>103.0432602839234</v>
+        <v>150.6950619141416</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>202.6281076692718</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>236.4574442996431</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>230.9912254637299</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>222.0375104885363</v>
       </c>
       <c r="P30" t="n">
-        <v>121.8539660005285</v>
+        <v>178.2046773397587</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.45614925994261</v>
+        <v>119.1251074761436</v>
       </c>
       <c r="R30" t="n">
-        <v>39.61975154355923</v>
+        <v>57.9416926000649</v>
       </c>
       <c r="S30" t="n">
-        <v>11.85289967412921</v>
+        <v>17.33420939257379</v>
       </c>
       <c r="T30" t="n">
-        <v>2.572093223264404</v>
+        <v>3.761543903606923</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.06139625522753415</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.7823828808230031</v>
       </c>
       <c r="H31" t="n">
-        <v>4.756484423007447</v>
+        <v>6.956095067680888</v>
       </c>
       <c r="I31" t="n">
-        <v>16.08839516493725</v>
+        <v>23.52838699784087</v>
       </c>
       <c r="J31" t="n">
-        <v>37.82329177681891</v>
+        <v>55.31446967418632</v>
       </c>
       <c r="K31" t="n">
-        <v>62.15528724543468</v>
+        <v>90.89866560834525</v>
       </c>
       <c r="L31" t="n">
-        <v>79.5373683577339</v>
+        <v>116.3189966634491</v>
       </c>
       <c r="M31" t="n">
-        <v>83.86100297128563</v>
+        <v>122.6420728548276</v>
       </c>
       <c r="N31" t="n">
-        <v>81.86697575918646</v>
+        <v>119.7259184808511</v>
       </c>
       <c r="O31" t="n">
-        <v>75.61740266760712</v>
+        <v>110.5862639185096</v>
       </c>
       <c r="P31" t="n">
-        <v>64.70375129211759</v>
+        <v>94.62565314972026</v>
       </c>
       <c r="Q31" t="n">
-        <v>44.79752353816112</v>
+        <v>65.51389741146075</v>
       </c>
       <c r="R31" t="n">
-        <v>24.05477705132394</v>
+        <v>35.17877935045975</v>
       </c>
       <c r="S31" t="n">
-        <v>9.3232930868152</v>
+        <v>13.63479984125179</v>
       </c>
       <c r="T31" t="n">
-        <v>2.28583607240644</v>
+        <v>3.342908672607376</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.04267542986307295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.192652628391256</v>
+        <v>1.744188423214369</v>
       </c>
       <c r="H32" t="n">
-        <v>12.21425373051196</v>
+        <v>17.86266968924416</v>
       </c>
       <c r="I32" t="n">
-        <v>45.97974045605396</v>
+        <v>67.24282418597201</v>
       </c>
       <c r="J32" t="n">
-        <v>101.2249010189225</v>
+        <v>148.0358121847906</v>
       </c>
       <c r="K32" t="n">
-        <v>151.7098867787244</v>
+        <v>221.8673081394549</v>
       </c>
       <c r="L32" t="n">
-        <v>188.2095296548534</v>
+        <v>275.2460145964017</v>
       </c>
       <c r="M32" t="n">
-        <v>209.4193658350064</v>
+        <v>306.2642254677402</v>
       </c>
       <c r="N32" t="n">
-        <v>212.8079901154231</v>
+        <v>311.2199008251981</v>
       </c>
       <c r="O32" t="n">
-        <v>200.9485505418575</v>
+        <v>293.8761271918602</v>
       </c>
       <c r="P32" t="n">
-        <v>171.5049387784483</v>
+        <v>250.8164754937554</v>
       </c>
       <c r="Q32" t="n">
-        <v>128.7930665241864</v>
+        <v>188.3527275873908</v>
       </c>
       <c r="R32" t="n">
-        <v>74.91796566818233</v>
+        <v>109.5633760397397</v>
       </c>
       <c r="S32" t="n">
-        <v>27.17757176946579</v>
+        <v>39.74569369399747</v>
       </c>
       <c r="T32" t="n">
-        <v>5.220836880782728</v>
+        <v>7.635184822620903</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.1395350738571495</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.9332230794585188</v>
       </c>
       <c r="H33" t="n">
-        <v>6.162948071412645</v>
+        <v>9.012970267402013</v>
       </c>
       <c r="I33" t="n">
-        <v>21.97054603114862</v>
+        <v>32.13070690240954</v>
       </c>
       <c r="J33" t="n">
-        <v>60.28885758687547</v>
+        <v>88.16911559042086</v>
       </c>
       <c r="K33" t="n">
-        <v>103.0432602839234</v>
+        <v>150.6950619141416</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>202.6281076692718</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>236.4574442996431</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>230.9912254637299</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>222.0375104885363</v>
       </c>
       <c r="P33" t="n">
-        <v>121.8539660005285</v>
+        <v>178.2046773397587</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.45614925994261</v>
+        <v>119.1251074761436</v>
       </c>
       <c r="R33" t="n">
-        <v>39.61975154355923</v>
+        <v>57.9416926000649</v>
       </c>
       <c r="S33" t="n">
-        <v>11.85289967412921</v>
+        <v>17.33420939257379</v>
       </c>
       <c r="T33" t="n">
-        <v>2.572093223264404</v>
+        <v>3.761543903606923</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.06139625522753415</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.7823828808230031</v>
       </c>
       <c r="H34" t="n">
-        <v>4.756484423007447</v>
+        <v>6.956095067680888</v>
       </c>
       <c r="I34" t="n">
-        <v>16.08839516493725</v>
+        <v>23.52838699784087</v>
       </c>
       <c r="J34" t="n">
-        <v>37.82329177681891</v>
+        <v>55.31446967418632</v>
       </c>
       <c r="K34" t="n">
-        <v>62.15528724543469</v>
+        <v>90.89866560834525</v>
       </c>
       <c r="L34" t="n">
-        <v>79.5373683577339</v>
+        <v>116.3189966634491</v>
       </c>
       <c r="M34" t="n">
-        <v>83.86100297128563</v>
+        <v>122.6420728548276</v>
       </c>
       <c r="N34" t="n">
-        <v>81.86697575918646</v>
+        <v>119.7259184808511</v>
       </c>
       <c r="O34" t="n">
-        <v>75.61740266760712</v>
+        <v>110.5862639185096</v>
       </c>
       <c r="P34" t="n">
-        <v>64.7037512921176</v>
+        <v>94.62565314972026</v>
       </c>
       <c r="Q34" t="n">
-        <v>44.79752353816112</v>
+        <v>65.51389741146075</v>
       </c>
       <c r="R34" t="n">
-        <v>24.05477705132394</v>
+        <v>35.17877935045975</v>
       </c>
       <c r="S34" t="n">
-        <v>9.323293086815202</v>
+        <v>13.63479984125179</v>
       </c>
       <c r="T34" t="n">
-        <v>2.28583607240644</v>
+        <v>3.342908672607376</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.04267542986307295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.192652628391256</v>
+        <v>1.744188423214369</v>
       </c>
       <c r="H35" t="n">
-        <v>12.21425373051196</v>
+        <v>17.86266968924416</v>
       </c>
       <c r="I35" t="n">
-        <v>45.97974045605396</v>
+        <v>67.24282418597201</v>
       </c>
       <c r="J35" t="n">
-        <v>101.2249010189225</v>
+        <v>148.0358121847906</v>
       </c>
       <c r="K35" t="n">
-        <v>151.7098867787244</v>
+        <v>221.8673081394549</v>
       </c>
       <c r="L35" t="n">
-        <v>188.2095296548534</v>
+        <v>275.2460145964017</v>
       </c>
       <c r="M35" t="n">
-        <v>209.4193658350064</v>
+        <v>306.2642254677402</v>
       </c>
       <c r="N35" t="n">
-        <v>212.8079901154231</v>
+        <v>311.2199008251981</v>
       </c>
       <c r="O35" t="n">
-        <v>200.9485505418575</v>
+        <v>293.8761271918602</v>
       </c>
       <c r="P35" t="n">
-        <v>171.5049387784483</v>
+        <v>250.8164754937554</v>
       </c>
       <c r="Q35" t="n">
-        <v>128.7930665241864</v>
+        <v>188.3527275873908</v>
       </c>
       <c r="R35" t="n">
-        <v>74.91796566818233</v>
+        <v>109.5633760397397</v>
       </c>
       <c r="S35" t="n">
-        <v>27.17757176946579</v>
+        <v>39.74569369399747</v>
       </c>
       <c r="T35" t="n">
-        <v>5.220836880782728</v>
+        <v>7.635184822620903</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.1395350738571495</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.9332230794585188</v>
       </c>
       <c r="H36" t="n">
-        <v>6.162948071412645</v>
+        <v>9.012970267402013</v>
       </c>
       <c r="I36" t="n">
-        <v>21.97054603114862</v>
+        <v>32.13070690240954</v>
       </c>
       <c r="J36" t="n">
-        <v>60.28885758687547</v>
+        <v>88.16911559042086</v>
       </c>
       <c r="K36" t="n">
-        <v>103.0432602839234</v>
+        <v>150.6950619141416</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>202.6281076692718</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>236.4574442996431</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>230.9912254637299</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>222.0375104885363</v>
       </c>
       <c r="P36" t="n">
-        <v>121.8539660005285</v>
+        <v>178.2046773397587</v>
       </c>
       <c r="Q36" t="n">
-        <v>81.45614925994261</v>
+        <v>119.1251074761436</v>
       </c>
       <c r="R36" t="n">
-        <v>39.61975154355923</v>
+        <v>57.9416926000649</v>
       </c>
       <c r="S36" t="n">
-        <v>11.85289967412921</v>
+        <v>17.33420939257379</v>
       </c>
       <c r="T36" t="n">
-        <v>2.572093223264404</v>
+        <v>3.761543903606923</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.06139625522753415</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.7823828808230031</v>
       </c>
       <c r="H37" t="n">
-        <v>4.756484423007447</v>
+        <v>6.956095067680888</v>
       </c>
       <c r="I37" t="n">
-        <v>16.08839516493725</v>
+        <v>23.52838699784087</v>
       </c>
       <c r="J37" t="n">
-        <v>37.82329177681891</v>
+        <v>55.31446967418632</v>
       </c>
       <c r="K37" t="n">
-        <v>62.15528724543469</v>
+        <v>90.89866560834525</v>
       </c>
       <c r="L37" t="n">
-        <v>79.5373683577339</v>
+        <v>116.3189966634491</v>
       </c>
       <c r="M37" t="n">
-        <v>83.86100297128563</v>
+        <v>122.6420728548276</v>
       </c>
       <c r="N37" t="n">
-        <v>81.86697575918646</v>
+        <v>119.7259184808511</v>
       </c>
       <c r="O37" t="n">
-        <v>75.61740266760712</v>
+        <v>110.5862639185096</v>
       </c>
       <c r="P37" t="n">
-        <v>64.7037512921176</v>
+        <v>94.62565314972026</v>
       </c>
       <c r="Q37" t="n">
-        <v>44.79752353816112</v>
+        <v>65.51389741146075</v>
       </c>
       <c r="R37" t="n">
-        <v>24.05477705132394</v>
+        <v>35.17877935045975</v>
       </c>
       <c r="S37" t="n">
-        <v>9.323293086815202</v>
+        <v>13.63479984125179</v>
       </c>
       <c r="T37" t="n">
-        <v>2.28583607240644</v>
+        <v>3.342908672607376</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.04267542986307295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.192652628391256</v>
+        <v>1.744188423214369</v>
       </c>
       <c r="H38" t="n">
-        <v>12.21425373051196</v>
+        <v>17.86266968924416</v>
       </c>
       <c r="I38" t="n">
-        <v>45.97974045605396</v>
+        <v>67.24282418597201</v>
       </c>
       <c r="J38" t="n">
-        <v>101.2249010189225</v>
+        <v>148.0358121847906</v>
       </c>
       <c r="K38" t="n">
-        <v>151.7098867787244</v>
+        <v>221.8673081394549</v>
       </c>
       <c r="L38" t="n">
-        <v>188.2095296548534</v>
+        <v>275.2460145964017</v>
       </c>
       <c r="M38" t="n">
-        <v>209.4193658350064</v>
+        <v>306.2642254677402</v>
       </c>
       <c r="N38" t="n">
-        <v>212.8079901154231</v>
+        <v>311.2199008251981</v>
       </c>
       <c r="O38" t="n">
-        <v>200.9485505418575</v>
+        <v>293.8761271918602</v>
       </c>
       <c r="P38" t="n">
-        <v>171.5049387784483</v>
+        <v>250.8164754937554</v>
       </c>
       <c r="Q38" t="n">
-        <v>128.7930665241864</v>
+        <v>188.3527275873908</v>
       </c>
       <c r="R38" t="n">
-        <v>74.91796566818233</v>
+        <v>109.5633760397397</v>
       </c>
       <c r="S38" t="n">
-        <v>27.17757176946579</v>
+        <v>39.74569369399747</v>
       </c>
       <c r="T38" t="n">
-        <v>5.220836880782728</v>
+        <v>7.635184822620903</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.1395350738571495</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.9332230794585188</v>
       </c>
       <c r="H39" t="n">
-        <v>6.162948071412645</v>
+        <v>9.012970267402013</v>
       </c>
       <c r="I39" t="n">
-        <v>21.97054603114862</v>
+        <v>32.13070690240954</v>
       </c>
       <c r="J39" t="n">
-        <v>60.28885758687547</v>
+        <v>88.16911559042086</v>
       </c>
       <c r="K39" t="n">
-        <v>103.0432602839234</v>
+        <v>150.6950619141416</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>202.6281076692718</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>236.4574442996431</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>230.9912254637299</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>222.0375104885363</v>
       </c>
       <c r="P39" t="n">
-        <v>121.8539660005285</v>
+        <v>178.2046773397587</v>
       </c>
       <c r="Q39" t="n">
-        <v>81.45614925994261</v>
+        <v>119.1251074761436</v>
       </c>
       <c r="R39" t="n">
-        <v>39.61975154355923</v>
+        <v>57.9416926000649</v>
       </c>
       <c r="S39" t="n">
-        <v>11.85289967412921</v>
+        <v>17.33420939257379</v>
       </c>
       <c r="T39" t="n">
-        <v>2.572093223264404</v>
+        <v>3.761543903606923</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.06139625522753415</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.7823828808230031</v>
       </c>
       <c r="H40" t="n">
-        <v>4.756484423007447</v>
+        <v>6.956095067680888</v>
       </c>
       <c r="I40" t="n">
-        <v>16.08839516493725</v>
+        <v>23.52838699784087</v>
       </c>
       <c r="J40" t="n">
-        <v>37.82329177681891</v>
+        <v>55.31446967418632</v>
       </c>
       <c r="K40" t="n">
-        <v>62.15528724543469</v>
+        <v>90.89866560834525</v>
       </c>
       <c r="L40" t="n">
-        <v>79.5373683577339</v>
+        <v>116.3189966634491</v>
       </c>
       <c r="M40" t="n">
-        <v>83.86100297128563</v>
+        <v>122.6420728548276</v>
       </c>
       <c r="N40" t="n">
-        <v>81.86697575918646</v>
+        <v>119.7259184808511</v>
       </c>
       <c r="O40" t="n">
-        <v>75.61740266760712</v>
+        <v>110.5862639185096</v>
       </c>
       <c r="P40" t="n">
-        <v>64.7037512921176</v>
+        <v>94.62565314972026</v>
       </c>
       <c r="Q40" t="n">
-        <v>44.79752353816112</v>
+        <v>65.51389741146075</v>
       </c>
       <c r="R40" t="n">
-        <v>24.05477705132394</v>
+        <v>35.17877935045975</v>
       </c>
       <c r="S40" t="n">
-        <v>9.323293086815202</v>
+        <v>13.63479984125179</v>
       </c>
       <c r="T40" t="n">
-        <v>2.28583607240644</v>
+        <v>3.342908672607376</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.04267542986307295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.192652628391256</v>
+        <v>1.744188423214369</v>
       </c>
       <c r="H41" t="n">
-        <v>12.21425373051196</v>
+        <v>17.86266968924416</v>
       </c>
       <c r="I41" t="n">
-        <v>45.97974045605396</v>
+        <v>67.24282418597201</v>
       </c>
       <c r="J41" t="n">
-        <v>101.2249010189225</v>
+        <v>148.0358121847906</v>
       </c>
       <c r="K41" t="n">
-        <v>151.7098867787244</v>
+        <v>221.8673081394549</v>
       </c>
       <c r="L41" t="n">
-        <v>188.2095296548534</v>
+        <v>275.2460145964017</v>
       </c>
       <c r="M41" t="n">
-        <v>209.4193658350064</v>
+        <v>306.2642254677402</v>
       </c>
       <c r="N41" t="n">
-        <v>212.8079901154231</v>
+        <v>311.2199008251981</v>
       </c>
       <c r="O41" t="n">
-        <v>200.9485505418575</v>
+        <v>293.8761271918602</v>
       </c>
       <c r="P41" t="n">
-        <v>171.5049387784483</v>
+        <v>250.8164754937554</v>
       </c>
       <c r="Q41" t="n">
-        <v>128.7930665241864</v>
+        <v>188.3527275873908</v>
       </c>
       <c r="R41" t="n">
-        <v>74.91796566818233</v>
+        <v>109.5633760397397</v>
       </c>
       <c r="S41" t="n">
-        <v>27.17757176946579</v>
+        <v>39.74569369399747</v>
       </c>
       <c r="T41" t="n">
-        <v>5.220836880782728</v>
+        <v>7.635184822620903</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.1395350738571495</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.9332230794585188</v>
       </c>
       <c r="H42" t="n">
-        <v>6.162948071412645</v>
+        <v>9.012970267402013</v>
       </c>
       <c r="I42" t="n">
-        <v>21.97054603114862</v>
+        <v>32.13070690240954</v>
       </c>
       <c r="J42" t="n">
-        <v>60.28885758687547</v>
+        <v>88.16911559042086</v>
       </c>
       <c r="K42" t="n">
-        <v>103.0432602839234</v>
+        <v>150.6950619141416</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>202.6281076692718</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>236.4574442996431</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>230.9912254637299</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>222.0375104885363</v>
       </c>
       <c r="P42" t="n">
-        <v>121.8539660005285</v>
+        <v>178.2046773397587</v>
       </c>
       <c r="Q42" t="n">
-        <v>81.45614925994261</v>
+        <v>119.1251074761436</v>
       </c>
       <c r="R42" t="n">
-        <v>39.61975154355923</v>
+        <v>57.9416926000649</v>
       </c>
       <c r="S42" t="n">
-        <v>11.85289967412921</v>
+        <v>17.33420939257379</v>
       </c>
       <c r="T42" t="n">
-        <v>2.572093223264404</v>
+        <v>3.761543903606923</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.06139625522753415</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.7823828808230031</v>
       </c>
       <c r="H43" t="n">
-        <v>4.756484423007447</v>
+        <v>6.956095067680888</v>
       </c>
       <c r="I43" t="n">
-        <v>16.08839516493725</v>
+        <v>23.52838699784087</v>
       </c>
       <c r="J43" t="n">
-        <v>37.82329177681891</v>
+        <v>55.31446967418632</v>
       </c>
       <c r="K43" t="n">
-        <v>62.15528724543469</v>
+        <v>90.89866560834525</v>
       </c>
       <c r="L43" t="n">
-        <v>79.5373683577339</v>
+        <v>116.3189966634491</v>
       </c>
       <c r="M43" t="n">
-        <v>83.86100297128563</v>
+        <v>122.6420728548276</v>
       </c>
       <c r="N43" t="n">
-        <v>81.86697575918646</v>
+        <v>119.7259184808511</v>
       </c>
       <c r="O43" t="n">
-        <v>75.61740266760712</v>
+        <v>110.5862639185096</v>
       </c>
       <c r="P43" t="n">
-        <v>64.7037512921176</v>
+        <v>94.62565314972026</v>
       </c>
       <c r="Q43" t="n">
-        <v>44.79752353816112</v>
+        <v>65.51389741146075</v>
       </c>
       <c r="R43" t="n">
-        <v>24.05477705132394</v>
+        <v>35.17877935045975</v>
       </c>
       <c r="S43" t="n">
-        <v>9.323293086815202</v>
+        <v>13.63479984125179</v>
       </c>
       <c r="T43" t="n">
-        <v>2.28583607240644</v>
+        <v>3.342908672607376</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.04267542986307295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.311282138647576</v>
+        <v>1.744188423214369</v>
       </c>
       <c r="H44" t="n">
-        <v>13.42916820242449</v>
+        <v>17.86266968924416</v>
       </c>
       <c r="I44" t="n">
-        <v>50.55320465021072</v>
+        <v>67.24282418597201</v>
       </c>
       <c r="J44" t="n">
-        <v>111.2934324150398</v>
+        <v>148.0358121847906</v>
       </c>
       <c r="K44" t="n">
-        <v>166.8000053439917</v>
+        <v>221.8673081394549</v>
       </c>
       <c r="L44" t="n">
-        <v>206.9301560946275</v>
+        <v>275.2460145964017</v>
       </c>
       <c r="M44" t="n">
-        <v>230.2496698278014</v>
+        <v>306.2642254677402</v>
       </c>
       <c r="N44" t="n">
-        <v>233.9753502042338</v>
+        <v>311.2199008251981</v>
       </c>
       <c r="O44" t="n">
-        <v>220.9362884380569</v>
+        <v>293.8761271918602</v>
       </c>
       <c r="P44" t="n">
-        <v>188.5640106401949</v>
+        <v>250.8164754937554</v>
       </c>
       <c r="Q44" t="n">
-        <v>141.6037190498785</v>
+        <v>188.3527275873908</v>
       </c>
       <c r="R44" t="n">
-        <v>82.36982664182088</v>
+        <v>109.5633760397397</v>
       </c>
       <c r="S44" t="n">
-        <v>29.88084173443167</v>
+        <v>39.74569369399747</v>
       </c>
       <c r="T44" t="n">
-        <v>5.740137561929767</v>
+        <v>7.635184822620903</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1395350738571495</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.701597797107522</v>
+        <v>0.9332230794585188</v>
       </c>
       <c r="H45" t="n">
-        <v>6.775957672064753</v>
+        <v>9.012970267402013</v>
       </c>
       <c r="I45" t="n">
-        <v>24.15588906707916</v>
+        <v>32.13070690240954</v>
       </c>
       <c r="J45" t="n">
-        <v>66.28560591005761</v>
+        <v>88.16911559042086</v>
       </c>
       <c r="K45" t="n">
-        <v>113.2926583162616</v>
+        <v>150.6950619141416</v>
       </c>
       <c r="L45" t="n">
-        <v>143.1166663875171</v>
+        <v>202.6281076692718</v>
       </c>
       <c r="M45" t="n">
-        <v>146.5119857172312</v>
+        <v>236.4574442996431</v>
       </c>
       <c r="N45" t="n">
-        <v>135.9039986909762</v>
+        <v>230.9912254637299</v>
       </c>
       <c r="O45" t="n">
-        <v>147.1585310520873</v>
+        <v>222.0375104885363</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>178.2046773397587</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.55834336411107</v>
+        <v>119.1251074761436</v>
       </c>
       <c r="R45" t="n">
-        <v>43.56060708707933</v>
+        <v>57.9416926000649</v>
       </c>
       <c r="S45" t="n">
-        <v>13.03187136294015</v>
+        <v>17.33420939257379</v>
       </c>
       <c r="T45" t="n">
-        <v>2.827931471674616</v>
+        <v>3.761543903606923</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.06139625522753415</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.7823828808230031</v>
       </c>
       <c r="H46" t="n">
-        <v>5.229597384997313</v>
+        <v>6.956095067680888</v>
       </c>
       <c r="I46" t="n">
-        <v>17.68865863964326</v>
+        <v>23.52838699784087</v>
       </c>
       <c r="J46" t="n">
-        <v>41.58545896024957</v>
+        <v>55.31446967418632</v>
       </c>
       <c r="K46" t="n">
-        <v>68.33768361990347</v>
+        <v>90.89866560834525</v>
       </c>
       <c r="L46" t="n">
-        <v>87.44870719248058</v>
+        <v>116.3189966634491</v>
       </c>
       <c r="M46" t="n">
-        <v>92.20240052096993</v>
+        <v>122.6420728548276</v>
       </c>
       <c r="N46" t="n">
-        <v>90.01003351907953</v>
+        <v>119.7259184808511</v>
       </c>
       <c r="O46" t="n">
-        <v>83.13883450095931</v>
+        <v>110.5862639185096</v>
       </c>
       <c r="P46" t="n">
-        <v>71.13963559305131</v>
+        <v>94.62565314972026</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.2533962302763</v>
+        <v>65.51389741146075</v>
       </c>
       <c r="R46" t="n">
-        <v>26.44743217402524</v>
+        <v>35.17877935045975</v>
       </c>
       <c r="S46" t="n">
-        <v>10.25065254298552</v>
+        <v>13.63479984125179</v>
       </c>
       <c r="T46" t="n">
-        <v>2.513201197289095</v>
+        <v>3.342908672607376</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.04267542986307295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35892,19 +35892,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>14.36185758280976</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>13.78158050875684</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>14.36185758280976</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>14.36185758280976</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>13.78158050875686</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>14.36185758280976</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>14.36185758280976</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>14.36185758280976</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36050,16 +36050,16 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>14.36185758280976</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>14.36185758280976</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>13.78158050875684</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>14.36185758280976</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36129,16 +36129,16 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>14.36185758280988</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>13.78158050875695</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>14.36185758280988</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>14.36185758280988</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>13.78158050875686</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>14.36185758280988</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>14.36185758280988</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>14.36185758280988</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36281,19 +36281,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>14.36185758280988</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>14.36185758280988</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>13.78158050875695</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>14.36185758280988</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.777457094474386</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>81.80683722860715</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>92.10500973436127</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>19.58347973848586</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>12.85362293978261</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>64.07372788939765</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>94.32341037762475</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>79.44126604409183</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>44.2302699254285</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>68.6291737824624</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>34.73939759885261</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>91.90421241461375</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>52.62541010794687</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1.777457094474386</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>39.47959962641448</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>99.64951338039666</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>81.80683722860715</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>99.64951338039666</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>19.58347973848586</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>12.85362293978261</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>64.07372788939765</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>94.32341037762475</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>99.64951338039666</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>79.44126604409183</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>44.2302699254285</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>68.6291737824624</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>99.64951338039666</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>34.73939759885261</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>99.64951338039666</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>91.90421241461375</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1.777457094474386</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>92.10500973436129</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>81.80683722860715</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>19.58347973848586</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>12.85362293978261</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>64.07372788939765</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>94.32341037762475</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>79.44126604409183</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>44.2302699254285</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36995,19 +36995,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>3.719058000918398</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>91.90421241461375</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37071,25 +37071,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1.777457094474386</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>39.47959962641448</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>75.9179922404675</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>81.80683722860715</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>76.35693124787595</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>19.58347973848586</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>12.85362293978261</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>64.07372788939765</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>94.32341037762475</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>79.44126604409183</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>44.2302699254285</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37232,16 +37232,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>95.62327041553212</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1.777457094474386</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>39.47959962641448</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>88.49700771817001</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>81.80683722860715</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>63.77791577017345</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>19.58347973848586</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>12.85362293978261</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>64.07372788939765</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>94.32341037762475</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>79.44126604409183</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>44.2302699254285</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37469,16 +37469,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>95.62327041553212</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1.777457094474386</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>74.26233358257183</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>19.58347973848586</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>12.85362293978261</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>64.07372788939765</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>94.32341037762475</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>79.44126604409183</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>44.2302699254285</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>68.6291737824624</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>34.73939759885261</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>91.90421241461375</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>14.35647257217684</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>39.47959962641448</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>75.9179922404675</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>81.80683722860715</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>63.77791577017345</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>19.58347973848586</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>12.85362293978261</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>64.07372788939765</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>94.32341037762475</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>79.44126604409183</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>44.2302699254285</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>3.719058000918386</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>91.90421241461375</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>94.38585270630962</v>
       </c>
       <c r="K44" t="n">
-        <v>4.562286607642875</v>
+        <v>1.777457094474386</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>39.47959962641448</v>
       </c>
       <c r="M44" t="n">
-        <v>4.377951795212859</v>
+        <v>75.9179922404675</v>
       </c>
       <c r="N44" t="n">
-        <v>4.562286607642875</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>63.77791577017345</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>19.58347973848586</v>
       </c>
       <c r="Q44" t="n">
-        <v>4.562286607642875</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>12.85362293978261</v>
       </c>
       <c r="L45" t="n">
-        <v>4.562286607642875</v>
+        <v>64.07372788939765</v>
       </c>
       <c r="M45" t="n">
-        <v>4.377951795212859</v>
+        <v>94.32341037762475</v>
       </c>
       <c r="N45" t="n">
-        <v>4.562286607642875</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="O45" t="n">
-        <v>4.562286607642875</v>
+        <v>79.44126604409183</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>44.2302699254285</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>68.6291737824624</v>
       </c>
       <c r="L46" t="n">
-        <v>4.562286607642875</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>99.64951338039661</v>
       </c>
       <c r="N46" t="n">
-        <v>4.377951795212859</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>4.562286607642875</v>
+        <v>34.73939759885261</v>
       </c>
       <c r="P46" t="n">
-        <v>4.562286607642875</v>
+        <v>91.90421241461375</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_8_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_8_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36241.2786100065</v>
+        <v>146098.1368672595</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10514807.65165258</v>
+        <v>10095312.09622575</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20684158.07127586</v>
+        <v>22050385.14120355</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4547087.222984679</v>
+        <v>4047793.676367098</v>
       </c>
     </row>
     <row r="11">
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>12.64992415893883</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>14.36185758280976</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>14.36185758280976</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>14.36185758280976</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>14.36185758280976</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>12.64992415893883</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1982,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>14.36185758280976</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>14.36185758280976</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14.36185758280976</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>12.64992415893883</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>14.36185758280976</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>14.36185758280976</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>14.36185758280988</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>14.36185758280988</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>12.64992415893894</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>14.36185758280988</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.36185758280988</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,13 +2216,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>12.64992415893894</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>14.36185758280988</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>14.36185758280988</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>12.64992415893894</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>14.36185758280988</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>14.36185758280988</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.36185758280988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>87.77129138545334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2408,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>87.77129138545334</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2456,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.64814584023364</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.1231455452197</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>87.77129138545334</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>99.64951338039666</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>99.64951338039666</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>99.64951338039666</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>99.64951338039666</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2687,16 +2687,16 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>99.64951338039666</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>87.77129138545334</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>99.64951338039666</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>99.64951338039666</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>87.77129138545334</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>99.64951338039666</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>99.64951338039666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.30574190141</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>47.46554948404336</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2924,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>87.77129138545334</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>87.77129138545334</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>40.30574190141</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>47.46554948404336</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>42.21614155257823</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>45.5551498328751</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>87.77129138545334</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>40.30574190141</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.46554948404336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3392,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>42.21614155257823</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>45.5551498328751</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>87.77129138545334</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.30574190141</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>47.46554948404336</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>42.21614155257823</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,13 +3638,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>45.5551498328751</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>87.77129138545334</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>47.46554948404336</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.30574190141</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3824,19 +3824,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>87.77129138545334</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>87.77129138545334</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>87.77129138545334</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4061,16 +4061,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>45.5551498328751</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>42.21614155257823</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>87.77129138545334</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>57.44743033123904</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>57.44743033123904</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>57.44743033123904</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>44.66972916059375</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>30.16280230927076</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>15.65587545794777</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.148948606624781</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.148948606624781</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.148948606624781</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.148948606624781</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.148948606624781</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>15.36718761360644</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>29.01095231727572</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>43.22919132425738</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>43.22919132425738</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>57.44743033123904</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>57.44743033123904</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.44743033123904</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>57.44743033123904</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>57.44743033123904</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>57.44743033123904</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>57.44743033123904</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>57.44743033123904</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>57.44743033123904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15.65587545794777</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>15.65587545794777</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.148948606624781</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1.148948606624781</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.148948606624781</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.148948606624781</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1.148948606624781</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.148948606624781</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.148948606624781</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1.148948606624781</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>14.79271331029405</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>29.01095231727572</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>43.22919132425738</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>57.44743033123904</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>57.44743033123904</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.44743033123904</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.66972916059375</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.66972916059375</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>44.66972916059375</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>44.66972916059375</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>30.16280230927076</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>15.65587545794777</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>15.65587545794777</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.65587545794777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.92664977727006</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>13.92664977727006</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.148948606624781</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.148948606624781</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.148948606624781</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.148948606624781</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.148948606624781</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.148948606624781</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.148948606624781</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.148948606624781</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.148948606624781</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>15.36718761360644</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>29.58542662058811</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>43.22919132425738</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>57.44743033123904</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.44743033123904</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.44743033123904</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.44743033123904</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>57.44743033123904</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>42.94050347991605</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>28.43357662859306</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>28.43357662859306</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>28.43357662859306</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>28.43357662859306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30.16280230927101</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>30.16280230927101</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>15.6558754579479</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>15.6558754579479</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>15.6558754579479</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>15.6558754579479</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>15.36718761360657</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>29.01095231727595</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>43.22919132425773</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>57.44743033123951</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>57.44743033123951</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>57.44743033123951</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>57.44743033123951</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>57.44743033123951</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>57.44743033123951</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>44.66972916059412</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>30.16280230927101</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>30.16280230927101</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>30.16280230927101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>14.79271331029408</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>29.01095231727586</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>43.2291913242577</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>57.44743033123951</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>57.44743033123951</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.44743033123951</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>42.9405034799164</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>42.9405034799164</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>42.9405034799164</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>30.16280230927101</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>15.6558754579479</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>15.36718761360657</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>29.58542662058835</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>43.22919132425773</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>43.22919132425773</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>57.44743033123951</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>57.44743033123951</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>44.66972916059412</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>30.16280230927101</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>30.16280230927101</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>30.16280230927101</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>30.16280230927101</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>30.16280230927101</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>30.16280230927101</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>15.6558754579479</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.14894860662479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>9.731643593961371</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>108.384661840554</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>207.0376800871467</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>288.0264489434678</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>379.2104085804854</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>297.9419793999737</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>197.285905278361</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>96.62983115674824</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>96.62983115674824</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>96.62983115674824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>197.285905278361</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>197.285905278361</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>197.285905278361</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>197.285905278361</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>96.62983115674824</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>20.69704778081643</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>84.13003839132</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>177.5102146651686</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>276.1632329117613</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>354.8100862954122</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>297.9419793999737</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>197.285905278361</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>197.285905278361</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>197.285905278361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>75.91484311506952</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>174.5678613616622</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>273.2208796082548</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>307.6128832311189</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>307.6128832311189</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>377.7413405516535</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>309.9401834352699</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>309.9401834352699</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>309.9401834352699</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>309.9401834352699</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>309.9401834352699</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>398.5980535215866</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>309.9401834352701</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>209.2841093136573</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>7.971961070431733</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>7.971961070431733</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>7.971961070431733</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>7.971961070431733</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>60.07111707729914</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>61.83079960082878</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>100.9156032309791</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>199.5686214775718</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>280.5573903338929</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>379.2104085804856</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>398.5980535215866</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>398.5980535215866</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>398.5980535215866</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>398.5980535215866</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>398.5980535215866</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>398.5980535215866</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>398.5980535215866</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>398.5980535215866</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>398.5980535215866</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>398.5980535215866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>7.971961070431733</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>7.971961070431733</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>7.971961070431733</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.971961070431733</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>7.971961070431733</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>20.69704778081648</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>84.13003839132016</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>177.5102146651687</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>276.1632329117614</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>354.8100862954124</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>398.5980535215866</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>398.5980535215866</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>398.5980535215866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>398.5980535215866</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>297.9419793999738</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>209.2841093136573</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>209.2841093136573</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.971961070431733</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>7.971961070431733</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>7.971961070431733</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>7.971961070431733</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>7.971961070431733</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>7.971961070431733</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>7.971961070431733</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>7.971961070431733</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>7.971961070431733</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>75.91484311506952</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>174.5678613616622</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>174.5678613616622</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>208.9598649845263</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>307.612883231119</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>398.5980535215866</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>398.5980535215866</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>398.5980535215866</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>297.9419793999738</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>209.2841093136573</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>209.2841093136573</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>209.2841093136573</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>7.971961070431733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>9.731643593961371</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>108.384661840554</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>199.5686214775717</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>280.5573903338928</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>379.2104085804854</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>357.8851829141016</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>357.8851829141016</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>357.8851829141016</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>257.2291087924889</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>156.5730346708762</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>20.69704778081643</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>84.13003839132008</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>177.5102146651686</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>276.1632329117613</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>354.8100862954122</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>297.9419793999737</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>197.285905278361</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>197.285905278361</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>96.62983115674824</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>106.6249793170244</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>205.277997563617</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>208.9598649845262</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>307.6128832311189</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>309.9401834352699</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>9.731643593961371</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>48.81644722411171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>123.9752595421745</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>204.9640283984956</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>280.5573903338928</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>299.9450352749938</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>357.8851829141016</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>357.8851829141016</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>357.8851829141016</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>257.2291087924889</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>156.5730346708762</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>20.69704778081651</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>84.13003839132018</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>177.5102146651687</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>276.1632329117613</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>354.8100862954122</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>355.9554862967599</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>355.9554862967599</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>255.2994121751472</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>255.2994121751472</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>154.6433380535345</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>53.98726393192173</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>102.6389987818085</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>201.2920170284012</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>299.9450352749938</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>309.9401834352699</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>309.9401834352699</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>9.731643593961371</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>48.81644722411171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>136.4284848651</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>217.4172537214211</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>280.5573903338928</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>299.9450352749938</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>357.8851829141016</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>357.8851829141016</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>357.8851829141016</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>357.8851829141016</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>257.2291087924889</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>156.5730346708762</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>55.91696054926341</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>20.69704778081643</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>84.13003839132</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>177.5102146651686</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>276.1632329117613</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>354.8100862954122</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>355.9554862967599</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>355.9554862967599</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>255.2994121751472</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>154.6433380535345</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>53.98726393192173</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.62983115674824</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>96.62983115674824</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>106.6249793170244</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>201.2920170284012</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>299.9450352749938</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>297.9419793999737</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>197.285905278361</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>96.62983115674824</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>96.62983115674824</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>96.62983115674824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>9.731643593961371</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>108.384661840554</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>207.0376800871467</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>305.6906983337393</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>379.2104085804854</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>357.8851829141016</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>357.8851829141016</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>357.8851829141016</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>357.8851829141016</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>257.2291087924889</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>20.69704778081643</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>84.13003839132008</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>177.5102146651686</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>276.1632329117613</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>354.8100862954122</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>355.9554862967599</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>355.9554862967599</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>355.9554862967599</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>309.9401834352699</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>297.9419793999737</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>197.285905278361</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>197.285905278361</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>75.91484311506952</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>174.5678613616622</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>273.2208796082548</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2208796082548</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>307.6128832311189</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>156.5730346708762</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>156.5730346708762</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>55.91696054926341</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>55.91696054926341</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>55.91696054926341</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>55.91696054926341</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>106.6249793170244</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>120.8378871634795</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>159.9226907936298</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>235.0815031116926</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>316.0702719680137</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>379.2104085804854</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>357.8851829141016</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>357.8851829141016</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>357.8851829141016</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>357.8851829141016</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>257.2291087924889</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>156.5730346708762</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>156.5730346708762</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>156.5730346708762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>297.9419793999737</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>297.9419793999737</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>197.285905278361</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>96.62983115674824</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>20.69704778081643</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>84.13003839132008</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>177.5102146651686</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>276.1632329117613</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>354.8100862954122</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>309.9401834352699</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>309.9401834352699</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>309.9401834352699</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>309.9401834352699</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>11.65382849134093</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>110.3068467379336</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>208.9598649845262</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>208.9598649845262</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>307.6128832311189</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>309.9401834352699</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>309.9401834352699</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>309.9401834352699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>101.4139552496783</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>103.1736377732079</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>142.2584414033582</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>217.417253721421</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>316.0702719680137</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>379.2104085804854</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>309.9401834352699</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>355.9554862967599</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>355.9554862967599</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>255.2994121751472</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>20.69704778081648</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>84.13003839132016</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>177.5102146651686</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>276.1632329117613</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>354.8100862954122</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>355.9554862967599</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>355.9554862967599</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>355.9554862967599</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>355.9554862967599</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>355.9554862967599</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>355.9554862967599</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>355.9554862967599</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>355.9554862967599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>75.91484311506952</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>174.5678613616622</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>273.2208796082548</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2208796082548</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>307.6128832311189</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>398.5980535215865</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>309.9401834352699</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>209.2841093136572</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>108.6280351920445</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.971961070431729</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>69.75247211164648</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K17" t="n">
-        <v>53.28984570098882</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L17" t="n">
-        <v>28.8362588753597</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M17" t="n">
-        <v>14.45842098228112</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N17" t="n">
-        <v>9.219293901113966</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O17" t="n">
-        <v>23.52378056643954</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P17" t="n">
-        <v>42.66898511507466</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q17" t="n">
-        <v>95.06382840738073</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>60.55202075660908</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K18" t="n">
-        <v>24.54878065809741</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.42343072191045</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9324,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>60.67557455063191</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L19" t="n">
-        <v>47.4359690887577</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M19" t="n">
-        <v>61.08524100944489</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N19" t="n">
-        <v>52.03736852896343</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O19" t="n">
-        <v>69.09928445964033</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P19" t="n">
-        <v>80.95022603890607</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>69.75247211164648</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K20" t="n">
-        <v>53.28984570098882</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L20" t="n">
-        <v>28.8362588753597</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M20" t="n">
-        <v>14.45842098228124</v>
+        <v>20.92686739226639</v>
       </c>
       <c r="N20" t="n">
-        <v>9.219293901114073</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O20" t="n">
-        <v>23.52378056643965</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P20" t="n">
-        <v>57.03084269788454</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.70197082457096</v>
+        <v>93.51262335026311</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>60.55202075660908</v>
+        <v>66.54876907979123</v>
       </c>
       <c r="K21" t="n">
-        <v>24.54878065809741</v>
+        <v>34.79817869043561</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>12.12044141380177</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.42343072191045</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9561,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>75.03743213344178</v>
+        <v>66.8579709251007</v>
       </c>
       <c r="L22" t="n">
-        <v>61.79782667156758</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M22" t="n">
-        <v>60.50496393539207</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N22" t="n">
-        <v>37.67551094615366</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O22" t="n">
-        <v>69.67956153369336</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P22" t="n">
-        <v>66.5883684560963</v>
+        <v>73.02425275703003</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>33.01009234189564</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L23" t="n">
-        <v>60.16991375398213</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M23" t="n">
-        <v>23.73152113992911</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O23" t="n">
-        <v>28.32709396418782</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q23" t="n">
-        <v>33.95296228705871</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>38.66851107624584</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.85666660987795</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9798,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L25" t="n">
-        <v>118.2151929981858</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M25" t="n">
-        <v>115.933224473174</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N25" t="n">
-        <v>42.69902358323469</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O25" t="n">
-        <v>27.87027453333317</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>85.63550244984251</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M26" t="n">
-        <v>23.73152113992916</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O26" t="n">
-        <v>35.8715976102232</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q26" t="n">
-        <v>33.95296228705871</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>38.66851107624584</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q27" t="n">
-        <v>20.85666660987795</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10035,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L28" t="n">
-        <v>118.2151929981859</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M28" t="n">
-        <v>16.28371109277741</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N28" t="n">
-        <v>42.69902358323469</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O28" t="n">
-        <v>127.5197879137298</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P28" t="n">
-        <v>135.0065633140411</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>33.01009234189564</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L29" t="n">
-        <v>60.16991375398213</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M29" t="n">
-        <v>16.18701749389379</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O29" t="n">
-        <v>35.87159761022315</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q29" t="n">
-        <v>33.95296228705871</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>38.66851107624584</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.85666660987795</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>38.11459256219013</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L31" t="n">
-        <v>118.2151929981858</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M31" t="n">
-        <v>115.933224473174</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N31" t="n">
-        <v>11.67868398530048</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O31" t="n">
-        <v>127.5197879137298</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>33.01009234189564</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O32" t="n">
-        <v>12.5790154777025</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q32" t="n">
-        <v>133.6024756674553</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>38.66851107624584</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q33" t="n">
-        <v>20.85666660987795</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>38.11459256219013</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L34" t="n">
-        <v>114.1889500333213</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M34" t="n">
-        <v>115.933224473174</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N34" t="n">
-        <v>107.6091393647787</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O34" t="n">
-        <v>127.5197879137298</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P34" t="n">
-        <v>43.10235089942735</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>33.01009234189564</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M35" t="n">
-        <v>12.57901547770251</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q35" t="n">
-        <v>133.6024756674553</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>38.66851107624584</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q36" t="n">
-        <v>20.85666660987795</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>38.11459256219013</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L37" t="n">
-        <v>118.2151929981858</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M37" t="n">
-        <v>111.9069815083095</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N37" t="n">
-        <v>107.6091393647787</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O37" t="n">
-        <v>127.5197879137298</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P37" t="n">
-        <v>43.10235089942735</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>33.01009234189564</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L38" t="n">
-        <v>60.16991375398213</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M38" t="n">
-        <v>23.73152113992911</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N38" t="n">
-        <v>17.84267615178946</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O38" t="n">
-        <v>10.48441781239838</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q38" t="n">
-        <v>33.95296228705871</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>38.66851107624584</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q39" t="n">
-        <v>20.85666660987795</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L40" t="n">
-        <v>118.2151929981858</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M40" t="n">
-        <v>115.933224473174</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N40" t="n">
-        <v>7.959625984382086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O40" t="n">
-        <v>62.60967213218578</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.6596057222923</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K41" t="n">
-        <v>12.57901547770245</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q41" t="n">
-        <v>33.95296228705871</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>38.66851107624584</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q42" t="n">
-        <v>20.85666660987795</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>41.83365056310851</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L43" t="n">
-        <v>118.2151929981859</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M43" t="n">
-        <v>115.933224473174</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N43" t="n">
-        <v>7.959625984382086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O43" t="n">
-        <v>127.5197879137298</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>127.3959450482053</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N44" t="n">
-        <v>17.84267615178948</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q44" t="n">
-        <v>33.95296228705871</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>38.66851107624584</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q45" t="n">
-        <v>20.85666660987795</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L46" t="n">
-        <v>118.2151929981858</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M46" t="n">
-        <v>115.933224473174</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N46" t="n">
-        <v>7.959625984382086</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O46" t="n">
-        <v>62.60967213218578</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>369.2804459133229</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>392.5141881589017</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>399.6295977936777</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H17" t="n">
-        <v>311.6837763305329</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I17" t="n">
-        <v>159.9226849201952</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>67.4992912993288</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S17" t="n">
-        <v>179.1392278518137</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T17" t="n">
-        <v>217.3557120022016</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23816,7 +23816,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>133.083207981829</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23825,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6419193661031</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H18" t="n">
-        <v>105.4594865644317</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I18" t="n">
-        <v>65.24074378433592</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>43.94730290662498</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S18" t="n">
-        <v>158.6512997408977</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T18" t="n">
-        <v>197.336797223147</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V18" t="n">
-        <v>218.4387295666155</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>237.3331255781098</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.4701225991275</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>135.9655488592735</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H19" t="n">
-        <v>156.9975751224423</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I19" t="n">
-        <v>137.761816287615</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J19" t="n">
-        <v>51.77372115642321</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,22 +23934,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>36.90864702141808</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R19" t="n">
-        <v>150.8459592031442</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S19" t="n">
-        <v>213.7659454939867</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4323882309924</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U19" t="n">
-        <v>271.9250883541413</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V19" t="n">
-        <v>237.7757857410182</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23974,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>340.3211840378731</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.9914553764875</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H20" t="n">
-        <v>311.6837763305328</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I20" t="n">
-        <v>159.9226849201952</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>67.4992912993288</v>
+        <v>74.95115227296736</v>
       </c>
       <c r="S20" t="n">
-        <v>179.1392278518137</v>
+        <v>181.8424978167796</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3557120022016</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V20" t="n">
-        <v>315.102334311196</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>334.8791111346031</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24062,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6419193661031</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H21" t="n">
-        <v>105.4594865644317</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I21" t="n">
-        <v>65.24074378433592</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>42.23536948275393</v>
+        <v>60.53808260908391</v>
       </c>
       <c r="S21" t="n">
-        <v>158.6512997408977</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T21" t="n">
-        <v>197.336797223147</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U21" t="n">
-        <v>213.2453001722262</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V21" t="n">
-        <v>218.4387295666154</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>237.3331255781097</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H22" t="n">
-        <v>156.9975751224423</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I22" t="n">
-        <v>137.761816287615</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J22" t="n">
-        <v>51.77372115642321</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>24.25872286247915</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R22" t="n">
-        <v>136.4841016203344</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S22" t="n">
-        <v>213.7659454939867</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4323882309924</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U22" t="n">
-        <v>286.286945936951</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>211.3477978062273</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>204.2227957692849</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.5585490919207</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H23" t="n">
-        <v>321.612132426523</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I23" t="n">
-        <v>143.2330653844339</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>40.30574190141</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S23" t="n">
-        <v>169.2743758922479</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T23" t="n">
-        <v>115.8111513611138</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U23" t="n">
-        <v>151.5566044535827</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V23" t="n">
-        <v>228.1027450897383</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>298.4666472706002</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24296,16 +24296,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>45.41969901298727</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>48.63900269829878</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H24" t="n">
-        <v>103.2224739690945</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I24" t="n">
-        <v>57.26592594900554</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,22 +24332,22 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>42.21614155257823</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S24" t="n">
-        <v>154.348961711264</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T24" t="n">
-        <v>196.4031847912147</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8799858257473</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V24" t="n">
-        <v>133.1510737690286</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>152.045469780523</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.2085964776358</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H25" t="n">
-        <v>155.2710774397587</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I25" t="n">
-        <v>131.9220879294174</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J25" t="n">
-        <v>38.04471044248645</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,31 +24408,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R25" t="n">
-        <v>74.99146648149002</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S25" t="n">
-        <v>210.3817981957205</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T25" t="n">
-        <v>224.6026807556741</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2763539266278</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>186.8734849561944</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>126.0601420086405</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>118.9351399716982</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>277.5016003855542</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>255.0335282402863</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>282.2808566918651</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>307.2265323613148</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.5585490919207</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H26" t="n">
-        <v>321.612132426523</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I26" t="n">
-        <v>143.2330653844339</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>40.30574190141</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S26" t="n">
-        <v>169.2743758922479</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T26" t="n">
-        <v>215.4606647415104</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2061178339793</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24533,16 +24533,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>45.41969901298722</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.4102940837521</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H27" t="n">
-        <v>103.2224739690945</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I27" t="n">
-        <v>57.26592594900554</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>42.21614155257823</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S27" t="n">
-        <v>154.348961711264</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T27" t="n">
-        <v>96.75367141081801</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U27" t="n">
-        <v>138.108694440294</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>152.045469780523</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24615,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.2085964776358</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H28" t="n">
-        <v>155.2710774397587</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I28" t="n">
-        <v>131.9220879294174</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J28" t="n">
-        <v>38.04471044248645</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,31 +24645,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>20.64814584023364</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R28" t="n">
-        <v>142.1146120267097</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S28" t="n">
-        <v>110.7322848153238</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T28" t="n">
-        <v>136.8313893702208</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2763539266278</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>186.8734849561943</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>118.9351399716981</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>313.909035711524</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H29" t="n">
-        <v>321.612132426523</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I29" t="n">
-        <v>143.2330653844339</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S29" t="n">
-        <v>169.2743758922479</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T29" t="n">
-        <v>215.4606647415104</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U29" t="n">
-        <v>151.5566044535827</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V29" t="n">
-        <v>228.1027450897383</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>301.7754192333696</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24773,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.4102940837521</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H30" t="n">
-        <v>103.2224739690945</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I30" t="n">
-        <v>57.26592594900554</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>42.21614155257823</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S30" t="n">
-        <v>154.348961711264</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T30" t="n">
-        <v>96.75367141081806</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U30" t="n">
-        <v>126.2304724453507</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>152.045469780523</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>118.0016938180241</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.18246680154068</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>67.59730771823122</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.2085964776358</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H31" t="n">
-        <v>155.2710774397587</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I31" t="n">
-        <v>131.9220879294174</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J31" t="n">
-        <v>38.04471044248645</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>20.64814584023364</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R31" t="n">
-        <v>142.1146120267097</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S31" t="n">
-        <v>210.3817981957205</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T31" t="n">
-        <v>224.6026807556741</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2763539266278</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>137.9383640035838</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>118.9351399716982</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>313.909035711524</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H32" t="n">
-        <v>321.612132426523</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I32" t="n">
-        <v>143.2330653844339</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S32" t="n">
-        <v>169.2743758922479</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T32" t="n">
-        <v>215.4606647415104</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U32" t="n">
-        <v>151.5566044535827</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V32" t="n">
-        <v>228.1027450897383</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>301.7754192333696</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25010,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.4102940837521</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H33" t="n">
-        <v>103.2224739690945</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I33" t="n">
-        <v>57.26592594900554</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S33" t="n">
-        <v>154.348961711264</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T33" t="n">
-        <v>96.75367141081806</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8799858257473</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V33" t="n">
-        <v>133.1510737690286</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>152.045469780523</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>160.2178353706024</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25080,25 +25080,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>48.96595963781574</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>45.77153464253463</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.2085964776358</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H34" t="n">
-        <v>155.2710774397587</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I34" t="n">
-        <v>131.9220879294174</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J34" t="n">
-        <v>38.04471044248645</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,25 +25119,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.64814584023364</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R34" t="n">
-        <v>142.1146120267097</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S34" t="n">
-        <v>210.3817981957205</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T34" t="n">
-        <v>224.6026807556741</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U34" t="n">
-        <v>198.5050625411745</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>186.8734849561944</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25168,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.5585490919207</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H35" t="n">
-        <v>321.612132426523</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I35" t="n">
-        <v>143.2330653844339</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S35" t="n">
-        <v>169.2743758922479</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T35" t="n">
-        <v>215.4606647415104</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2061178339793</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V35" t="n">
-        <v>228.1027450897383</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>249.5914553370164</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>270.0815872980724</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>338.7723891720102</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25247,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.4102940837521</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H36" t="n">
-        <v>103.2224739690945</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I36" t="n">
-        <v>57.26592594900554</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S36" t="n">
-        <v>154.348961711264</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T36" t="n">
-        <v>96.75367141081806</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U36" t="n">
-        <v>126.2304724453507</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V36" t="n">
-        <v>133.1510737690286</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>206.1398333280445</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>60.84418163275902</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.2085964776358</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H37" t="n">
-        <v>155.2710774397587</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I37" t="n">
-        <v>131.9220879294174</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J37" t="n">
-        <v>38.04471044248645</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,25 +25356,25 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>20.64814584023364</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R37" t="n">
-        <v>142.1146120267097</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S37" t="n">
-        <v>210.3817981957205</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T37" t="n">
-        <v>224.6026807556741</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U37" t="n">
-        <v>186.6268405462312</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V37" t="n">
-        <v>152.4881299434314</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>186.8734849561944</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>313.909035711524</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H38" t="n">
-        <v>221.9626190461263</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I38" t="n">
-        <v>143.2330653844339</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S38" t="n">
-        <v>169.2743758922479</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T38" t="n">
-        <v>215.4606647415104</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2061178339793</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V38" t="n">
-        <v>228.1027450897383</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>301.7754192333696</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>66.88367026947073</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25484,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.4102940837521</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H39" t="n">
-        <v>103.2224739690945</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I39" t="n">
-        <v>57.26592594900554</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S39" t="n">
-        <v>154.348961711264</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T39" t="n">
-        <v>196.4031847912147</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U39" t="n">
-        <v>180.3248359928722</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V39" t="n">
-        <v>133.1510737690286</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>152.045469780523</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.18246680154068</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>67.59730771823122</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>58.66267126111583</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2085964776358</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H40" t="n">
-        <v>55.62156405936209</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I40" t="n">
-        <v>131.9220879294174</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J40" t="n">
-        <v>38.04471044248645</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>20.64814584023364</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R40" t="n">
-        <v>142.1146120267097</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S40" t="n">
-        <v>210.3817981957205</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T40" t="n">
-        <v>224.6026807556741</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2763539266278</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25633,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>255.0335282402863</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.5585490919207</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H41" t="n">
-        <v>274.1465829424796</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I41" t="n">
-        <v>143.2330653844339</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S41" t="n">
-        <v>169.2743758922479</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T41" t="n">
-        <v>215.4606647415104</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2061178339793</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V41" t="n">
-        <v>228.1027450897383</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>249.5914553370164</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25712,22 +25712,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>47.79555218424214</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>45.41969901298727</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>36.76078070335551</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H42" t="n">
-        <v>15.45118258364111</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I42" t="n">
-        <v>57.26592594900554</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>42.21614155257823</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S42" t="n">
-        <v>154.348961711264</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T42" t="n">
-        <v>196.4031847912147</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8799858257473</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25797,19 +25797,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>45.77153464253463</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>67.55908309723914</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H43" t="n">
-        <v>55.62156405936209</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I43" t="n">
-        <v>131.9220879294174</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J43" t="n">
-        <v>38.04471044248645</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>20.64814584023364</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R43" t="n">
-        <v>142.1146120267097</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S43" t="n">
-        <v>210.3817981957205</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T43" t="n">
-        <v>224.6026807556741</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2763539266278</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>198.7517069511377</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25870,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>255.0335282402863</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>313.909035711524</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H44" t="n">
-        <v>321.612132426523</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I44" t="n">
-        <v>143.2330653844339</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.30574190141</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S44" t="n">
-        <v>81.50308450679452</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T44" t="n">
-        <v>115.8111513611138</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2061178339793</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25949,22 +25949,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>47.79555218424214</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>112.0899306225259</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>45.41969901298727</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>36.76078070335551</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H45" t="n">
-        <v>103.2224739690945</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I45" t="n">
-        <v>57.26592594900554</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S45" t="n">
-        <v>154.348961711264</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T45" t="n">
-        <v>196.4031847912147</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8799858257473</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2085964776358</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H46" t="n">
-        <v>155.2710774397587</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I46" t="n">
-        <v>131.9220879294174</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J46" t="n">
-        <v>38.04471044248645</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,25 +26067,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>20.64814584023364</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R46" t="n">
-        <v>142.1146120267097</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S46" t="n">
-        <v>210.3817981957205</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8313893702208</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U46" t="n">
-        <v>186.6268405462312</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V46" t="n">
-        <v>152.4881299434314</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>186.8734849561944</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>363225.8425920433</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>363225.8425920435</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>440193.0447473692</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>440193.0447473692</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>440193.044747369</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>440193.0447473692</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>440193.0447473692</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>440193.0447473691</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>440193.0447473692</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>440193.0447473692</v>
+        <v>350280.6257738412</v>
       </c>
     </row>
   </sheetData>
@@ -26328,34 +26328,34 @@
         <v>77199.09324546649</v>
       </c>
       <c r="G2" t="n">
-        <v>80494.90040968913</v>
+        <v>77199.09324546649</v>
       </c>
       <c r="H2" t="n">
-        <v>80494.90040968923</v>
+        <v>77199.09324546647</v>
       </c>
       <c r="I2" t="n">
-        <v>98576.33134073549</v>
+        <v>77199.09324546649</v>
       </c>
       <c r="J2" t="n">
-        <v>98576.3313407355</v>
+        <v>77199.09324546649</v>
       </c>
       <c r="K2" t="n">
-        <v>98576.3313407355</v>
+        <v>77199.09324546646</v>
       </c>
       <c r="L2" t="n">
-        <v>98576.3313407355</v>
+        <v>77199.09324546649</v>
       </c>
       <c r="M2" t="n">
-        <v>98576.33134073552</v>
+        <v>77199.09324546649</v>
       </c>
       <c r="N2" t="n">
-        <v>98576.33134073552</v>
+        <v>77199.09324546647</v>
       </c>
       <c r="O2" t="n">
-        <v>98576.3313407355</v>
+        <v>77199.09324546647</v>
       </c>
       <c r="P2" t="n">
-        <v>98576.33134073549</v>
+        <v>77199.09324546649</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>26879.3041181974</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>103739.8847016905</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3456.195389160752</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>11792.29385141108</v>
       </c>
       <c r="G4" t="n">
-        <v>10299.11777920019</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="H4" t="n">
-        <v>10299.11777920019</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="I4" t="n">
-        <v>8060.157018348085</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="J4" t="n">
-        <v>8060.157018348087</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="K4" t="n">
-        <v>8060.157018348084</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="L4" t="n">
-        <v>8060.157018348085</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="M4" t="n">
-        <v>8060.157018348085</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="N4" t="n">
-        <v>8060.157018348085</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="O4" t="n">
-        <v>8060.157018348085</v>
+        <v>11792.29385141108</v>
       </c>
       <c r="P4" t="n">
-        <v>8060.157018348084</v>
+        <v>11792.29385141108</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>6467.457040608691</v>
       </c>
       <c r="G5" t="n">
-        <v>7983.956158385982</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="H5" t="n">
-        <v>7983.956158385989</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="I5" t="n">
-        <v>15516.98818551384</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="J5" t="n">
-        <v>15516.98818551384</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="K5" t="n">
-        <v>15516.98818551384</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="L5" t="n">
-        <v>15516.98818551384</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="M5" t="n">
-        <v>15516.98818551384</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="N5" t="n">
-        <v>15516.98818551384</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="O5" t="n">
-        <v>15516.98818551384</v>
+        <v>6467.457040608691</v>
       </c>
       <c r="P5" t="n">
-        <v>15516.98818551384</v>
+        <v>6467.457040608691</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21901.42258717319</v>
+        <v>-8265.816014141899</v>
       </c>
       <c r="C6" t="n">
-        <v>-21901.42258717319</v>
+        <v>-8265.816014141899</v>
       </c>
       <c r="D6" t="n">
-        <v>-21901.42258717319</v>
+        <v>-8265.816014141899</v>
       </c>
       <c r="E6" t="n">
-        <v>-193995.7591323936</v>
+        <v>-180866.8719197488</v>
       </c>
       <c r="F6" t="n">
-        <v>44351.68989495245</v>
+        <v>57480.5771075973</v>
       </c>
       <c r="G6" t="n">
-        <v>20998.39352342841</v>
+        <v>57480.5771075973</v>
       </c>
       <c r="H6" t="n">
-        <v>47877.6976416259</v>
+        <v>57480.57710759728</v>
       </c>
       <c r="I6" t="n">
-        <v>-41683.94809290596</v>
+        <v>57480.5771075973</v>
       </c>
       <c r="J6" t="n">
-        <v>62055.9366087846</v>
+        <v>57480.5771075973</v>
       </c>
       <c r="K6" t="n">
-        <v>62055.93660878461</v>
+        <v>57480.57710759727</v>
       </c>
       <c r="L6" t="n">
-        <v>62055.93660878461</v>
+        <v>57480.5771075973</v>
       </c>
       <c r="M6" t="n">
-        <v>62055.93660878463</v>
+        <v>57480.5771075973</v>
       </c>
       <c r="N6" t="n">
-        <v>62055.93660878463</v>
+        <v>57480.57710759728</v>
       </c>
       <c r="O6" t="n">
-        <v>58599.74121962386</v>
+        <v>57480.57710759728</v>
       </c>
       <c r="P6" t="n">
-        <v>62055.9366087846</v>
+        <v>57480.5771075973</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>296.6723413123253</v>
       </c>
       <c r="G3" t="n">
-        <v>326.1814319885848</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="H3" t="n">
-        <v>326.1814319885848</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="I3" t="n">
-        <v>433.8668702745745</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="J3" t="n">
-        <v>433.8668702745745</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="K3" t="n">
-        <v>433.8668702745745</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="L3" t="n">
-        <v>433.8668702745745</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="M3" t="n">
-        <v>433.8668702745745</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="N3" t="n">
-        <v>433.8668702745745</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="O3" t="n">
-        <v>433.8668702745745</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="P3" t="n">
-        <v>433.8668702745745</v>
+        <v>296.6723413123253</v>
       </c>
     </row>
     <row r="4">
@@ -26804,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>14.36185758280976</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>14.36185758280988</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>99.64951338039666</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29.50909067625952</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>107.6854382859897</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>14.36185758280976</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.28765579758674</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>14.36185758280976</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>14.36185758280976</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.311282138647576</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H17" t="n">
-        <v>13.42916820242449</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I17" t="n">
-        <v>50.55320465021072</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J17" t="n">
-        <v>111.2934324150398</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K17" t="n">
-        <v>166.8000053439917</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L17" t="n">
-        <v>206.9301560946275</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M17" t="n">
-        <v>230.2496698278014</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N17" t="n">
-        <v>233.9753502042338</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O17" t="n">
-        <v>220.9362884380569</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P17" t="n">
-        <v>188.5640106401949</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q17" t="n">
-        <v>141.6037190498785</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R17" t="n">
-        <v>82.36982664182088</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S17" t="n">
-        <v>29.88084173443167</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T17" t="n">
-        <v>5.740137561929767</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.701597797107522</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H18" t="n">
-        <v>6.775957672064753</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I18" t="n">
-        <v>24.15588906707916</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J18" t="n">
-        <v>66.28560591005761</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K18" t="n">
-        <v>113.2926583162616</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L18" t="n">
-        <v>152.335960288631</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>156.4958915048281</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>145.7035696661431</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>156.9581020272542</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.55834336411107</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R18" t="n">
-        <v>43.56060708707933</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S18" t="n">
-        <v>13.03187136294015</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T18" t="n">
-        <v>2.827931471674616</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H19" t="n">
-        <v>5.229597384997313</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I19" t="n">
-        <v>17.68865863964326</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J19" t="n">
-        <v>41.58545896024957</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K19" t="n">
-        <v>68.33768361990347</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L19" t="n">
-        <v>87.44870719248058</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M19" t="n">
-        <v>92.20240052096993</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N19" t="n">
-        <v>90.01003351907953</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O19" t="n">
-        <v>83.13883450095931</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P19" t="n">
-        <v>71.13963559305131</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.2533962302763</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R19" t="n">
-        <v>26.44743217402524</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S19" t="n">
-        <v>10.25065254298552</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T19" t="n">
-        <v>2.513201197289095</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.311282138647576</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H20" t="n">
-        <v>13.42916820242449</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I20" t="n">
-        <v>50.55320465021072</v>
+        <v>45.97974045605395</v>
       </c>
       <c r="J20" t="n">
-        <v>111.2934324150398</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K20" t="n">
-        <v>166.8000053439917</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L20" t="n">
-        <v>206.9301560946275</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M20" t="n">
-        <v>230.2496698278014</v>
+        <v>209.4193658350063</v>
       </c>
       <c r="N20" t="n">
-        <v>233.9753502042338</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O20" t="n">
-        <v>220.9362884380569</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P20" t="n">
-        <v>188.5640106401949</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q20" t="n">
-        <v>141.6037190498785</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R20" t="n">
-        <v>82.36982664182088</v>
+        <v>74.91796566818232</v>
       </c>
       <c r="S20" t="n">
-        <v>29.88084173443167</v>
+        <v>27.17757176946578</v>
       </c>
       <c r="T20" t="n">
-        <v>5.740137561929767</v>
+        <v>5.220836880782727</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.701597797107522</v>
+        <v>0.638125413388775</v>
       </c>
       <c r="H21" t="n">
-        <v>6.775957672064753</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I21" t="n">
-        <v>24.15588906707916</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J21" t="n">
-        <v>66.28560591005761</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K21" t="n">
-        <v>113.2926583162616</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L21" t="n">
-        <v>152.335960288631</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>156.4958915048282</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>145.7035696661432</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>156.9581020272543</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.55834336411107</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R21" t="n">
-        <v>43.56060708707933</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S21" t="n">
-        <v>13.03187136294015</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T21" t="n">
-        <v>2.827931471674616</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H22" t="n">
-        <v>5.229597384997313</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I22" t="n">
-        <v>17.68865863964326</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J22" t="n">
-        <v>41.58545896024957</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K22" t="n">
-        <v>68.33768361990347</v>
+        <v>62.15528724543468</v>
       </c>
       <c r="L22" t="n">
-        <v>87.44870719248058</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M22" t="n">
-        <v>92.20240052096993</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N22" t="n">
-        <v>90.01003351907953</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O22" t="n">
-        <v>83.13883450095931</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P22" t="n">
-        <v>71.13963559305131</v>
+        <v>64.70375129211759</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.2533962302763</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R22" t="n">
-        <v>26.44743217402524</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S22" t="n">
-        <v>10.25065254298552</v>
+        <v>9.3232930868152</v>
       </c>
       <c r="T22" t="n">
-        <v>2.513201197289095</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.744188423214369</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H23" t="n">
-        <v>17.86266968924416</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I23" t="n">
-        <v>67.24282418597201</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J23" t="n">
-        <v>148.0358121847906</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K23" t="n">
-        <v>221.8673081394549</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L23" t="n">
-        <v>275.2460145964017</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M23" t="n">
-        <v>306.2642254677402</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N23" t="n">
-        <v>311.2199008251981</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O23" t="n">
-        <v>293.8761271918602</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P23" t="n">
-        <v>250.8164754937554</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.3527275873908</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R23" t="n">
-        <v>109.5633760397397</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S23" t="n">
-        <v>39.74569369399747</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T23" t="n">
-        <v>7.635184822620903</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1395350738571495</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9332230794585188</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H24" t="n">
-        <v>9.012970267402013</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I24" t="n">
-        <v>32.13070690240954</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J24" t="n">
-        <v>88.16911559042086</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K24" t="n">
-        <v>150.6950619141416</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L24" t="n">
-        <v>202.6281076692718</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>236.4574442996431</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>230.9912254637299</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>222.0375104885363</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>178.2046773397587</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q24" t="n">
-        <v>119.1251074761436</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R24" t="n">
-        <v>57.9416926000649</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S24" t="n">
-        <v>17.33420939257379</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T24" t="n">
-        <v>3.761543903606923</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06139625522753415</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7823828808230031</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H25" t="n">
-        <v>6.956095067680888</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I25" t="n">
-        <v>23.52838699784087</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J25" t="n">
-        <v>55.31446967418632</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K25" t="n">
-        <v>90.89866560834525</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L25" t="n">
-        <v>116.3189966634491</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M25" t="n">
-        <v>122.6420728548276</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N25" t="n">
-        <v>119.7259184808511</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O25" t="n">
-        <v>110.5862639185096</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P25" t="n">
-        <v>94.62565314972026</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.51389741146075</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R25" t="n">
-        <v>35.17877935045975</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S25" t="n">
-        <v>13.63479984125179</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T25" t="n">
-        <v>3.342908672607376</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04267542986307295</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.744188423214369</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H26" t="n">
-        <v>17.86266968924416</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I26" t="n">
-        <v>67.24282418597201</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J26" t="n">
-        <v>148.0358121847906</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K26" t="n">
-        <v>221.8673081394549</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L26" t="n">
-        <v>275.2460145964017</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M26" t="n">
-        <v>306.2642254677402</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N26" t="n">
-        <v>311.2199008251981</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O26" t="n">
-        <v>293.8761271918602</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P26" t="n">
-        <v>250.8164754937554</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q26" t="n">
-        <v>188.3527275873908</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R26" t="n">
-        <v>109.5633760397397</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S26" t="n">
-        <v>39.74569369399747</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T26" t="n">
-        <v>7.635184822620903</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1395350738571495</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9332230794585188</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H27" t="n">
-        <v>9.012970267402013</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I27" t="n">
-        <v>32.13070690240954</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J27" t="n">
-        <v>88.16911559042086</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K27" t="n">
-        <v>150.6950619141416</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L27" t="n">
-        <v>202.6281076692718</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>236.4574442996431</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>230.99122546373</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>222.0375104885363</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>178.2046773397587</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q27" t="n">
-        <v>119.1251074761436</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R27" t="n">
-        <v>57.9416926000649</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S27" t="n">
-        <v>17.33420939257379</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T27" t="n">
-        <v>3.761543903606923</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06139625522753415</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7823828808230031</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H28" t="n">
-        <v>6.956095067680888</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I28" t="n">
-        <v>23.52838699784087</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J28" t="n">
-        <v>55.31446967418632</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K28" t="n">
-        <v>90.89866560834525</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L28" t="n">
-        <v>116.3189966634491</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M28" t="n">
-        <v>122.6420728548276</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N28" t="n">
-        <v>119.7259184808511</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O28" t="n">
-        <v>110.5862639185096</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P28" t="n">
-        <v>94.62565314972026</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.51389741146075</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R28" t="n">
-        <v>35.17877935045975</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S28" t="n">
-        <v>13.63479984125179</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T28" t="n">
-        <v>3.342908672607376</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04267542986307295</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.744188423214369</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H29" t="n">
-        <v>17.86266968924416</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I29" t="n">
-        <v>67.24282418597201</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J29" t="n">
-        <v>148.0358121847906</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K29" t="n">
-        <v>221.8673081394549</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L29" t="n">
-        <v>275.2460145964017</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M29" t="n">
-        <v>306.2642254677402</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N29" t="n">
-        <v>311.2199008251981</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O29" t="n">
-        <v>293.8761271918602</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P29" t="n">
-        <v>250.8164754937554</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q29" t="n">
-        <v>188.3527275873908</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R29" t="n">
-        <v>109.5633760397397</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S29" t="n">
-        <v>39.74569369399747</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T29" t="n">
-        <v>7.635184822620903</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1395350738571495</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9332230794585188</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H30" t="n">
-        <v>9.012970267402013</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I30" t="n">
-        <v>32.13070690240954</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J30" t="n">
-        <v>88.16911559042086</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K30" t="n">
-        <v>150.6950619141416</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L30" t="n">
-        <v>202.6281076692718</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>236.4574442996431</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>230.9912254637299</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>222.0375104885363</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>178.2046773397587</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q30" t="n">
-        <v>119.1251074761436</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R30" t="n">
-        <v>57.9416926000649</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S30" t="n">
-        <v>17.33420939257379</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T30" t="n">
-        <v>3.761543903606923</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06139625522753415</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7823828808230031</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H31" t="n">
-        <v>6.956095067680888</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I31" t="n">
-        <v>23.52838699784087</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J31" t="n">
-        <v>55.31446967418632</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K31" t="n">
-        <v>90.89866560834525</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L31" t="n">
-        <v>116.3189966634491</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M31" t="n">
-        <v>122.6420728548276</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N31" t="n">
-        <v>119.7259184808511</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O31" t="n">
-        <v>110.5862639185096</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P31" t="n">
-        <v>94.62565314972026</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.51389741146075</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R31" t="n">
-        <v>35.17877935045975</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S31" t="n">
-        <v>13.63479984125179</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T31" t="n">
-        <v>3.342908672607376</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04267542986307295</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.744188423214369</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H32" t="n">
-        <v>17.86266968924416</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I32" t="n">
-        <v>67.24282418597201</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J32" t="n">
-        <v>148.0358121847906</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K32" t="n">
-        <v>221.8673081394549</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L32" t="n">
-        <v>275.2460145964017</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M32" t="n">
-        <v>306.2642254677402</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N32" t="n">
-        <v>311.2199008251981</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O32" t="n">
-        <v>293.8761271918602</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P32" t="n">
-        <v>250.8164754937554</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q32" t="n">
-        <v>188.3527275873908</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5633760397397</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S32" t="n">
-        <v>39.74569369399747</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T32" t="n">
-        <v>7.635184822620903</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1395350738571495</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9332230794585188</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H33" t="n">
-        <v>9.012970267402013</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I33" t="n">
-        <v>32.13070690240954</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J33" t="n">
-        <v>88.16911559042086</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K33" t="n">
-        <v>150.6950619141416</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L33" t="n">
-        <v>202.6281076692718</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>236.4574442996431</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>230.9912254637299</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>222.0375104885363</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>178.2046773397587</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q33" t="n">
-        <v>119.1251074761436</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R33" t="n">
-        <v>57.9416926000649</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S33" t="n">
-        <v>17.33420939257379</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T33" t="n">
-        <v>3.761543903606923</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06139625522753415</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7823828808230031</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H34" t="n">
-        <v>6.956095067680888</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I34" t="n">
-        <v>23.52838699784087</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J34" t="n">
-        <v>55.31446967418632</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K34" t="n">
-        <v>90.89866560834525</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L34" t="n">
-        <v>116.3189966634491</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M34" t="n">
-        <v>122.6420728548276</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N34" t="n">
-        <v>119.7259184808511</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O34" t="n">
-        <v>110.5862639185096</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P34" t="n">
-        <v>94.62565314972026</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.51389741146075</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R34" t="n">
-        <v>35.17877935045975</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S34" t="n">
-        <v>13.63479984125179</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T34" t="n">
-        <v>3.342908672607376</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04267542986307295</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.744188423214369</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H35" t="n">
-        <v>17.86266968924416</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I35" t="n">
-        <v>67.24282418597201</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J35" t="n">
-        <v>148.0358121847906</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K35" t="n">
-        <v>221.8673081394549</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L35" t="n">
-        <v>275.2460145964017</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M35" t="n">
-        <v>306.2642254677402</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N35" t="n">
-        <v>311.2199008251981</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O35" t="n">
-        <v>293.8761271918602</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P35" t="n">
-        <v>250.8164754937554</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q35" t="n">
-        <v>188.3527275873908</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R35" t="n">
-        <v>109.5633760397397</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S35" t="n">
-        <v>39.74569369399747</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T35" t="n">
-        <v>7.635184822620903</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1395350738571495</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9332230794585188</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H36" t="n">
-        <v>9.012970267402013</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I36" t="n">
-        <v>32.13070690240954</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J36" t="n">
-        <v>88.16911559042086</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K36" t="n">
-        <v>150.6950619141416</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L36" t="n">
-        <v>202.6281076692718</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>236.4574442996431</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>230.9912254637299</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>222.0375104885363</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>178.2046773397587</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q36" t="n">
-        <v>119.1251074761436</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R36" t="n">
-        <v>57.9416926000649</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S36" t="n">
-        <v>17.33420939257379</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T36" t="n">
-        <v>3.761543903606923</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06139625522753415</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7823828808230031</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H37" t="n">
-        <v>6.956095067680888</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I37" t="n">
-        <v>23.52838699784087</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J37" t="n">
-        <v>55.31446967418632</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K37" t="n">
-        <v>90.89866560834525</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L37" t="n">
-        <v>116.3189966634491</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M37" t="n">
-        <v>122.6420728548276</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N37" t="n">
-        <v>119.7259184808511</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O37" t="n">
-        <v>110.5862639185096</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P37" t="n">
-        <v>94.62565314972026</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.51389741146075</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R37" t="n">
-        <v>35.17877935045975</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S37" t="n">
-        <v>13.63479984125179</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T37" t="n">
-        <v>3.342908672607376</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04267542986307295</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.744188423214369</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H38" t="n">
-        <v>17.86266968924416</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I38" t="n">
-        <v>67.24282418597201</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J38" t="n">
-        <v>148.0358121847906</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K38" t="n">
-        <v>221.8673081394549</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L38" t="n">
-        <v>275.2460145964017</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M38" t="n">
-        <v>306.2642254677402</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N38" t="n">
-        <v>311.2199008251981</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O38" t="n">
-        <v>293.8761271918602</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P38" t="n">
-        <v>250.8164754937554</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q38" t="n">
-        <v>188.3527275873908</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R38" t="n">
-        <v>109.5633760397397</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S38" t="n">
-        <v>39.74569369399747</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T38" t="n">
-        <v>7.635184822620903</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1395350738571495</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9332230794585188</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H39" t="n">
-        <v>9.012970267402013</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I39" t="n">
-        <v>32.13070690240954</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J39" t="n">
-        <v>88.16911559042086</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K39" t="n">
-        <v>150.6950619141416</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L39" t="n">
-        <v>202.6281076692718</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>236.4574442996431</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>230.9912254637299</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>222.0375104885363</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>178.2046773397587</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q39" t="n">
-        <v>119.1251074761436</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R39" t="n">
-        <v>57.9416926000649</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S39" t="n">
-        <v>17.33420939257379</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T39" t="n">
-        <v>3.761543903606923</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06139625522753415</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7823828808230031</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H40" t="n">
-        <v>6.956095067680888</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I40" t="n">
-        <v>23.52838699784087</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J40" t="n">
-        <v>55.31446967418632</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K40" t="n">
-        <v>90.89866560834525</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L40" t="n">
-        <v>116.3189966634491</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M40" t="n">
-        <v>122.6420728548276</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N40" t="n">
-        <v>119.7259184808511</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O40" t="n">
-        <v>110.5862639185096</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P40" t="n">
-        <v>94.62565314972026</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.51389741146075</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R40" t="n">
-        <v>35.17877935045975</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S40" t="n">
-        <v>13.63479984125179</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T40" t="n">
-        <v>3.342908672607376</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04267542986307295</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.744188423214369</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H41" t="n">
-        <v>17.86266968924416</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I41" t="n">
-        <v>67.24282418597201</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J41" t="n">
-        <v>148.0358121847906</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K41" t="n">
-        <v>221.8673081394549</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L41" t="n">
-        <v>275.2460145964017</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M41" t="n">
-        <v>306.2642254677402</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N41" t="n">
-        <v>311.2199008251981</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O41" t="n">
-        <v>293.8761271918602</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P41" t="n">
-        <v>250.8164754937554</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q41" t="n">
-        <v>188.3527275873908</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R41" t="n">
-        <v>109.5633760397397</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S41" t="n">
-        <v>39.74569369399747</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T41" t="n">
-        <v>7.635184822620903</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1395350738571495</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9332230794585188</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H42" t="n">
-        <v>9.012970267402013</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I42" t="n">
-        <v>32.13070690240954</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J42" t="n">
-        <v>88.16911559042086</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K42" t="n">
-        <v>150.6950619141416</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L42" t="n">
-        <v>202.6281076692718</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4574442996431</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>230.9912254637299</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>222.0375104885363</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>178.2046773397587</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q42" t="n">
-        <v>119.1251074761436</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R42" t="n">
-        <v>57.9416926000649</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S42" t="n">
-        <v>17.33420939257379</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T42" t="n">
-        <v>3.761543903606923</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06139625522753415</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7823828808230031</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H43" t="n">
-        <v>6.956095067680888</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I43" t="n">
-        <v>23.52838699784087</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J43" t="n">
-        <v>55.31446967418632</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K43" t="n">
-        <v>90.89866560834525</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L43" t="n">
-        <v>116.3189966634491</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M43" t="n">
-        <v>122.6420728548276</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N43" t="n">
-        <v>119.7259184808511</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O43" t="n">
-        <v>110.5862639185096</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P43" t="n">
-        <v>94.62565314972026</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.51389741146075</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R43" t="n">
-        <v>35.17877935045975</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S43" t="n">
-        <v>13.63479984125179</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T43" t="n">
-        <v>3.342908672607376</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04267542986307295</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.744188423214369</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H44" t="n">
-        <v>17.86266968924416</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I44" t="n">
-        <v>67.24282418597201</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J44" t="n">
-        <v>148.0358121847906</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K44" t="n">
-        <v>221.8673081394549</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L44" t="n">
-        <v>275.2460145964017</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M44" t="n">
-        <v>306.2642254677402</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N44" t="n">
-        <v>311.2199008251981</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O44" t="n">
-        <v>293.8761271918602</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P44" t="n">
-        <v>250.8164754937554</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q44" t="n">
-        <v>188.3527275873908</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R44" t="n">
-        <v>109.5633760397397</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S44" t="n">
-        <v>39.74569369399747</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T44" t="n">
-        <v>7.635184822620903</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1395350738571495</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9332230794585188</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H45" t="n">
-        <v>9.012970267402013</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I45" t="n">
-        <v>32.13070690240954</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J45" t="n">
-        <v>88.16911559042086</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K45" t="n">
-        <v>150.6950619141416</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L45" t="n">
-        <v>202.6281076692718</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>236.4574442996431</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>230.9912254637299</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>222.0375104885363</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>178.2046773397587</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q45" t="n">
-        <v>119.1251074761436</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R45" t="n">
-        <v>57.9416926000649</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S45" t="n">
-        <v>17.33420939257379</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T45" t="n">
-        <v>3.761543903606923</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06139625522753415</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7823828808230031</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H46" t="n">
-        <v>6.956095067680888</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I46" t="n">
-        <v>23.52838699784087</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J46" t="n">
-        <v>55.31446967418632</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K46" t="n">
-        <v>90.89866560834525</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L46" t="n">
-        <v>116.3189966634491</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M46" t="n">
-        <v>122.6420728548276</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N46" t="n">
-        <v>119.7259184808511</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O46" t="n">
-        <v>110.5862639185096</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P46" t="n">
-        <v>94.62565314972026</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.51389741146075</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R46" t="n">
-        <v>35.17877935045975</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S46" t="n">
-        <v>13.63479984125179</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T46" t="n">
-        <v>3.342908672607376</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04267542986307295</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35892,19 +35892,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>14.36185758280976</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>13.78158050875684</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>14.36185758280976</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.36185758280976</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>13.78158050875686</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>14.36185758280976</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>14.36185758280976</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>14.36185758280976</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36050,16 +36050,16 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>14.36185758280976</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>14.36185758280976</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>13.78158050875684</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>14.36185758280976</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36129,16 +36129,16 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>14.36185758280988</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>13.78158050875695</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>14.36185758280988</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>14.36185758280988</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>13.78158050875686</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>14.36185758280988</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>14.36185758280988</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>14.36185758280988</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36281,19 +36281,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>14.36185758280988</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>14.36185758280988</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>13.78158050875695</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>14.36185758280988</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1.777457094474386</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>81.80683722860715</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>92.10500973436127</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>19.58347973848586</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>12.85362293978261</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>64.07372788939765</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>94.32341037762475</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>79.44126604409183</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>44.2302699254285</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>68.6291737824624</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>34.73939759885261</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>91.90421241461375</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>52.62541010794687</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1.777457094474386</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>39.47959962641448</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>99.64951338039666</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>81.80683722860715</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>99.64951338039666</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>19.58347973848586</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>12.85362293978261</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>64.07372788939765</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>94.32341037762475</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>99.64951338039666</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>79.44126604409183</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>44.2302699254285</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>68.6291737824624</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>99.64951338039666</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>34.73939759885261</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>99.64951338039666</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>91.90421241461375</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.777457094474386</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>92.10500973436129</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>81.80683722860715</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>19.58347973848586</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>12.85362293978261</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>64.07372788939765</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>94.32341037762475</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>79.44126604409183</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>44.2302699254285</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36995,19 +36995,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>3.719058000918398</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>91.90421241461375</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37071,25 +37071,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1.777457094474386</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>39.47959962641448</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>75.9179922404675</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>81.80683722860715</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>76.35693124787595</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>19.58347973848586</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>12.85362293978261</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>64.07372788939765</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>94.32341037762475</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>79.44126604409183</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>44.2302699254285</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37232,16 +37232,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>95.62327041553212</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1.777457094474386</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>39.47959962641448</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>88.49700771817001</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>81.80683722860715</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>63.77791577017345</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>19.58347973848586</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>12.85362293978261</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>64.07372788939765</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>94.32341037762475</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>79.44126604409183</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>44.2302699254285</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37469,16 +37469,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>95.62327041553212</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1.777457094474386</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>74.26233358257183</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>19.58347973848586</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>12.85362293978261</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>64.07372788939765</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>94.32341037762475</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>79.44126604409183</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>44.2302699254285</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.6291737824624</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>34.73939759885261</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>91.90421241461375</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>14.35647257217684</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>39.47959962641448</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>75.9179922404675</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>81.80683722860715</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>63.77791577017345</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>19.58347973848586</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>12.85362293978261</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>64.07372788939765</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>94.32341037762475</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>79.44126604409183</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>44.2302699254285</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.719058000918386</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>91.90421241461375</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>94.38585270630962</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1.777457094474386</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>39.47959962641448</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>75.9179922404675</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>63.77791577017345</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>19.58347973848586</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>12.85362293978261</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>64.07372788939765</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>94.32341037762475</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>79.44126604409183</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>44.2302699254285</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>68.6291737824624</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>99.64951338039661</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>34.73939759885261</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>91.90421241461375</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
